--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861E7F06-6D1B-4048-89BE-160D30DF7BDF}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F333C0-CE08-46AC-8D25-4F4D05BF541C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="202">
   <si>
     <t>Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ</t>
   </si>
@@ -529,9 +532,6 @@
     <t>Limpeza Expressa</t>
   </si>
   <si>
-    <t>A ser apurado</t>
-  </si>
-  <si>
     <t>Insetkan</t>
   </si>
   <si>
@@ -599,6 +599,54 @@
   </si>
   <si>
     <t>Período</t>
+  </si>
+  <si>
+    <t>EMPR</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>INSET</t>
+  </si>
+  <si>
+    <t>Chave</t>
+  </si>
+  <si>
+    <t>11º Dia Útil</t>
+  </si>
+  <si>
+    <t>01º Dia Útil</t>
+  </si>
+  <si>
+    <t>05º Dia Útil</t>
+  </si>
+  <si>
+    <t>06º Dia Útil</t>
+  </si>
+  <si>
+    <t>03º Dia Útil</t>
+  </si>
+  <si>
+    <t>08º Dia Útil</t>
+  </si>
+  <si>
+    <t>02º Dia Útil</t>
+  </si>
+  <si>
+    <t>10º Dia Útil</t>
+  </si>
+  <si>
+    <t>07º Dia Útil</t>
+  </si>
+  <si>
+    <t>04º Dia Útil</t>
+  </si>
+  <si>
+    <t>09º Dia Útil</t>
   </si>
 </sst>
 </file>
@@ -768,7 +816,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,20 +827,20 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,13 +849,13 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,13 +864,13 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,13 +879,13 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,13 +894,13 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,7 +909,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,8 +930,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -891,48 +945,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -940,7 +953,7 @@
             <color theme="0"/>
           </stop>
           <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
+            <color theme="9" tint="0.59999389629810485"/>
           </stop>
         </gradientFill>
       </fill>
@@ -952,7 +965,7 @@
             <color theme="0"/>
           </stop>
           <stop position="1">
-            <color theme="9" tint="0.59999389629810485"/>
+            <color theme="5" tint="0.40000610370189521"/>
           </stop>
         </gradientFill>
       </fill>
@@ -974,171 +987,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor auto="1"/>
@@ -1184,7 +1033,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1198,61 +1047,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1272,6 +1066,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor auto="1"/>
@@ -1279,7 +1074,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1452,7 +1247,284 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1471,6 +1543,68 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1484,28 +1618,3543 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="07.2024"/>
+      <sheetName val="Repac"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Chave</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Nº</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>EMPR</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>NOME DO CONTRATANTE</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Nº/ANO DO CONTRATO</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>OBJETO</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>LOCAL DO SERVIÇOS</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>ENDEREÇO</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>CONSULTA PRORROGAÇÃO</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>INÍCIO VIGÊNCIA</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>FIM VIGÊNCIA</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>STATUS VIGÊNCIA</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>VALOR TOTAL A EXECUTAR</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>VALOR MENSAL CONTRATADO</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>VALOR A FATURAR (APÓS MEDIÇÃO)</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>DIFERENÇA (APÓS MEDIÇÃO)</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>KE_Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ_Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>003/106/2021</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Baixada - Rio de Janeiro</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>Av. Erasmo Braga nº 115, Centro, Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I2">
+            <v>45624</v>
+          </cell>
+          <cell r="J2">
+            <v>44284</v>
+          </cell>
+          <cell r="K2">
+            <v>45744</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M2">
+            <v>6179735.3666666672</v>
+          </cell>
+          <cell r="N2">
+            <v>775699</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P2" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>KE_Casa da Moeda do Brasil - CMB_Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Casa da Moeda do Brasil - CMB</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>1456/2024</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Santa Cruz - Rio de Janeiro</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>Rua René Bittencourt, 371 - Santa Cruz, Rio de Janeiro - RJ, 23565-200</v>
+          </cell>
+          <cell r="I3">
+            <v>46306</v>
+          </cell>
+          <cell r="J3">
+            <v>45330</v>
+          </cell>
+          <cell r="K3">
+            <v>46426</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M3">
+            <v>20466661.550000001</v>
+          </cell>
+          <cell r="N3">
+            <v>666666.5</v>
+          </cell>
+          <cell r="O3">
+            <v>610366.98</v>
+          </cell>
+          <cell r="P3">
+            <v>-56299.520000000019</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>KT_Furnas Centrais Elétricas _Limpeza e Portaria</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v xml:space="preserve">Furnas Centrais Elétricas </v>
+          </cell>
+          <cell r="E4">
+            <v>8000013262</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>Limpeza e Portaria</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>Estado RJ, SP, MG e ES</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>Av. Graça Aranha, 26 - Centro, Rio de Janeiro - RJ, 20030-000</v>
+          </cell>
+          <cell r="I4">
+            <v>45811</v>
+          </cell>
+          <cell r="J4">
+            <v>45201</v>
+          </cell>
+          <cell r="K4">
+            <v>45931</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M4">
+            <v>9031898.1263992023</v>
+          </cell>
+          <cell r="N4">
+            <v>636049.16383092967</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>KE_Instituto de Pesquisas Energéticas e Nucleares - IPEN_Limpeza</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Instituto de Pesquisas Energéticas e Nucleares - IPEN</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>01/2023</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>Av. Prof. Lineu Prestes, 2.242 - Cidade Universitária "Armando de Salles Oliveira", Butantã, São Paulo/SP</v>
+          </cell>
+          <cell r="I5">
+            <v>45553</v>
+          </cell>
+          <cell r="J5">
+            <v>44942</v>
+          </cell>
+          <cell r="K5">
+            <v>45673</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M5">
+            <v>3012858.4080000003</v>
+          </cell>
+          <cell r="N5">
+            <v>538010.43000000005</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>KT_Marinha - Base de Abastecimento da Marinha no Rio de Janeiro - BAMRJ_Limpeza</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Marinha - Base de Abastecimento da Marinha no Rio de Janeiro - BAMRJ</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>711002023-00300</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>Av. Brasil, nº 10500 - Olaria - Rio de Janeiro/RJ - CEP: 21.012-350</v>
+          </cell>
+          <cell r="I6">
+            <v>45616</v>
+          </cell>
+          <cell r="J6">
+            <v>45005</v>
+          </cell>
+          <cell r="K6">
+            <v>45736</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M6">
+            <v>3363881.6749999998</v>
+          </cell>
+          <cell r="N6">
+            <v>436867.75</v>
+          </cell>
+          <cell r="O6">
+            <v>436867.75</v>
+          </cell>
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>KT_Banco do Brasil_Limpeza</v>
+          </cell>
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Banco do Brasil</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>202374212805</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>R. Amaral Costa, 72 - Campo GrandeRio de Janeiro - RJ, 23050-260</v>
+          </cell>
+          <cell r="I7">
+            <v>45579</v>
+          </cell>
+          <cell r="J7">
+            <v>45089</v>
+          </cell>
+          <cell r="K7">
+            <v>45699</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M7">
+            <v>2796804.4920000006</v>
+          </cell>
+          <cell r="N7">
+            <v>432495.54000000004</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>KT_Aeronáutica - Academia da Força Aérea - AFA-FAYS_Apoio Agroindustrial</v>
+          </cell>
+          <cell r="B8">
+            <v>7</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Aeronáutica - Academia da Força Aérea - AFA-FAYS</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>018/AFA-FAYS/2022</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>Apoio Agroindustrial</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>Pirassununga/SP</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>Estrada de Aguaí, s/nº, Campo Fontenelle, Pirassununga/SP</v>
+          </cell>
+          <cell r="I8">
+            <v>45385</v>
+          </cell>
+          <cell r="J8">
+            <v>44774</v>
+          </cell>
+          <cell r="K8">
+            <v>45505</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>Encerrado</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8">
+            <v>431466.71</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
+          </cell>
+          <cell r="B9">
+            <v>8</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Banco do Brasil</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>2024.7421.2356</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v xml:space="preserve">Limpeza </v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>Quadra 5, Lote B, Saun, s/n - Asa Norte, Brasília - DF, 70040-912</v>
+          </cell>
+          <cell r="I9">
+            <v>45712</v>
+          </cell>
+          <cell r="J9">
+            <v>45468</v>
+          </cell>
+          <cell r="K9">
+            <v>45832</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M9">
+            <v>4225371.2659999998</v>
+          </cell>
+          <cell r="N9">
+            <v>387648.74</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
+          </cell>
+          <cell r="B10">
+            <v>9</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Banco do Brasil</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>2024.7421.2355</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v xml:space="preserve">Limpeza </v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>Quadra 5, Lote B, Saun, s/n - Asa Norte, Brasília - DF, 70040-912</v>
+          </cell>
+          <cell r="I10">
+            <v>45712</v>
+          </cell>
+          <cell r="J10">
+            <v>45468</v>
+          </cell>
+          <cell r="K10">
+            <v>45832</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M10">
+            <v>3758085.432</v>
+          </cell>
+          <cell r="N10">
+            <v>344778.48</v>
+          </cell>
+          <cell r="O10" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>KT_Banco do Brasil_Limpeza</v>
+          </cell>
+          <cell r="B11">
+            <v>10</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Banco do Brasil</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>202374210466</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>R. Sen. Dantas, 105 - Centro, Rio de Janeiro - RJ, 20031-204</v>
+          </cell>
+          <cell r="I11">
+            <v>45465</v>
+          </cell>
+          <cell r="J11">
+            <v>44978</v>
+          </cell>
+          <cell r="K11">
+            <v>45585</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M11">
+            <v>897538.32</v>
+          </cell>
+          <cell r="N11">
+            <v>336576.87</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
+          </cell>
+          <cell r="B12">
+            <v>11</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Superintendência Regional da Polícia Federal no Rio de Janeiro</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>09/2024-
+SR/PF/RJ</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>Av. Rodrigues Alves, 1 - Centro, Rio de Janeiro - RJ, 20081-250</v>
+          </cell>
+          <cell r="I12">
+            <v>46207</v>
+          </cell>
+          <cell r="J12">
+            <v>45413</v>
+          </cell>
+          <cell r="K12">
+            <v>46327</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M12">
+            <v>8833024.8579999991</v>
+          </cell>
+          <cell r="N12">
+            <v>322373.17</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
+          </cell>
+          <cell r="B13">
+            <v>12</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Banco do Brasil</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>2024.7421.2357</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v xml:space="preserve">Limpeza </v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>Quadra 5, Lote B, Saun, s/n - Asa Norte, Brasília - DF, 70040-912</v>
+          </cell>
+          <cell r="I13">
+            <v>45712</v>
+          </cell>
+          <cell r="J13">
+            <v>45468</v>
+          </cell>
+          <cell r="K13">
+            <v>45832</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M13">
+            <v>3331342.8020000001</v>
+          </cell>
+          <cell r="N13">
+            <v>305627.78000000003</v>
+          </cell>
+          <cell r="O13" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>KE_Banco do Brasil_Apoio Administrativo</v>
+          </cell>
+          <cell r="B14">
+            <v>13</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Banco do Brasil</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>2024.7421.0457</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>Apoio Administrativo</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>Centro - Rio de Janeiro</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>Quadra 5, Lote B, Saun, s/n - Asa Norte, Brasília - DF, 70040-912</v>
+          </cell>
+          <cell r="I14">
+            <v>45572</v>
+          </cell>
+          <cell r="J14">
+            <v>45326</v>
+          </cell>
+          <cell r="K14">
+            <v>45692</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M14">
+            <v>1891083.4396666666</v>
+          </cell>
+          <cell r="N14">
+            <v>303382.37</v>
+          </cell>
+          <cell r="O14" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>KT_Instituto Nacional de Metrologia, Qualidade e Tecnologia - Inmetro_Limpeza</v>
+          </cell>
+          <cell r="B15">
+            <v>14</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Instituto Nacional de Metrologia, Qualidade e Tecnologia - Inmetro</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>15/2021</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Xerém - Duque de Caxias/RJ</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>Av Nossa Senhora das Graças, nº 50, Vila Operária, Xerém, Duque de Caxias, RJ</v>
+          </cell>
+          <cell r="I15">
+            <v>45731</v>
+          </cell>
+          <cell r="J15">
+            <v>44391</v>
+          </cell>
+          <cell r="K15">
+            <v>45851</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M15">
+            <v>3247732.1140000001</v>
+          </cell>
+          <cell r="N15">
+            <v>281595.27</v>
+          </cell>
+          <cell r="O15" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>KE_Marinha - CTMSP _Apoio Administrativo</v>
+          </cell>
+          <cell r="B16">
+            <v>15</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v xml:space="preserve">Marinha - CTMSP </v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>420502024-001</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>Apoio Administrativo</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>Av Professor Lineu Prestes, nº 2468 – Cidade Universitária – Butantã, CEP: 05508-000 – São Paulo – SP</v>
+          </cell>
+          <cell r="I16">
+            <v>45596</v>
+          </cell>
+          <cell r="J16">
+            <v>45350</v>
+          </cell>
+          <cell r="K16">
+            <v>45716</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M16">
+            <v>1801965.3903333331</v>
+          </cell>
+          <cell r="N16">
+            <v>256203.61</v>
+          </cell>
+          <cell r="O16" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>KT_Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP_Limpeza</v>
+          </cell>
+          <cell r="B17">
+            <v>16</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>42050/2023-003/00</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>Avenida Professor Lineu Prestes, nº 2468
+– Cidade Universitária – Butantã, CEP: 05508-000 – São Paulo – SP</v>
+          </cell>
+          <cell r="I17">
+            <v>45571</v>
+          </cell>
+          <cell r="J17">
+            <v>44960</v>
+          </cell>
+          <cell r="K17">
+            <v>45691</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M17">
+            <v>1535028.9219999998</v>
+          </cell>
+          <cell r="N17">
+            <v>247585.31</v>
+          </cell>
+          <cell r="O17" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
+          </cell>
+          <cell r="B18">
+            <v>17</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Companhia de Pesquisa de Recursos Minerais - CPRM</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>140/2023</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>Auxiliar de Campo e Administrativo</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>Estados SP, RJ, MG e RS</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>Rua Banco da Província, n º105, Bairro Santa Teresa, Porto Alegre, CEP: 90840-030</v>
+          </cell>
+          <cell r="I18">
+            <v>46910</v>
+          </cell>
+          <cell r="J18">
+            <v>45203</v>
+          </cell>
+          <cell r="K18">
+            <v>47030</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M18">
+            <v>11148334.583333334</v>
+          </cell>
+          <cell r="N18">
+            <v>219311.5</v>
+          </cell>
+          <cell r="O18" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>KE_Companhia Docas do Rio de Janeiro - PortosRio _Limpeza</v>
+          </cell>
+          <cell r="B19">
+            <v>18</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v xml:space="preserve">Companhia Docas do Rio de Janeiro - PortosRio </v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>52/2023</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>Centro - Rio de Janeiro</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>Rua Dom Gerardo 35, 10º andar - Centro, Rio de Janeiro/RJ, CEP 20090-905</v>
+          </cell>
+          <cell r="I19">
+            <v>45546</v>
+          </cell>
+          <cell r="J19">
+            <v>45301</v>
+          </cell>
+          <cell r="K19">
+            <v>45666</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M19">
+            <v>1160288.0916666666</v>
+          </cell>
+          <cell r="N19">
+            <v>216202.75</v>
+          </cell>
+          <cell r="O19">
+            <v>228186.31</v>
+          </cell>
+          <cell r="P19">
+            <v>11983.559999999998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>KT_Aeronáutica - Academia da Força Aérea - AFA_Limpeza</v>
+          </cell>
+          <cell r="B20">
+            <v>19</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Aeronáutica - Academia da Força Aérea - AFA</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>010/AFA/2022</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>Pirassununga/SP</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>Estrada de Aguaí, s/nº, Campo Fontenelle, Pirassununga/SP</v>
+          </cell>
+          <cell r="I20">
+            <v>45710</v>
+          </cell>
+          <cell r="J20">
+            <v>44734</v>
+          </cell>
+          <cell r="K20">
+            <v>45830</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M20">
+            <v>2340580.5583333336</v>
+          </cell>
+          <cell r="N20">
+            <v>216053.59</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>KE_Serviço Federal de Processamento de Dados - SERPRO_Facilities</v>
+          </cell>
+          <cell r="B21">
+            <v>20</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Serviço Federal de Processamento de Dados - SERPRO</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>142.571/2023</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>Facilities</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v>Rua Pacheco Leão, 1235 - Fundos - Jardim Botânico, Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I21">
+            <v>46663</v>
+          </cell>
+          <cell r="J21">
+            <v>44958</v>
+          </cell>
+          <cell r="K21">
+            <v>46783</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M21">
+            <v>9129878.6400000006</v>
+          </cell>
+          <cell r="N21">
+            <v>214316.4</v>
+          </cell>
+          <cell r="O21" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>KE_Exército - Instituto Militar de Engenharia - IME_Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="B22">
+            <v>21</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Exército - Instituto Militar de Engenharia - IME</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>03/2020</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>Urca - Rio de Janeiro</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>Praça Gen. Tibúrcio, 80 - Urca, Rio de Janeiro - RJ, 22290-270</v>
+          </cell>
+          <cell r="I22">
+            <v>45718</v>
+          </cell>
+          <cell r="J22">
+            <v>44013</v>
+          </cell>
+          <cell r="K22">
+            <v>45838</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M22">
+            <v>2316058.068</v>
+          </cell>
+          <cell r="N22">
+            <v>208653.88</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>KT_Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP_Limpeza</v>
+          </cell>
+          <cell r="B23">
+            <v>22</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>42050/2021-006</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>Iperó/SP</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>Estr. Vicinal Sorocaba-Iperó, Km 12,5 - Bacaetava, Iperó - SP, 18560-000</v>
+          </cell>
+          <cell r="I23">
+            <v>45540</v>
+          </cell>
+          <cell r="J23">
+            <v>44564</v>
+          </cell>
+          <cell r="K23">
+            <v>45660</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M23">
+            <v>1007580.2383333333</v>
+          </cell>
+          <cell r="N23">
+            <v>195015.53</v>
+          </cell>
+          <cell r="O23" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>KT_Exército - Base de Administração e Apoio da 1ª Região Militar_Limpeza, Jardinagem e Copeiragem</v>
+          </cell>
+          <cell r="B24">
+            <v>23</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Exército - Base de Administração e Apoio da 1ª Região Militar</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>04/2021</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>Limpeza, Jardinagem e Copeiragem</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>Praça Duque de Caxias, nº 25, Centro, Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I24">
+            <v>45417</v>
+          </cell>
+          <cell r="J24">
+            <v>44441</v>
+          </cell>
+          <cell r="K24">
+            <v>45537</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M24">
+            <v>202557.81333333335</v>
+          </cell>
+          <cell r="N24">
+            <v>189897.95</v>
+          </cell>
+          <cell r="O24">
+            <v>189897.95</v>
+          </cell>
+          <cell r="P24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>KT_Instituto de Pesquisas Energéticas e Nucleares - IPEN_Apoio Operacional</v>
+          </cell>
+          <cell r="B25">
+            <v>24</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Instituto de Pesquisas Energéticas e Nucleares - IPEN</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>16/2022</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>Apoio Operacional</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>Av. Prof. Lineu Prestes, 2.242 - Butantã, São Paulo/SP</v>
+          </cell>
+          <cell r="I25">
+            <v>45689</v>
+          </cell>
+          <cell r="J25">
+            <v>44713</v>
+          </cell>
+          <cell r="K25">
+            <v>45809</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M25">
+            <v>1574578.0319999999</v>
+          </cell>
+          <cell r="N25">
+            <v>155385.99</v>
+          </cell>
+          <cell r="O25" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P25" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Reitoria_Limpeza</v>
+          </cell>
+          <cell r="B26">
+            <v>25</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Instituto Federal do Rio de Janeiro - IFRJ Reitoria</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>07/2021</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>Grande Rio e Interior RJ</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>Rua Pereira de Almeida, 88, Praça da Bandeira, Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I26">
+            <v>45537</v>
+          </cell>
+          <cell r="J26">
+            <v>44562</v>
+          </cell>
+          <cell r="K26">
+            <v>45657</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M26">
+            <v>719174.67466666654</v>
+          </cell>
+          <cell r="N26">
+            <v>141942.37</v>
+          </cell>
+          <cell r="O26" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P26" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>KE_Departamento Nacional de Infraestrutura de Transportes - DNIT_Limpeza</v>
+          </cell>
+          <cell r="B27">
+            <v>26</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Departamento Nacional de Infraestrutura de Transportes - DNIT</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>0106/2024</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>Av República do
+Chile, 230, 3º andar, Rio de Janeiro/RJ, CEP: 20.031-919</v>
+          </cell>
+          <cell r="I27">
+            <v>45596</v>
+          </cell>
+          <cell r="J27">
+            <v>45350</v>
+          </cell>
+          <cell r="K27">
+            <v>45716</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M27">
+            <v>987934.49399999995</v>
+          </cell>
+          <cell r="N27">
+            <v>140464.62</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P27" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>KT_Superintendência Estadual do Ministério da Saúde no Rio de Janeiro - SEMS/RJ_Limpeza</v>
+          </cell>
+          <cell r="B28">
+            <v>27</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Superintendência Estadual do Ministério da Saúde no Rio de Janeiro - SEMS/RJ</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>4280/2022</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>Rua México, 128, 10º andar, Gabinete, – Centro – Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I28">
+            <v>45597</v>
+          </cell>
+          <cell r="J28">
+            <v>44986</v>
+          </cell>
+          <cell r="K28">
+            <v>45717</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M28">
+            <v>990216.94933333329</v>
+          </cell>
+          <cell r="N28">
+            <v>140125.04</v>
+          </cell>
+          <cell r="O28" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P28" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>KE_Companhia de Entrepostos e Armazéns Gerais de São Paulo - CEAGESP_Limpeza</v>
+          </cell>
+          <cell r="B29">
+            <v>28</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Companhia de Entrepostos e Armazéns Gerais de São Paulo - CEAGESP</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>09022-2361-2312-05-030-14-1</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>São Paulo/SP</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>Av Doutor Gastão Vidigal, nº 1.946, CEP 05316-900, Vila Leopoldina, São Paulo, SP</v>
+          </cell>
+          <cell r="I29">
+            <v>45518</v>
+          </cell>
+          <cell r="J29">
+            <v>45273</v>
+          </cell>
+          <cell r="K29">
+            <v>45638</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M29">
+            <v>582264.55700000003</v>
+          </cell>
+          <cell r="N29">
+            <v>131337.87</v>
+          </cell>
+          <cell r="O29" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P29" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>KT_Banco Central do Brasil - Bacen_Apoio Administrativo e Almoxarife</v>
+          </cell>
+          <cell r="B30">
+            <v>29</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Banco Central do Brasil - Bacen</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>50.040/2020</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>Apoio Administrativo e Almoxarife</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>Av. Pres. Vargas, 730 - Centro, Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I30">
+            <v>45577</v>
+          </cell>
+          <cell r="J30">
+            <v>43871</v>
+          </cell>
+          <cell r="K30">
+            <v>45697</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M30">
+            <v>821197.63199999998</v>
+          </cell>
+          <cell r="N30">
+            <v>128312.13</v>
+          </cell>
+          <cell r="O30" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P30" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>KT_Arquivo Nacional - AN_Limpeza</v>
+          </cell>
+          <cell r="B31">
+            <v>30</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Arquivo Nacional - AN</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>9/2023</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>Praça da República, nº 173, Centro, Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I31">
+            <v>45721</v>
+          </cell>
+          <cell r="J31">
+            <v>45110</v>
+          </cell>
+          <cell r="K31">
+            <v>45841</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M31">
+            <v>1415888.2079999999</v>
+          </cell>
+          <cell r="N31">
+            <v>126418.59</v>
+          </cell>
+          <cell r="O31" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P31" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>KE_Condomínio Edifício Grajau Ville_Limpeza e Portaria</v>
+          </cell>
+          <cell r="B32">
+            <v>31</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Condomínio Edifício Grajau Ville</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>Limpeza e Portaria</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>Grajau - Rio de Janeiro</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>R. Teodoro da Silva, 751 - Vila Isabel, Rio de Janeiro - RJ, 20560-000</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J32">
+            <v>42522</v>
+          </cell>
+          <cell r="K32">
+            <v>45535</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M32">
+            <v>118243.06999999999</v>
+          </cell>
+          <cell r="N32">
+            <v>118243.06999999999</v>
+          </cell>
+          <cell r="O32">
+            <v>118243.07</v>
+          </cell>
+          <cell r="P32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>KE_Exército - Escola de Sargentos de Logística - EsSLog_Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="B33">
+            <v>32</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Exército - Escola de Sargentos de Logística - EsSLog</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>01/2019</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>Deodoro - Rio de Janeiro</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>R. João Vicente, 2179 - Deodoro, Rio de Janeiro - RJ, 21610-211</v>
+          </cell>
+          <cell r="I33">
+            <v>45368</v>
+          </cell>
+          <cell r="J33">
+            <v>43661</v>
+          </cell>
+          <cell r="K33">
+            <v>45488</v>
+          </cell>
+          <cell r="L33" t="str">
+            <v>Encerrado</v>
+          </cell>
+          <cell r="M33">
+            <v>-66859.911999999997</v>
+          </cell>
+          <cell r="N33">
+            <v>117988.08</v>
+          </cell>
+          <cell r="O33">
+            <v>58090.33</v>
+          </cell>
+          <cell r="P33">
+            <v>-59897.75</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>KE_Marinha - LFM_Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="B34">
+            <v>33</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Marinha - LFM</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>765741/2021-005</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>Limpeza e Jardinagem</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>Benfica - Rio de Janeiro</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v>Avenida Dom Hélder Câmara, 315 – Benfica – CEP 21291-911</v>
+          </cell>
+          <cell r="I34">
+            <v>45674</v>
+          </cell>
+          <cell r="J34">
+            <v>44333</v>
+          </cell>
+          <cell r="K34">
+            <v>45794</v>
+          </cell>
+          <cell r="L34" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M34">
+            <v>1079526.3170730164</v>
+          </cell>
+          <cell r="N34">
+            <v>112061.55540550343</v>
+          </cell>
+          <cell r="O34" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P34" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>KE_Instituto Brasileiro de Museus - Ibram_Jardinagem</v>
+          </cell>
+          <cell r="B35">
+            <v>34</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>Instituto Brasileiro de Museus - Ibram</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>52/2023</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>Jardinagem</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>Av Presidente Vargas nº 3131, Edifício Teleporto, Sala 1702, , Rio de Janeiro/RJ, CEP 20210030</v>
+          </cell>
+          <cell r="I35">
+            <v>45535</v>
+          </cell>
+          <cell r="J35">
+            <v>45289</v>
+          </cell>
+          <cell r="K35">
+            <v>45655</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M35">
+            <v>467502.39999999997</v>
+          </cell>
+          <cell r="N35">
+            <v>93500.479999999996</v>
+          </cell>
+          <cell r="O35" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P35" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Nilópolis_Limpeza</v>
+          </cell>
+          <cell r="B36">
+            <v>35</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>Instituto Federal do Rio de Janeiro - IFRJ Campus Nilópolis</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>03/2021</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>Nilópolis/RJ</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>Rua Coronel Délio Menezes Porto (antiga Lúcio tavares) 1045 – Centro - Nilópolis/RJ</v>
+          </cell>
+          <cell r="I36">
+            <v>45540</v>
+          </cell>
+          <cell r="J36">
+            <v>44564</v>
+          </cell>
+          <cell r="K36">
+            <v>45660</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M36">
+            <v>428595.35666666663</v>
+          </cell>
+          <cell r="N36">
+            <v>82953.94</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P36" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>KE_Instituto Benjamin Constant - IBC_Preparo e Distribuição de Refeições</v>
+          </cell>
+          <cell r="B37">
+            <v>36</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Instituto Benjamin Constant - IBC</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>01/2020</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>Preparo e Distribuição de Refeições</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v xml:space="preserve">Urca - Rio de Janeiro </v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>Av. Pasteur, 350 / 368 - Urca, Rio de Janeiro - RJ, 22290-240</v>
+          </cell>
+          <cell r="I37">
+            <v>45577</v>
+          </cell>
+          <cell r="J37">
+            <v>43871</v>
+          </cell>
+          <cell r="K37">
+            <v>45697</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M37">
+            <v>410310.33600000001</v>
+          </cell>
+          <cell r="N37">
+            <v>64110.99</v>
+          </cell>
+          <cell r="O37" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P37" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>KT_Instituto Chico Mendes de Conservação da Biodiversidade - ICMBio_Apoio Administrativo</v>
+          </cell>
+          <cell r="B38">
+            <v>37</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>Instituto Chico Mendes de Conservação da Biodiversidade - ICMBio</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>76/2021</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>Apoio Administrativo</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>Estado SP</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>Estrada Vicinal IPE 265, km 19,5 - Bairro Fazenda Ipanema - Iperó/SP</v>
+          </cell>
+          <cell r="I38">
+            <v>45541</v>
+          </cell>
+          <cell r="J38">
+            <v>44565</v>
+          </cell>
+          <cell r="K38">
+            <v>45661</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M38">
+            <v>332152.07999999996</v>
+          </cell>
+          <cell r="N38">
+            <v>63875.4</v>
+          </cell>
+          <cell r="O38" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P38" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>KE_Exército - Instituto de Biologia do Exército - IBEx_Limpeza</v>
+          </cell>
+          <cell r="B39">
+            <v>38</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Exército - Instituto de Biologia do Exército - IBEx</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>01/2020</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>Benfica - Rio de Janeiro</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>Rua Francisco Manuel,102 - Triagem, Rio de Janeiro - CEP: 20911-270</v>
+          </cell>
+          <cell r="I39">
+            <v>45538</v>
+          </cell>
+          <cell r="J39">
+            <v>43832</v>
+          </cell>
+          <cell r="K39">
+            <v>45658</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M39">
+            <v>321894.14999999997</v>
+          </cell>
+          <cell r="N39">
+            <v>63116.5</v>
+          </cell>
+          <cell r="O39" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P39" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>KE_Condomínio Edifício Villa Splendore_Limpeza e Portaria</v>
+          </cell>
+          <cell r="B40">
+            <v>39</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Condomínio Edifício Villa Splendore</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v xml:space="preserve">s/n </v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>Limpeza e Portaria</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>Meier - Rio de Janeiro</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v>R. Getúlio, 75 - Todos os Santos, Rio de Janeiro - RJ, 20775-001</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J40">
+            <v>43525</v>
+          </cell>
+          <cell r="K40">
+            <v>45535</v>
+          </cell>
+          <cell r="L40" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M40">
+            <v>56302.37</v>
+          </cell>
+          <cell r="N40">
+            <v>56302.37</v>
+          </cell>
+          <cell r="O40" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P40" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>KT_Instituto do Patrimônio Histórico e Artístico Nacional - IPHAN_Limpeza</v>
+          </cell>
+          <cell r="B41">
+            <v>40</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Instituto do Patrimônio Histórico e Artístico Nacional - IPHAN</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>03/2022</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>Estado do RJ</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v>Praça Quinze de Novembro, No. 48, Centro, Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I41">
+            <v>45652</v>
+          </cell>
+          <cell r="J41">
+            <v>44676</v>
+          </cell>
+          <cell r="K41">
+            <v>45772</v>
+          </cell>
+          <cell r="L41" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M41">
+            <v>471969.31400000001</v>
+          </cell>
+          <cell r="N41">
+            <v>53030.26</v>
+          </cell>
+          <cell r="O41" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P41" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>KE_Marinha - CIASC_Limpeza</v>
+          </cell>
+          <cell r="B42">
+            <v>41</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Marinha - CIASC</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>2018-004</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>Iha do Governador - Rio de Janeiro</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>R. Magno Martins, s/n - Ilha do Gov., Rio de Janeiro - RJ, 21911-430</v>
+          </cell>
+          <cell r="I42">
+            <v>45538</v>
+          </cell>
+          <cell r="J42">
+            <v>43467</v>
+          </cell>
+          <cell r="K42">
+            <v>45658</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M42">
+            <v>264290.15999999997</v>
+          </cell>
+          <cell r="N42">
+            <v>51821.599999999999</v>
+          </cell>
+          <cell r="O42" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P42" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>KE_Laboratório Nacional de Computação Científica - LNCC _Limpeza</v>
+          </cell>
+          <cell r="B43">
+            <v>42</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v xml:space="preserve">Laboratório Nacional de Computação Científica - LNCC </v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>03/2019</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>Petrópolis/RJ</v>
+          </cell>
+          <cell r="H43" t="str">
+            <v>Av. Getúlio Vargas, 333, Quitandinha, Petrópolis, RJ</v>
+          </cell>
+          <cell r="I43">
+            <v>45658</v>
+          </cell>
+          <cell r="J43">
+            <v>43587</v>
+          </cell>
+          <cell r="K43">
+            <v>45778</v>
+          </cell>
+          <cell r="L43" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M43">
+            <v>430236.07899999997</v>
+          </cell>
+          <cell r="N43">
+            <v>47278.69</v>
+          </cell>
+          <cell r="O43" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P43" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>KE_Fundação de Apoio à Pesquisa Científica e Tecnológica da UFRRJ – FAPUR_Apoio Operacional</v>
+          </cell>
+          <cell r="B44">
+            <v>43</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Fundação de Apoio à Pesquisa Científica e Tecnológica da UFRRJ – FAPUR</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>8/2023</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>Apoio Operacional</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>Seropédica - RJ</v>
+          </cell>
+          <cell r="H44" t="str">
+            <v>BR 465, KM 47, Campus da UFRRJ, Rua UO, S/N, Seropédica, RJ, CEP 23.897-035</v>
+          </cell>
+          <cell r="I44">
+            <v>45470</v>
+          </cell>
+          <cell r="J44">
+            <v>45042</v>
+          </cell>
+          <cell r="K44">
+            <v>45590</v>
+          </cell>
+          <cell r="L44" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M44">
+            <v>129125.70999999999</v>
+          </cell>
+          <cell r="N44">
+            <v>45573.78</v>
+          </cell>
+          <cell r="O44" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P44" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Rio de Janeiro_Limpeza</v>
+          </cell>
+          <cell r="B45">
+            <v>44</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Instituto Federal do Rio de Janeiro - IFRJ Campus Rio de Janeiro</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>01/2022</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H45" t="str">
+            <v>Rua Senador Furtado, nº 121 – Maracanã – Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I45">
+            <v>45538</v>
+          </cell>
+          <cell r="J45">
+            <v>44562</v>
+          </cell>
+          <cell r="K45">
+            <v>45658</v>
+          </cell>
+          <cell r="L45" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M45">
+            <v>218408.77500000002</v>
+          </cell>
+          <cell r="N45">
+            <v>42825.25</v>
+          </cell>
+          <cell r="O45" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P45" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus São Gonçalo_Limpeza</v>
+          </cell>
+          <cell r="B46">
+            <v>45</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Instituto Federal do Rio de Janeiro - IFRJ Campus São Gonçalo</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>03/2021</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>São Gonçalo/RJ</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v>Rua José Pereira dos Santos (Antiga Rua da Feira) – Neves – São Gonçalo/RJ</v>
+          </cell>
+          <cell r="I46">
+            <v>45540</v>
+          </cell>
+          <cell r="J46">
+            <v>44564</v>
+          </cell>
+          <cell r="K46">
+            <v>45660</v>
+          </cell>
+          <cell r="L46" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M46">
+            <v>214077.88833333334</v>
+          </cell>
+          <cell r="N46">
+            <v>41434.43</v>
+          </cell>
+          <cell r="O46" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P46" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>KT_Museu do Índio_Limpeza, Jardinagem e Copeiragem</v>
+          </cell>
+          <cell r="B47">
+            <v>46</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Museu do Índio</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>45/2020</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>Limpeza, Jardinagem e Copeiragem</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v>Rua das Palmeiras nº 55 - Botafogo, Rio de
+Janeiro/RJ, CEP 22270-070</v>
+          </cell>
+          <cell r="I47">
+            <v>45588</v>
+          </cell>
+          <cell r="J47">
+            <v>43881</v>
+          </cell>
+          <cell r="K47">
+            <v>45708</v>
+          </cell>
+          <cell r="L47" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M47">
+            <v>251706.196</v>
+          </cell>
+          <cell r="N47">
+            <v>37197.96</v>
+          </cell>
+          <cell r="O47" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P47" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Paracambi_Limpeza</v>
+          </cell>
+          <cell r="B48">
+            <v>47</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Instituto Federal do Rio de Janeiro - IFRJ Campus Paracambi</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>01/2022</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>Paracambi/RJ</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v>Rua Sebastião Lacerda, s/nº - Centro, na cidade de Paracambi/RJ</v>
+          </cell>
+          <cell r="I48">
+            <v>45537</v>
+          </cell>
+          <cell r="J48">
+            <v>44562</v>
+          </cell>
+          <cell r="K48">
+            <v>45657</v>
+          </cell>
+          <cell r="L48" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M48">
+            <v>180783.88533333331</v>
+          </cell>
+          <cell r="N48">
+            <v>35681.03</v>
+          </cell>
+          <cell r="O48" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P48" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>KT_Universidade Federal Rural do Rio de Janeiro - UFRRJ_Limpeza</v>
+          </cell>
+          <cell r="B49">
+            <v>48</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Universidade Federal Rural do Rio de Janeiro - UFRRJ</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>07/2023</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>Três Rios - RJ</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v>Av. Pref. Alberto da Silva Lavinas, 1847 - Centro, Três Rios - RJ, 25802-100</v>
+          </cell>
+          <cell r="I49">
+            <v>45630</v>
+          </cell>
+          <cell r="J49">
+            <v>45019</v>
+          </cell>
+          <cell r="K49">
+            <v>45750</v>
+          </cell>
+          <cell r="L49" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M49">
+            <v>272362.41666666669</v>
+          </cell>
+          <cell r="N49">
+            <v>33350.5</v>
+          </cell>
+          <cell r="O49" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P49" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Volta Redonda_Limpeza</v>
+          </cell>
+          <cell r="B50">
+            <v>49</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Instituto Federal do Rio de Janeiro - IFRJ Campus Volta Redonda</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>04/2021</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>Volta Redonda/RJ</v>
+          </cell>
+          <cell r="H50" t="str">
+            <v>Rua Antônio Barreiros, nº 212, Nossa Senhora das Graças, Volta Redonda/RJ</v>
+          </cell>
+          <cell r="I50">
+            <v>45538</v>
+          </cell>
+          <cell r="J50">
+            <v>44562</v>
+          </cell>
+          <cell r="K50">
+            <v>45658</v>
+          </cell>
+          <cell r="L50" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M50">
+            <v>165819.20699999999</v>
+          </cell>
+          <cell r="N50">
+            <v>32513.57</v>
+          </cell>
+          <cell r="O50" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P50" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Realengo_Limpeza</v>
+          </cell>
+          <cell r="B51">
+            <v>50</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Instituto Federal do Rio de Janeiro - IFRJ Campus Realengo</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>04/2021</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v>Professor Carlos Wenceslau, 343 - Realengo,
+Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I51">
+            <v>45537</v>
+          </cell>
+          <cell r="J51">
+            <v>44562</v>
+          </cell>
+          <cell r="K51">
+            <v>45657</v>
+          </cell>
+          <cell r="L51" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M51">
+            <v>153288.97165333334</v>
+          </cell>
+          <cell r="N51">
+            <v>30254.402300000002</v>
+          </cell>
+          <cell r="O51" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P51" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>KE_Conselho Regional de Farmácia CRF-RJ_Limpeza</v>
+          </cell>
+          <cell r="B52">
+            <v>51</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>Conselho Regional de Farmácia CRF-RJ</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>PE 07/2018</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>Tijuca e Interior do Rio de Janeiro</v>
+          </cell>
+          <cell r="H52" t="str">
+            <v>Rua Afonso Pena, nº 115, Tijuca - Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I52">
+            <v>45482</v>
+          </cell>
+          <cell r="J52">
+            <v>43227</v>
+          </cell>
+          <cell r="K52">
+            <v>45602</v>
+          </cell>
+          <cell r="L52" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M52">
+            <v>93832.271000000022</v>
+          </cell>
+          <cell r="N52">
+            <v>29020.290000000005</v>
+          </cell>
+          <cell r="O52" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P52" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v xml:space="preserve">KE_Xhow Alimentos_Limpeza </v>
+          </cell>
+          <cell r="B53">
+            <v>52</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Xhow Alimentos</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v xml:space="preserve">Limpeza </v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>Lagoa - Rio de Janeiro</v>
+          </cell>
+          <cell r="H53" t="str">
+            <v>R. Maria Angélica, 21 - Lagoa, Rio de Janeiro - RJ, 22470-201</v>
+          </cell>
+          <cell r="I53" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J53">
+            <v>40969</v>
+          </cell>
+          <cell r="K53">
+            <v>45535</v>
+          </cell>
+          <cell r="L53" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M53">
+            <v>26336.89</v>
+          </cell>
+          <cell r="N53">
+            <v>26336.89</v>
+          </cell>
+          <cell r="O53" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P53" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>KE_Condomínio Edifício Anambé_Limpeza e Portaria</v>
+          </cell>
+          <cell r="B54">
+            <v>53</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>Condomínio Edifício Anambé</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>Limpeza e Portaria</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>Botafogo - Rio de Janeiro</v>
+          </cell>
+          <cell r="H54" t="str">
+            <v>R. Gen. Severiano, 100 - Botafogo, Rio de Janeiro - RJ, 22290-040</v>
+          </cell>
+          <cell r="I54" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J54">
+            <v>40186</v>
+          </cell>
+          <cell r="K54">
+            <v>45535</v>
+          </cell>
+          <cell r="L54" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M54">
+            <v>24665.43</v>
+          </cell>
+          <cell r="N54">
+            <v>24665.43</v>
+          </cell>
+          <cell r="O54" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P54" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>KE_Mitra - Catedral São Sebastião_Limpeza</v>
+          </cell>
+          <cell r="B55">
+            <v>54</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>Mitra - Catedral São Sebastião</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>Centro - Rio de Janeiro</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v>Av. Chile, 245 - Centro, Rio de Janeiro - RJ, 20031-170</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J55">
+            <v>35555</v>
+          </cell>
+          <cell r="K55">
+            <v>45535</v>
+          </cell>
+          <cell r="L55" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M55">
+            <v>23232.31</v>
+          </cell>
+          <cell r="N55">
+            <v>23232.31</v>
+          </cell>
+          <cell r="O55" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P55" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>KE_Mitra - Rua São José_Limpeza</v>
+          </cell>
+          <cell r="B56">
+            <v>55</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Mitra - Rua São José</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v xml:space="preserve">Gloria - Rio de Janeiro </v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>R. São José, 90 - Centro - Rio de Janeiro - RJ, 20010-020</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J56">
+            <v>42653</v>
+          </cell>
+          <cell r="K56">
+            <v>45535</v>
+          </cell>
+          <cell r="L56" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M56">
+            <v>19265.7</v>
+          </cell>
+          <cell r="N56">
+            <v>19265.7</v>
+          </cell>
+          <cell r="O56" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P56" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>KT_Tribunal de Contas do Município do Rio de Janeiro - TCMRJ_Motoboy</v>
+          </cell>
+          <cell r="B57">
+            <v>56</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>Tribunal de Contas do Município do Rio de Janeiro - TCMRJ</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>12/2021</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>Motoboy</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v>Rua Santa Luzia, 732 - Centro, Rio de Janeiro - RJ, 20030-042</v>
+          </cell>
+          <cell r="I57">
+            <v>46053</v>
+          </cell>
+          <cell r="J57">
+            <v>44348</v>
+          </cell>
+          <cell r="K57">
+            <v>46173</v>
+          </cell>
+          <cell r="L57" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M57">
+            <v>332305.95199999999</v>
+          </cell>
+          <cell r="N57">
+            <v>14923.92</v>
+          </cell>
+          <cell r="O57" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P57" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>KT_Fundação Instituto Brasileiro de Geografia e Estatística – IBGE_Limpeza</v>
+          </cell>
+          <cell r="B58">
+            <v>57</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>Fundação Instituto Brasileiro de Geografia e Estatística – IBGE</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>01/2021</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v>Avenida Beira Mar, nº 436, Castelo, na cidade do Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I58">
+            <v>45751</v>
+          </cell>
+          <cell r="J58">
+            <v>44410</v>
+          </cell>
+          <cell r="K58">
+            <v>45871</v>
+          </cell>
+          <cell r="L58" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M58">
+            <v>181105.70599999998</v>
+          </cell>
+          <cell r="N58">
+            <v>14844.73</v>
+          </cell>
+          <cell r="O58" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P58" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>KE_Tribunal Região Federal da 2ª Região_Montagem de Mobiliário</v>
+          </cell>
+          <cell r="B59">
+            <v>58</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>Tribunal Região Federal da 2ª Região</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>TRF2-CON-2021/00097</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>Montagem de Mobiliário</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>Centro - Rio de Janeiro</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v>Avenida Rio Branco, 241, Centro, Rio de Janeiro, RJ</v>
+          </cell>
+          <cell r="I59">
+            <v>45540</v>
+          </cell>
+          <cell r="J59">
+            <v>44565</v>
+          </cell>
+          <cell r="K59">
+            <v>45660</v>
+          </cell>
+          <cell r="L59" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M59">
+            <v>73797.101666666655</v>
+          </cell>
+          <cell r="N59">
+            <v>14283.31</v>
+          </cell>
+          <cell r="O59" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P59" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>KE_Mitra - Paróquia Nossa Senhora da Paz_Limpeza</v>
+          </cell>
+          <cell r="B60">
+            <v>59</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Mitra - Paróquia Nossa Senhora da Paz</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>Ipanema - Rio de Janeiro</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>R. Visc. de Pirajá, 339 - Ipanema, Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J60">
+            <v>45505</v>
+          </cell>
+          <cell r="K60">
+            <v>45535</v>
+          </cell>
+          <cell r="L60" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M60">
+            <v>10107.36</v>
+          </cell>
+          <cell r="N60">
+            <v>10107.36</v>
+          </cell>
+          <cell r="O60" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P60" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>KT_MSC Mediterranean Ltda_Limpeza</v>
+          </cell>
+          <cell r="B61">
+            <v>60</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>MSC Mediterranean Ltda</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>Rua Monsenhor Manuel Gomes, 370 - São Cristóvão, Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I61">
+            <v>45505</v>
+          </cell>
+          <cell r="J61">
+            <v>43466</v>
+          </cell>
+          <cell r="K61">
+            <v>45535</v>
+          </cell>
+          <cell r="L61" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M61">
+            <v>9588.7800000000007</v>
+          </cell>
+          <cell r="N61">
+            <v>9588.7800000000007</v>
+          </cell>
+          <cell r="O61">
+            <v>9588.7800000000007</v>
+          </cell>
+          <cell r="P61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>INSET_Instituto Federal de Educação RJ – IFRJ Campus Volta Redonda_Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="B62">
+            <v>61</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>INSET</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>Instituto Federal de Educação RJ – IFRJ Campus Volta Redonda</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>01/2021</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>Volta Redonda - RJ</v>
+          </cell>
+          <cell r="H62" t="str">
+            <v>R. Antônio Barreiros, 212 - Nossa Sra. das Gracas, Volta Redonda - RJ, 27213-100</v>
+          </cell>
+          <cell r="I62">
+            <v>45732</v>
+          </cell>
+          <cell r="J62">
+            <v>44392</v>
+          </cell>
+          <cell r="K62">
+            <v>45852</v>
+          </cell>
+          <cell r="L62" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M62">
+            <v>78537.666666666672</v>
+          </cell>
+          <cell r="N62">
+            <v>6790</v>
+          </cell>
+          <cell r="O62" t="str">
+            <v>Insetkan</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>KT_Serviço Social do Comércio - Departamento Nacional - Sesc DN_Motoboy</v>
+          </cell>
+          <cell r="B63">
+            <v>62</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Serviço Social do Comércio - Departamento Nacional - Sesc DN</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>21D_0023-PG</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>Motoboy</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H63" t="str">
+            <v>Av. Ayrton Senna, 5555 - Jacarepaguá, Rio de Janeiro - RJ, 22775-004</v>
+          </cell>
+          <cell r="I63">
+            <v>45571</v>
+          </cell>
+          <cell r="J63">
+            <v>44596</v>
+          </cell>
+          <cell r="K63">
+            <v>45691</v>
+          </cell>
+          <cell r="L63" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M63">
+            <v>39576.274000000005</v>
+          </cell>
+          <cell r="N63">
+            <v>6383.27</v>
+          </cell>
+          <cell r="O63" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P63" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>INSET_Banco do Brasil_Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="B64">
+            <v>63</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>INSET</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Banco do Brasil</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>2021.7421.5355</v>
+          </cell>
+          <cell r="F64" t="str">
+            <v>Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="G64" t="str">
+            <v>Centro - Rio de Janeiro</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v>Rua Senador Dantas, 105, Centro, Rio de Janeiro - RJ, CEP 20031-923</v>
+          </cell>
+          <cell r="I64">
+            <v>46250</v>
+          </cell>
+          <cell r="J64">
+            <v>44544</v>
+          </cell>
+          <cell r="K64">
+            <v>46370</v>
+          </cell>
+          <cell r="L64" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M64">
+            <v>154967.345</v>
+          </cell>
+          <cell r="N64">
+            <v>5374.59</v>
+          </cell>
+          <cell r="O64" t="str">
+            <v>Insetkan</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v xml:space="preserve">KE_Banco da Providência_Limpeza </v>
+          </cell>
+          <cell r="B65">
+            <v>64</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>Banco da Providência</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v xml:space="preserve">Limpeza </v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>Realengo - Rio de Janeiro</v>
+          </cell>
+          <cell r="H65" t="str">
+            <v>Rua dos Arcos, 54 – Lapa – Rio de Janeiro – RJ – CEP.: 20230-060</v>
+          </cell>
+          <cell r="I65">
+            <v>45520</v>
+          </cell>
+          <cell r="J65">
+            <v>45457</v>
+          </cell>
+          <cell r="K65">
+            <v>45640</v>
+          </cell>
+          <cell r="L65" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M65">
+            <v>18720.54</v>
+          </cell>
+          <cell r="N65">
+            <v>4160.12</v>
+          </cell>
+          <cell r="O65">
+            <v>4160.12</v>
+          </cell>
+          <cell r="P65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>INSET_Serviço Social do Comércio - Polo Sociocultural Sesc Paraty_Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="B66">
+            <v>65</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>INSET</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>Serviço Social do Comércio - Polo Sociocultural Sesc Paraty</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="G66" t="str">
+            <v>Paraty - RJ</v>
+          </cell>
+          <cell r="H66" t="str">
+            <v>Rua Marechal Santos Dias, 20 – Centro Histórico – Paraty - RJ</v>
+          </cell>
+          <cell r="I66">
+            <v>45492</v>
+          </cell>
+          <cell r="J66">
+            <v>44882</v>
+          </cell>
+          <cell r="K66">
+            <v>45612</v>
+          </cell>
+          <cell r="L66" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M66">
+            <v>10467.453333333333</v>
+          </cell>
+          <cell r="N66">
+            <v>2934.8</v>
+          </cell>
+          <cell r="O66" t="str">
+            <v>Insetkan</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>INSET_Serviço Social do Comércio - Departamento Nacional_Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="B67">
+            <v>66</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>INSET</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>Serviço Social do Comércio - Departamento Nacional</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="G67" t="str">
+            <v>Jacarepaguá - RJ</v>
+          </cell>
+          <cell r="H67" t="str">
+            <v>Av. Ayrton Senna, 5.555 - Jacarepaguá, Rio de Janeiro - RJ, 22775-004</v>
+          </cell>
+          <cell r="I67">
+            <v>45492</v>
+          </cell>
+          <cell r="J67">
+            <v>44882</v>
+          </cell>
+          <cell r="K67">
+            <v>45612</v>
+          </cell>
+          <cell r="L67" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M67">
+            <v>7561.3333333333339</v>
+          </cell>
+          <cell r="N67">
+            <v>2120</v>
+          </cell>
+          <cell r="O67" t="str">
+            <v>Insetkan</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>INSET_Serviço Nacional de Aprendizagem Industrial - SENAI-CETIQT_Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="B68">
+            <v>67</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>INSET</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>Serviço Nacional de Aprendizagem Industrial - SENAI-CETIQT</v>
+          </cell>
+          <cell r="E68">
+            <v>1574</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>Controle de Pragas e Vetores</v>
+          </cell>
+          <cell r="G68" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H68" t="str">
+            <v>Rua Fernando de Souza Barros, 120, Cidade Universitária, Rio de Janeiro, RJ 21941-857</v>
+          </cell>
+          <cell r="I68">
+            <v>45458</v>
+          </cell>
+          <cell r="J68">
+            <v>44483</v>
+          </cell>
+          <cell r="K68">
+            <v>45578</v>
+          </cell>
+          <cell r="L68" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M68">
+            <v>4574.6666666666661</v>
+          </cell>
+          <cell r="N68">
+            <v>1880</v>
+          </cell>
+          <cell r="O68" t="str">
+            <v>Insetkan</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>KT_Fundação Cultural do Exército Brasileiro - FUNCEB_Limpeza</v>
+          </cell>
+          <cell r="B69">
+            <v>68</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>KT</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Fundação Cultural do Exército Brasileiro - FUNCEB</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>Limpeza</v>
+          </cell>
+          <cell r="G69" t="str">
+            <v>Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="H69" t="str">
+            <v>Praça Duque de Caxias, nº 25, 5º andar, Centro, Rio de Janeiro/RJ</v>
+          </cell>
+          <cell r="I69">
+            <v>45537</v>
+          </cell>
+          <cell r="J69">
+            <v>44806</v>
+          </cell>
+          <cell r="K69">
+            <v>45657</v>
+          </cell>
+          <cell r="L69" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M69">
+            <v>4830.0533333333333</v>
+          </cell>
+          <cell r="N69">
+            <v>953.3</v>
+          </cell>
+          <cell r="O69" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P69" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>KE_Conferência Nacional dos Bispos do Brasil - CNBB_Limpeza Expressa</v>
+          </cell>
+          <cell r="B70">
+            <v>69</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>Conferência Nacional dos Bispos do Brasil - CNBB</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>s/n</v>
+          </cell>
+          <cell r="F70" t="str">
+            <v>Limpeza Expressa</v>
+          </cell>
+          <cell r="G70" t="str">
+            <v>Centro - Rio de Janeiro</v>
+          </cell>
+          <cell r="H70" t="str">
+            <v>Rua Benjamin Constant 23, 7º, Glória - Rio de Janeiro - RJ</v>
+          </cell>
+          <cell r="I70" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J70">
+            <v>43828</v>
+          </cell>
+          <cell r="K70">
+            <v>45535</v>
+          </cell>
+          <cell r="L70" t="str">
+            <v>Vigente</v>
+          </cell>
+          <cell r="M70">
+            <v>390.99</v>
+          </cell>
+          <cell r="N70">
+            <v>390.99</v>
+          </cell>
+          <cell r="O70" t="str">
+            <v>A ser apurado</v>
+          </cell>
+          <cell r="P70" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:L70" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="16" tableBorderDxfId="17" headerRowCellStyle="Moeda">
-  <autoFilter ref="A1:L70" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="6" dataCellStyle="Vírgula"/>
-    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="4" dataCellStyle="Vírgula">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N70" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" headerRowCellStyle="Moeda">
+  <autoFilter ref="A1:N70" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="12" dataCellStyle="Vírgula">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="0" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="12">
+    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="5">
       <calculatedColumnFormula>IF(J2&gt;TODAY(),"Vigente","Encerrado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{15944F49-925F-4668-959B-DB08B4396E21}" name="EMPR" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7189B23D-D71F-4D3D-9E69-9EF23E9EFA0A}" name="Chave" dataDxfId="2">
+      <calculatedColumnFormula>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1828,87 +5477,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06736F0B-1E7B-40B2-AFB2-0995320CCBFA}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="62.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="27.7109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="20.42578125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="28" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="30.28515625" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="24.5703125" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="77.140625" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>184</v>
+      <c r="N1" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="10">
         <v>775699</v>
       </c>
       <c r="D2" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E2" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>576558.80827391299</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>61</v>
@@ -1923,31 +5583,40 @@
         <f ca="1">IF(J2&gt;TODAY(),"Vigente","Encerrado")</f>
         <v>Vigente</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>163</v>
+      <c r="L2" s="11">
+        <v>576558.80827391299</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="39" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="10">
         <v>666666.5</v>
       </c>
       <c r="D3" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E3" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>610366.98</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>64</v>
@@ -1962,31 +5631,41 @@
         <f t="shared" ref="K3:K66" ca="1" si="0">IF(J3&gt;TODAY(),"Vigente","Encerrado")</f>
         <v>Vigente</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>163</v>
+      <c r="L3" s="11">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>610366.98</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Casa da Moeda do Brasil - CMB_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="10">
         <v>636049.16383092967</v>
       </c>
       <c r="D4" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E4" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>579885.07999999996</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G4" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>8000013262</v>
@@ -2001,18 +5680,25 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>163</v>
+      <c r="L4" s="11">
+        <v>579885.07999999996</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Furnas Centrais Elétricas _Limpeza e Portaria</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="10">
         <v>538010.43000000005</v>
       </c>
       <c r="D5" s="33" t="str">
@@ -2023,9 +5709,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>68</v>
@@ -2040,31 +5728,41 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>163</v>
+      <c r="L5" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Instituto de Pesquisas Energéticas e Nucleares - IPEN_Limpeza</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="10">
         <v>436867.75</v>
       </c>
       <c r="D6" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E6" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>436867.75</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>71</v>
@@ -2079,18 +5777,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>163</v>
+      <c r="L6" s="11">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>436867.75</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Marinha - Base de Abastecimento da Marinha no Rio de Janeiro - BAMRJ_Limpeza</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="10">
         <v>432495.54000000004</v>
       </c>
       <c r="D7" s="33" t="str">
@@ -2101,9 +5807,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>73</v>
@@ -2118,18 +5826,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>163</v>
+      <c r="L7" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Banco do Brasil_Limpeza</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="10">
         <v>431466.71</v>
       </c>
       <c r="D8" s="33" t="str">
@@ -2140,9 +5856,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>74</v>
@@ -2157,18 +5875,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>163</v>
+      <c r="L8" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Aeronáutica - Academia da Força Aérea - AFA-FAYS_Apoio Agroindustrial</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="10">
         <v>387648.74</v>
       </c>
       <c r="D9" s="33" t="str">
@@ -2179,9 +5905,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>77</v>
@@ -2196,18 +5924,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>163</v>
+      <c r="L9" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="10">
         <v>344778.48</v>
       </c>
       <c r="D10" s="33" t="str">
@@ -2218,9 +5954,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>79</v>
@@ -2235,18 +5973,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>163</v>
+      <c r="L10" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N10" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="10">
         <v>336576.87</v>
       </c>
       <c r="D11" s="33" t="str">
@@ -2257,9 +6003,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>80</v>
@@ -2274,18 +6022,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>163</v>
+      <c r="L11" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Banco do Brasil_Limpeza</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="10">
         <v>322373.17</v>
       </c>
       <c r="D12" s="33" t="str">
@@ -2296,9 +6052,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="G12" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>81</v>
@@ -2313,18 +6071,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>163</v>
+      <c r="L12" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="10">
         <v>305627.78000000003</v>
       </c>
       <c r="D13" s="33" t="str">
@@ -2335,9 +6101,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>82</v>
@@ -2352,18 +6120,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>163</v>
+      <c r="L13" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="10">
         <v>303382.37</v>
       </c>
       <c r="D14" s="33" t="str">
@@ -2374,9 +6150,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>83</v>
@@ -2391,18 +6169,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>163</v>
+      <c r="L14" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N14" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Banco do Brasil_Apoio Administrativo</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="10">
         <v>281595.27</v>
       </c>
       <c r="D15" s="33" t="str">
@@ -2413,9 +6199,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>86</v>
@@ -2430,18 +6218,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>163</v>
+      <c r="L15" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N15" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Nacional de Metrologia, Qualidade e Tecnologia - Inmetro_Limpeza</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="10">
         <v>256203.61</v>
       </c>
       <c r="D16" s="33" t="str">
@@ -2452,9 +6248,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="G16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>88</v>
@@ -2469,18 +6267,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>163</v>
+      <c r="L16" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Marinha - CTMSP _Apoio Administrativo</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="10">
         <v>247585.31</v>
       </c>
       <c r="D17" s="33" t="str">
@@ -2491,9 +6297,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="G17" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>89</v>
@@ -2508,18 +6316,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>163</v>
+      <c r="L17" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP_Limpeza</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="10">
         <v>219311.5</v>
       </c>
       <c r="D18" s="33" t="str">
@@ -2530,9 +6346,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="G18" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>90</v>
@@ -2547,31 +6365,41 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>163</v>
+      <c r="L18" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="10">
         <v>216202.75</v>
       </c>
       <c r="D19" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E19" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="10"/>
+        <v>228186.31</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>93</v>
@@ -2586,18 +6414,25 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>163</v>
+      <c r="L19" s="11">
+        <v>228186.31</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Companhia Docas do Rio de Janeiro - PortosRio _Limpeza</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="10">
         <v>216053.59</v>
       </c>
       <c r="D20" s="33" t="str">
@@ -2608,9 +6443,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="G20" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>94</v>
@@ -2625,18 +6462,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>163</v>
+      <c r="L20" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Aeronáutica - Academia da Força Aérea - AFA_Limpeza</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="10">
         <v>214316.4</v>
       </c>
       <c r="D21" s="33" t="str">
@@ -2647,9 +6492,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G21" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>95</v>
@@ -2664,18 +6511,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>163</v>
+      <c r="L21" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Serviço Federal de Processamento de Dados - SERPRO_Facilities</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="10">
         <v>208653.88</v>
       </c>
       <c r="D22" s="33" t="str">
@@ -2686,9 +6541,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>97</v>
@@ -2703,18 +6560,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>163</v>
+      <c r="L22" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Exército - Instituto Militar de Engenharia - IME_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="10">
         <v>195015.53</v>
       </c>
       <c r="D23" s="33" t="str">
@@ -2725,9 +6590,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>99</v>
@@ -2742,31 +6609,41 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>163</v>
+      <c r="L23" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N23" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP_Limpeza</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="10">
         <v>189897.95</v>
       </c>
       <c r="D24" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E24" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>189897.95</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="G24" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>101</v>
@@ -2781,18 +6658,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>163</v>
+      <c r="L24" s="11">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>189897.95</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Exército - Base de Administração e Apoio da 1ª Região Militar_Limpeza, Jardinagem e Copeiragem</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="10">
         <v>155385.99</v>
       </c>
       <c r="D25" s="33" t="str">
@@ -2803,9 +6688,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="G25" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>103</v>
@@ -2820,18 +6707,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>163</v>
+      <c r="L25" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto de Pesquisas Energéticas e Nucleares - IPEN_Apoio Operacional</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="10">
         <v>141942.37</v>
       </c>
       <c r="D26" s="33" t="str">
@@ -2842,9 +6737,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="G26" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>105</v>
@@ -2859,18 +6756,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>163</v>
+      <c r="L26" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Reitoria_Limpeza</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="10">
         <v>140464.62</v>
       </c>
       <c r="D27" s="33" t="str">
@@ -2881,9 +6786,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="G27" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>107</v>
@@ -2898,18 +6805,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>163</v>
+      <c r="L27" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Departamento Nacional de Infraestrutura de Transportes - DNIT_Limpeza</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="15">
         <v>140125.04</v>
       </c>
       <c r="D28" s="34" t="str">
@@ -2920,9 +6835,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G28" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>108</v>
@@ -2937,18 +6854,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>163</v>
+      <c r="L28" s="16" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N28" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Superintendência Estadual do Ministério da Saúde no Rio de Janeiro - SEMS/RJ_Limpeza</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="20">
         <v>131337.87</v>
       </c>
       <c r="D29" s="35" t="str">
@@ -2959,9 +6884,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F29" s="39"/>
+      <c r="F29" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="G29" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>109</v>
@@ -2976,18 +6903,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L29" s="21" t="s">
-        <v>163</v>
+      <c r="L29" s="21" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Companhia de Entrepostos e Armazéns Gerais de São Paulo - CEAGESP_Limpeza</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="25">
         <v>128312.13</v>
       </c>
       <c r="D30" s="36" t="str">
@@ -2998,9 +6933,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="G30" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>110</v>
@@ -3015,18 +6952,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L30" s="26" t="s">
-        <v>163</v>
+      <c r="L30" s="26" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Banco Central do Brasil - Bacen_Apoio Administrativo e Almoxarife</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="30">
         <v>126418.59</v>
       </c>
       <c r="D31" s="37" t="str">
@@ -3037,9 +6982,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="G31" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H31" s="27" t="s">
         <v>112</v>
@@ -3054,18 +7001,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>163</v>
+      <c r="L31" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Arquivo Nacional - AN_Limpeza</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="10">
         <v>118243.06999999999</v>
       </c>
       <c r="D32" s="33" t="str">
@@ -3076,9 +7031,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>118243.07</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G32" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>113</v>
@@ -3094,17 +7051,25 @@
         <v>Vigente</v>
       </c>
       <c r="L32" s="11">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
         <v>118243.07</v>
       </c>
+      <c r="M32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Condomínio Edifício Grajau Ville_Limpeza e Portaria</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="10">
         <v>117988.08</v>
       </c>
       <c r="D33" s="33" t="str">
@@ -3115,9 +7080,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>58090.33</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="G33" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>115</v>
@@ -3133,17 +7100,25 @@
         <v>Vigente</v>
       </c>
       <c r="L33" s="11">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
         <v>58090.33</v>
       </c>
+      <c r="M33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Exército - Escola de Sargentos de Logística - EsSLog_Limpeza e Jardinagem</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="10">
         <v>112061.55540550343</v>
       </c>
       <c r="D34" s="33" t="str">
@@ -3154,9 +7129,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="G34" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>117</v>
@@ -3171,18 +7148,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L34" s="31" t="s">
-        <v>163</v>
+      <c r="L34" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N34" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Marinha - LFM_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="10">
         <v>93500.479999999996</v>
       </c>
       <c r="D35" s="33" t="str">
@@ -3193,9 +7178,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="G35" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>93</v>
@@ -3210,18 +7197,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L35" s="31" t="s">
-        <v>163</v>
+      <c r="L35" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Instituto Brasileiro de Museus - Ibram_Jardinagem</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="10">
         <v>82953.94</v>
       </c>
       <c r="D36" s="33" t="str">
@@ -3232,9 +7227,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G36" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>120</v>
@@ -3249,18 +7246,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L36" s="31" t="s">
-        <v>163</v>
+      <c r="L36" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Nilópolis_Limpeza</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="10">
         <v>64110.99</v>
       </c>
       <c r="D37" s="33" t="str">
@@ -3271,9 +7276,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="G37" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>122</v>
@@ -3288,18 +7295,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L37" s="31" t="s">
-        <v>163</v>
+      <c r="L37" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N37" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Instituto Benjamin Constant - IBC_Preparo e Distribuição de Refeições</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="10">
         <v>63875.4</v>
       </c>
       <c r="D38" s="33" t="str">
@@ -3310,9 +7325,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="G38" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>125</v>
@@ -3327,18 +7344,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L38" s="31" t="s">
-        <v>163</v>
+      <c r="L38" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Chico Mendes de Conservação da Biodiversidade - ICMBio_Apoio Administrativo</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="10">
         <v>63116.5</v>
       </c>
       <c r="D39" s="33" t="str">
@@ -3349,9 +7374,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="G39" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>122</v>
@@ -3366,18 +7393,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L39" s="31" t="s">
-        <v>163</v>
+      <c r="L39" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N39" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Exército - Instituto de Biologia do Exército - IBEx_Limpeza</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="10">
         <v>56302.37</v>
       </c>
       <c r="D40" s="33" t="str">
@@ -3388,9 +7423,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G40" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>127</v>
@@ -3405,18 +7442,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L40" s="31" t="s">
-        <v>163</v>
+      <c r="L40" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N40" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Condomínio Edifício Villa Splendore_Limpeza e Portaria</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="10">
         <v>53030.26</v>
       </c>
       <c r="D41" s="33" t="str">
@@ -3427,9 +7472,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="G41" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>129</v>
@@ -3444,18 +7491,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L41" s="31" t="s">
-        <v>163</v>
+      <c r="L41" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto do Patrimônio Histórico e Artístico Nacional - IPHAN_Limpeza</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="10">
         <v>51821.599999999999</v>
       </c>
       <c r="D42" s="33" t="str">
@@ -3466,9 +7521,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G42" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>131</v>
@@ -3483,18 +7540,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L42" s="31" t="s">
-        <v>163</v>
+      <c r="L42" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N42" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Marinha - CIASC_Limpeza</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="10">
         <v>47278.69</v>
       </c>
       <c r="D43" s="33" t="str">
@@ -3505,9 +7570,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="G43" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>133</v>
@@ -3522,18 +7589,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L43" s="31" t="s">
-        <v>163</v>
+      <c r="L43" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Laboratório Nacional de Computação Científica - LNCC _Limpeza</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="10">
         <v>45573.78</v>
       </c>
       <c r="D44" s="33" t="str">
@@ -3544,9 +7619,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="G44" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>135</v>
@@ -3561,18 +7638,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L44" s="31" t="s">
-        <v>163</v>
+      <c r="L44" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N44" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Fundação de Apoio à Pesquisa Científica e Tecnológica da UFRRJ – FAPUR_Apoio Operacional</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="10">
         <v>42825.25</v>
       </c>
       <c r="D45" s="33" t="str">
@@ -3583,9 +7668,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G45" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>137</v>
@@ -3600,18 +7687,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L45" s="31" t="s">
-        <v>163</v>
+      <c r="L45" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N45" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Rio de Janeiro_Limpeza</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="10">
         <v>41434.43</v>
       </c>
       <c r="D46" s="33" t="str">
@@ -3622,9 +7717,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="G46" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>120</v>
@@ -3639,18 +7736,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L46" s="31" t="s">
-        <v>163</v>
+      <c r="L46" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N46" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus São Gonçalo_Limpeza</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="10">
         <v>37197.96</v>
       </c>
       <c r="D47" s="33" t="str">
@@ -3661,9 +7766,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="G47" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>139</v>
@@ -3678,18 +7785,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L47" s="31" t="s">
-        <v>163</v>
+      <c r="L47" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N47" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Museu do Índio_Limpeza, Jardinagem e Copeiragem</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="10">
         <v>35681.03</v>
       </c>
       <c r="D48" s="33" t="str">
@@ -3700,9 +7815,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G48" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>137</v>
@@ -3717,18 +7834,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L48" s="31" t="s">
-        <v>163</v>
+      <c r="L48" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N48" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Paracambi_Limpeza</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="10">
         <v>33350.5</v>
       </c>
       <c r="D49" s="33" t="str">
@@ -3739,9 +7864,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G49" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>141</v>
@@ -3756,18 +7883,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L49" s="31" t="s">
-        <v>163</v>
+      <c r="L49" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N49" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Universidade Federal Rural do Rio de Janeiro - UFRRJ_Limpeza</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="10">
         <v>32513.57</v>
       </c>
       <c r="D50" s="33" t="str">
@@ -3778,9 +7913,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="G50" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>101</v>
@@ -3795,18 +7932,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L50" s="31" t="s">
-        <v>163</v>
+      <c r="L50" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N50" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Volta Redonda_Limpeza</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="10">
         <v>30254.402300000002</v>
       </c>
       <c r="D51" s="33" t="str">
@@ -3817,9 +7962,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G51" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>101</v>
@@ -3834,18 +7981,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L51" s="31" t="s">
-        <v>163</v>
+      <c r="L51" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N51" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Realengo_Limpeza</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="10">
         <v>29020.290000000005</v>
       </c>
       <c r="D52" s="33" t="str">
@@ -3856,9 +8011,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G52" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>144</v>
@@ -3873,18 +8030,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L52" s="31" t="s">
-        <v>163</v>
+      <c r="L52" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N52" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Conselho Regional de Farmácia CRF-RJ_Limpeza</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="10">
         <v>26336.89</v>
       </c>
       <c r="D53" s="33" t="str">
@@ -3895,9 +8060,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G53" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>113</v>
@@ -3912,18 +8079,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L53" s="31" t="s">
-        <v>163</v>
+      <c r="L53" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N53" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v xml:space="preserve">KE_Xhow Alimentos_Limpeza </v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="10">
         <v>24665.43</v>
       </c>
       <c r="D54" s="33" t="str">
@@ -3934,9 +8109,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G54" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>113</v>
@@ -3951,18 +8128,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L54" s="31" t="s">
-        <v>163</v>
+      <c r="L54" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N54" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Condomínio Edifício Anambé_Limpeza e Portaria</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="10">
         <v>23232.31</v>
       </c>
       <c r="D55" s="33" t="str">
@@ -3973,9 +8158,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G55" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>113</v>
@@ -3990,18 +8177,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L55" s="31" t="s">
-        <v>163</v>
+      <c r="L55" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N55" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Mitra - Catedral São Sebastião_Limpeza</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="10">
         <v>19265.7</v>
       </c>
       <c r="D56" s="33" t="str">
@@ -4012,9 +8207,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G56" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>113</v>
@@ -4029,18 +8226,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L56" s="31" t="s">
-        <v>163</v>
+      <c r="L56" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N56" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Mitra - Rua São José_Limpeza</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="10">
         <v>14923.92</v>
       </c>
       <c r="D57" s="33" t="str">
@@ -4051,9 +8256,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="G57" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>149</v>
@@ -4068,18 +8275,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L57" s="31" t="s">
-        <v>163</v>
+      <c r="L57" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N57" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Tribunal de Contas do Município do Rio de Janeiro - TCMRJ_Motoboy</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="10">
         <v>14844.73</v>
       </c>
       <c r="D58" s="33" t="str">
@@ -4090,9 +8305,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G58" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>151</v>
@@ -4107,18 +8324,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L58" s="31" t="s">
-        <v>163</v>
+      <c r="L58" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N58" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Fundação Instituto Brasileiro de Geografia e Estatística – IBGE_Limpeza</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="10">
         <v>14283.31</v>
       </c>
       <c r="D59" s="33" t="str">
@@ -4129,9 +8354,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="G59" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>152</v>
@@ -4146,18 +8373,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L59" s="31" t="s">
-        <v>163</v>
+      <c r="L59" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N59" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Tribunal Região Federal da 2ª Região_Montagem de Mobiliário</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="10">
         <v>10107.36</v>
       </c>
       <c r="D60" s="33" t="str">
@@ -4168,9 +8403,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G60" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>113</v>
@@ -4185,18 +8422,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L60" s="31" t="s">
-        <v>163</v>
+      <c r="L60" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N60" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Mitra - Paróquia Nossa Senhora da Paz_Limpeza</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="10">
         <v>9588.7800000000007</v>
       </c>
       <c r="D61" s="33" t="str">
@@ -4207,9 +8452,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>9588.7800000000007</v>
       </c>
-      <c r="F61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G61" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>113</v>
@@ -4225,17 +8472,25 @@
         <v>Vigente</v>
       </c>
       <c r="L61" s="31">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
         <v>9588.7800000000007</v>
       </c>
+      <c r="M61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N61" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_MSC Mediterranean Ltda_Limpeza</v>
+      </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="10">
         <v>6790</v>
       </c>
       <c r="D62" s="33" t="str">
@@ -4246,9 +8501,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="G62" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>151</v>
@@ -4263,18 +8520,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L62" s="31" t="s">
-        <v>164</v>
+      <c r="L62" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>Insetkan</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N62" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>INSET_Instituto Federal de Educação RJ – IFRJ Campus Volta Redonda_Controle de Pragas e Vetores</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="10">
         <v>6383.27</v>
       </c>
       <c r="D63" s="33" t="str">
@@ -4285,9 +8550,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G63" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>157</v>
@@ -4302,18 +8569,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L63" s="31" t="s">
+      <c r="L63" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N63" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Serviço Social do Comércio - Departamento Nacional - Sesc DN_Motoboy</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>164</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="10">
         <v>5374.59</v>
       </c>
       <c r="D64" s="33" t="str">
@@ -4324,9 +8599,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="G64" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>158</v>
@@ -4341,18 +8618,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L64" s="31" t="s">
-        <v>164</v>
+      <c r="L64" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>Insetkan</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N64" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>INSET_Banco do Brasil_Controle de Pragas e Vetores</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="10">
         <v>4160.12</v>
       </c>
       <c r="D65" s="33" t="str">
@@ -4363,9 +8648,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>4160.12</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G65" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>113</v>
@@ -4381,17 +8668,25 @@
         <v>Vigente</v>
       </c>
       <c r="L65" s="11">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
         <v>4160.12</v>
       </c>
+      <c r="M65" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N65" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v xml:space="preserve">KE_Banco da Providência_Limpeza </v>
+      </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="10">
         <v>2934.8</v>
       </c>
       <c r="D66" s="33" t="str">
@@ -4402,9 +8697,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="G66" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>113</v>
@@ -4419,18 +8716,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L66" s="31" t="s">
-        <v>164</v>
+      <c r="L66" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>Insetkan</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N66" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>INSET_Serviço Social do Comércio - Polo Sociocultural Sesc Paraty_Controle de Pragas e Vetores</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="10">
         <v>2120</v>
       </c>
       <c r="D67" s="33" t="str">
@@ -4441,9 +8746,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="G67" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>113</v>
@@ -4458,18 +8765,26 @@
         <f t="shared" ref="K67:K70" ca="1" si="1">IF(J67&gt;TODAY(),"Vigente","Encerrado")</f>
         <v>Vigente</v>
       </c>
-      <c r="L67" s="31" t="s">
-        <v>164</v>
+      <c r="L67" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>Insetkan</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N67" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>INSET_Serviço Social do Comércio - Departamento Nacional_Controle de Pragas e Vetores</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="10">
         <v>1880</v>
       </c>
       <c r="D68" s="33" t="str">
@@ -4480,9 +8795,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="G68" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H68" s="7">
         <v>1574</v>
@@ -4497,18 +8814,26 @@
         <f t="shared" ca="1" si="1"/>
         <v>Vigente</v>
       </c>
-      <c r="L68" s="31" t="s">
-        <v>164</v>
+      <c r="L68" s="31" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>Insetkan</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N68" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>INSET_Serviço Nacional de Aprendizagem Industrial - SENAI-CETIQT_Controle de Pragas e Vetores</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="10">
         <v>953.3</v>
       </c>
       <c r="D69" s="33" t="str">
@@ -4519,9 +8844,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="G69" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>113</v>
@@ -4536,18 +8863,26 @@
         <f t="shared" ca="1" si="1"/>
         <v>Vigente</v>
       </c>
-      <c r="L69" s="11" t="s">
-        <v>163</v>
+      <c r="L69" s="11" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N69" s="32" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Fundação Cultural do Exército Brasileiro - FUNCEB_Limpeza</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="15">
         <v>390.99</v>
       </c>
       <c r="D70" s="34" t="str">
@@ -4558,9 +8893,11 @@
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G70" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>113</v>
@@ -4575,20 +8912,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>Vigente</v>
       </c>
-      <c r="L70" s="16" t="s">
-        <v>163</v>
+      <c r="L70" s="16" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
+        <v>A ser apurado</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="N70" s="40" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Conferência Nacional dos Bispos do Brasil - CNBB_Limpeza Expressa</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I71:I1048576 L1:L70">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="A ser apurado">
-      <formula>NOT(ISERROR(SEARCH("A ser apurado",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:K70">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>$M2="Encerrado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L70 I71:I1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A ser apurado">
+      <formula>NOT(ISERROR(SEARCH("A ser apurado",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4625,42 +8970,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F333C0-CE08-46AC-8D25-4F4D05BF541C}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06C99F9-36FA-47BA-B2C8-5658A8A9C739}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="203">
   <si>
     <t>Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>09º Dia Útil</t>
+  </si>
+  <si>
+    <t>Em processamento</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1721,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M2">
-            <v>6179735.3666666672</v>
+            <v>6153878.7333333334</v>
           </cell>
           <cell r="N2">
             <v>775699</v>
@@ -1768,7 +1771,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M3">
-            <v>20466661.550000001</v>
+            <v>20444439.333333332</v>
           </cell>
           <cell r="N3">
             <v>666666.5</v>
@@ -1818,7 +1821,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M4">
-            <v>9031898.1263992023</v>
+            <v>9010696.4876048379</v>
           </cell>
           <cell r="N4">
             <v>636049.16383092967</v>
@@ -1868,7 +1871,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M5">
-            <v>3012858.4080000003</v>
+            <v>2994924.727</v>
           </cell>
           <cell r="N5">
             <v>538010.43000000005</v>
@@ -1918,7 +1921,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M6">
-            <v>3363881.6749999998</v>
+            <v>3349319.4166666665</v>
           </cell>
           <cell r="N6">
             <v>436867.75</v>
@@ -1968,7 +1971,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M7">
-            <v>2796804.4920000006</v>
+            <v>2782387.9740000004</v>
           </cell>
           <cell r="N7">
             <v>432495.54000000004</v>
@@ -2018,7 +2021,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M8">
-            <v>0</v>
+            <v>-14382.223666666667</v>
           </cell>
           <cell r="N8">
             <v>431466.71</v>
@@ -2068,7 +2071,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M9">
-            <v>4225371.2659999998</v>
+            <v>4212449.6413333332</v>
           </cell>
           <cell r="N9">
             <v>387648.74</v>
@@ -2118,7 +2121,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M10">
-            <v>3758085.432</v>
+            <v>3746592.8160000001</v>
           </cell>
           <cell r="N10">
             <v>344778.48</v>
@@ -2168,7 +2171,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M11">
-            <v>897538.32</v>
+            <v>886319.0909999999</v>
           </cell>
           <cell r="N11">
             <v>336576.87</v>
@@ -2219,7 +2222,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M12">
-            <v>8833024.8579999991</v>
+            <v>8822279.0856666658</v>
           </cell>
           <cell r="N12">
             <v>322373.17</v>
@@ -2269,7 +2272,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M13">
-            <v>3331342.8020000001</v>
+            <v>3321155.2093333337</v>
           </cell>
           <cell r="N13">
             <v>305627.78000000003</v>
@@ -2319,7 +2322,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M14">
-            <v>1891083.4396666666</v>
+            <v>1880970.6939999999</v>
           </cell>
           <cell r="N14">
             <v>303382.37</v>
@@ -2369,7 +2372,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M15">
-            <v>3247732.1140000001</v>
+            <v>3238345.605</v>
           </cell>
           <cell r="N15">
             <v>281595.27</v>
@@ -2419,7 +2422,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M16">
-            <v>1801965.3903333331</v>
+            <v>1793425.2699999998</v>
           </cell>
           <cell r="N16">
             <v>256203.61</v>
@@ -2470,7 +2473,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M17">
-            <v>1535028.9219999998</v>
+            <v>1526776.0783333331</v>
           </cell>
           <cell r="N17">
             <v>247585.31</v>
@@ -2520,7 +2523,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M18">
-            <v>11148334.583333334</v>
+            <v>11141024.199999999</v>
           </cell>
           <cell r="N18">
             <v>219311.5</v>
@@ -2570,7 +2573,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M19">
-            <v>1160288.0916666666</v>
+            <v>1153081.3333333333</v>
           </cell>
           <cell r="N19">
             <v>216202.75</v>
@@ -2620,7 +2623,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M20">
-            <v>2340580.5583333336</v>
+            <v>2333378.7719999999</v>
           </cell>
           <cell r="N20">
             <v>216053.59</v>
@@ -2670,7 +2673,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M21">
-            <v>9129878.6400000006</v>
+            <v>9122734.7599999998</v>
           </cell>
           <cell r="N21">
             <v>214316.4</v>
@@ -2720,7 +2723,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M22">
-            <v>2316058.068</v>
+            <v>2309102.9386666669</v>
           </cell>
           <cell r="N22">
             <v>208653.88</v>
@@ -2770,7 +2773,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M23">
-            <v>1007580.2383333333</v>
+            <v>1001079.7206666666</v>
           </cell>
           <cell r="N23">
             <v>195015.53</v>
@@ -2820,7 +2823,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M24">
-            <v>202557.81333333335</v>
+            <v>196227.88166666668</v>
           </cell>
           <cell r="N24">
             <v>189897.95</v>
@@ -2870,7 +2873,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M25">
-            <v>1574578.0319999999</v>
+            <v>1569398.4989999998</v>
           </cell>
           <cell r="N25">
             <v>155385.99</v>
@@ -2920,7 +2923,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M26">
-            <v>719174.67466666654</v>
+            <v>714443.26233333326</v>
           </cell>
           <cell r="N26">
             <v>141942.37</v>
@@ -2971,7 +2974,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M27">
-            <v>987934.49399999995</v>
+            <v>983252.33999999985</v>
           </cell>
           <cell r="N27">
             <v>140464.62</v>
@@ -3021,7 +3024,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M28">
-            <v>990216.94933333329</v>
+            <v>985546.1146666666</v>
           </cell>
           <cell r="N28">
             <v>140125.04</v>
@@ -3071,7 +3074,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M29">
-            <v>582264.55700000003</v>
+            <v>577886.62800000003</v>
           </cell>
           <cell r="N29">
             <v>131337.87</v>
@@ -3121,7 +3124,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M30">
-            <v>821197.63199999998</v>
+            <v>816920.56099999999</v>
           </cell>
           <cell r="N30">
             <v>128312.13</v>
@@ -3171,7 +3174,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M31">
-            <v>1415888.2079999999</v>
+            <v>1411674.2549999999</v>
           </cell>
           <cell r="N31">
             <v>126418.59</v>
@@ -3215,7 +3218,7 @@
             <v>42522</v>
           </cell>
           <cell r="K32">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L32" t="str">
             <v>Vigente</v>
@@ -3271,7 +3274,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M33">
-            <v>-66859.911999999997</v>
+            <v>-70792.847999999998</v>
           </cell>
           <cell r="N33">
             <v>117988.08</v>
@@ -3321,7 +3324,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M34">
-            <v>1079526.3170730164</v>
+            <v>1075790.931892833</v>
           </cell>
           <cell r="N34">
             <v>112061.55540550343</v>
@@ -3371,7 +3374,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M35">
-            <v>467502.39999999997</v>
+            <v>464385.71733333333</v>
           </cell>
           <cell r="N35">
             <v>93500.479999999996</v>
@@ -3421,7 +3424,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M36">
-            <v>428595.35666666663</v>
+            <v>425830.22533333331</v>
           </cell>
           <cell r="N36">
             <v>82953.94</v>
@@ -3471,7 +3474,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M37">
-            <v>410310.33600000001</v>
+            <v>408173.30299999996</v>
           </cell>
           <cell r="N37">
             <v>64110.99</v>
@@ -3521,7 +3524,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M38">
-            <v>332152.07999999996</v>
+            <v>330022.89999999997</v>
           </cell>
           <cell r="N38">
             <v>63875.4</v>
@@ -3571,7 +3574,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M39">
-            <v>321894.14999999997</v>
+            <v>319790.26666666666</v>
           </cell>
           <cell r="N39">
             <v>63116.5</v>
@@ -3615,7 +3618,7 @@
             <v>43525</v>
           </cell>
           <cell r="K40">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L40" t="str">
             <v>Vigente</v>
@@ -3671,7 +3674,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M41">
-            <v>471969.31400000001</v>
+            <v>470201.63866666669</v>
           </cell>
           <cell r="N41">
             <v>53030.26</v>
@@ -3721,7 +3724,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M42">
-            <v>264290.15999999997</v>
+            <v>262562.77333333332</v>
           </cell>
           <cell r="N42">
             <v>51821.599999999999</v>
@@ -3771,7 +3774,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M43">
-            <v>430236.07899999997</v>
+            <v>428660.12266666663</v>
           </cell>
           <cell r="N43">
             <v>47278.69</v>
@@ -3821,7 +3824,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M44">
-            <v>129125.70999999999</v>
+            <v>127606.584</v>
           </cell>
           <cell r="N44">
             <v>45573.78</v>
@@ -3871,7 +3874,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M45">
-            <v>218408.77500000002</v>
+            <v>216981.26666666669</v>
           </cell>
           <cell r="N45">
             <v>42825.25</v>
@@ -3921,7 +3924,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M46">
-            <v>214077.88833333334</v>
+            <v>212696.74066666668</v>
           </cell>
           <cell r="N46">
             <v>41434.43</v>
@@ -3972,7 +3975,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M47">
-            <v>251706.196</v>
+            <v>250466.264</v>
           </cell>
           <cell r="N47">
             <v>37197.96</v>
@@ -4022,7 +4025,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M48">
-            <v>180783.88533333331</v>
+            <v>179594.51766666665</v>
           </cell>
           <cell r="N48">
             <v>35681.03</v>
@@ -4072,7 +4075,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M49">
-            <v>272362.41666666669</v>
+            <v>271250.73333333334</v>
           </cell>
           <cell r="N49">
             <v>33350.5</v>
@@ -4122,7 +4125,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M50">
-            <v>165819.20699999999</v>
+            <v>164735.42133333333</v>
           </cell>
           <cell r="N50">
             <v>32513.57</v>
@@ -4173,7 +4176,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M51">
-            <v>153288.97165333334</v>
+            <v>152280.49157666668</v>
           </cell>
           <cell r="N51">
             <v>30254.402300000002</v>
@@ -4223,7 +4226,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M52">
-            <v>93832.271000000022</v>
+            <v>92864.928000000014</v>
           </cell>
           <cell r="N52">
             <v>29020.290000000005</v>
@@ -4267,7 +4270,7 @@
             <v>40969</v>
           </cell>
           <cell r="K53">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L53" t="str">
             <v>Vigente</v>
@@ -4317,7 +4320,7 @@
             <v>40186</v>
           </cell>
           <cell r="K54">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L54" t="str">
             <v>Vigente</v>
@@ -4367,7 +4370,7 @@
             <v>35555</v>
           </cell>
           <cell r="K55">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L55" t="str">
             <v>Vigente</v>
@@ -4417,7 +4420,7 @@
             <v>42653</v>
           </cell>
           <cell r="K56">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L56" t="str">
             <v>Vigente</v>
@@ -4473,7 +4476,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M57">
-            <v>332305.95199999999</v>
+            <v>331808.48800000001</v>
           </cell>
           <cell r="N57">
             <v>14923.92</v>
@@ -4523,7 +4526,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M58">
-            <v>181105.70599999998</v>
+            <v>180610.88166666665</v>
           </cell>
           <cell r="N58">
             <v>14844.73</v>
@@ -4573,7 +4576,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M59">
-            <v>73797.101666666655</v>
+            <v>73320.991333333324</v>
           </cell>
           <cell r="N59">
             <v>14283.31</v>
@@ -4614,10 +4617,10 @@
             <v>-</v>
           </cell>
           <cell r="J60">
-            <v>45505</v>
+            <v>45506</v>
           </cell>
           <cell r="K60">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L60" t="str">
             <v>Vigente</v>
@@ -4661,13 +4664,13 @@
             <v>Rua Monsenhor Manuel Gomes, 370 - São Cristóvão, Rio de Janeiro - RJ</v>
           </cell>
           <cell r="I61">
-            <v>45505</v>
+            <v>45506</v>
           </cell>
           <cell r="J61">
             <v>43466</v>
           </cell>
           <cell r="K61">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L61" t="str">
             <v>Vigente</v>
@@ -4723,7 +4726,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M62">
-            <v>78537.666666666672</v>
+            <v>78311.333333333343</v>
           </cell>
           <cell r="N62">
             <v>6790</v>
@@ -4731,6 +4734,7 @@
           <cell r="O62" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P62"/>
         </row>
         <row r="63">
           <cell r="A63" t="str">
@@ -4770,7 +4774,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M63">
-            <v>39576.274000000005</v>
+            <v>39363.498333333337</v>
           </cell>
           <cell r="N63">
             <v>6383.27</v>
@@ -4820,7 +4824,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M64">
-            <v>154967.345</v>
+            <v>154788.19199999998</v>
           </cell>
           <cell r="N64">
             <v>5374.59</v>
@@ -4828,6 +4832,7 @@
           <cell r="O64" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P64"/>
         </row>
         <row r="65">
           <cell r="A65" t="str">
@@ -4867,7 +4872,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M65">
-            <v>18720.54</v>
+            <v>18581.869333333336</v>
           </cell>
           <cell r="N65">
             <v>4160.12</v>
@@ -4917,7 +4922,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M66">
-            <v>10467.453333333333</v>
+            <v>10369.626666666667</v>
           </cell>
           <cell r="N66">
             <v>2934.8</v>
@@ -4925,6 +4930,7 @@
           <cell r="O66" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P66"/>
         </row>
         <row r="67">
           <cell r="A67" t="str">
@@ -4964,7 +4970,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M67">
-            <v>7561.3333333333339</v>
+            <v>7490.666666666667</v>
           </cell>
           <cell r="N67">
             <v>2120</v>
@@ -4972,6 +4978,7 @@
           <cell r="O67" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P67"/>
         </row>
         <row r="68">
           <cell r="A68" t="str">
@@ -5011,7 +5018,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M68">
-            <v>4574.6666666666661</v>
+            <v>4512</v>
           </cell>
           <cell r="N68">
             <v>1880</v>
@@ -5019,6 +5026,7 @@
           <cell r="O68" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P68"/>
         </row>
         <row r="69">
           <cell r="A69" t="str">
@@ -5058,7 +5066,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M69">
-            <v>4830.0533333333333</v>
+            <v>4798.2766666666666</v>
           </cell>
           <cell r="N69">
             <v>953.3</v>
@@ -5102,7 +5110,7 @@
             <v>43828</v>
           </cell>
           <cell r="K70">
-            <v>45535</v>
+            <v>45536</v>
           </cell>
           <cell r="L70" t="str">
             <v>Vigente</v>
@@ -5121,7 +5129,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5479,25 +5487,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06736F0B-1E7B-40B2-AFB2-0995320CCBFA}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="62.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="26" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="27.7109375" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="6" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="20.42578125" style="3" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="28" style="3" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="30.28515625" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="24.5703125" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9.140625" style="6"/>
+    <col min="12" max="12" width="24.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="6" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="77.140625" style="6" customWidth="1" outlineLevel="1"/>
     <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -5568,7 +5574,7 @@
         <v>192</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>61</v>
@@ -5616,7 +5622,7 @@
         <v>192</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>64</v>
@@ -5762,7 +5768,7 @@
         <v>192</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>71</v>
@@ -6399,7 +6405,7 @@
         <v>192</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>93</v>
@@ -6486,17 +6492,17 @@
       </c>
       <c r="D21" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E21" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>214316.4</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>192</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>95</v>
@@ -6511,9 +6517,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L21" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L21" s="11">
+        <v>214316.4</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>187</v>
@@ -6643,7 +6648,7 @@
         <v>192</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>101</v>
@@ -7270,17 +7275,17 @@
       </c>
       <c r="D37" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E37" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>64110.99</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>197</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>122</v>
@@ -7295,9 +7300,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L37" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L37" s="31">
+        <v>64110.99</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>187</v>
@@ -7368,17 +7372,17 @@
       </c>
       <c r="D39" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E39" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>63116.5</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>122</v>
@@ -7393,9 +7397,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L39" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L39" s="31">
+        <v>63116.5</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>187</v>
@@ -7760,17 +7763,17 @@
       </c>
       <c r="D47" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E47" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>37197.96</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>197</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>139</v>
@@ -7785,9 +7788,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L47" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L47" s="31">
+        <v>37197.96</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>188</v>
@@ -8942,12 +8944,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F18F452-72E2-41F2-BB8E-C375E17331F1}">
           <x14:formula1>
             <xm:f>Planilha2!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G70</xm:sqref>
+          <xm:sqref>G3:G70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C888B976-EE8D-40D9-8ED3-8BBDBF9BDF75}">
+          <x14:formula1>
+            <xm:f>Planilha2!$A$2:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8957,10 +8965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06655113-8824-4D66-AF55-7F00CA308594}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8975,36 +8983,41 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>173</v>
       </c>
     </row>

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06C99F9-36FA-47BA-B2C8-5658A8A9C739}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8941F04-4742-436B-AE6C-67083E0EA04F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -6297,17 +6297,17 @@
       </c>
       <c r="D17" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E17" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>246203.6</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>197</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>89</v>
@@ -6322,9 +6322,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L17" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L17" s="11">
+        <v>246203.6</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>188</v>

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8941F04-4742-436B-AE6C-67083E0EA04F}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3C42D1-D35C-42D2-A310-C89EB9826905}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -1721,7 +1721,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M2">
-            <v>6153878.7333333334</v>
+            <v>6076308.833333334</v>
           </cell>
           <cell r="N2">
             <v>775699</v>
@@ -1771,7 +1771,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M3">
-            <v>20444439.333333332</v>
+            <v>20377772.683333334</v>
           </cell>
           <cell r="N3">
             <v>666666.5</v>
@@ -1821,7 +1821,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M4">
-            <v>9010696.4876048379</v>
+            <v>8947091.5712217446</v>
           </cell>
           <cell r="N4">
             <v>636049.16383092967</v>
@@ -1871,7 +1871,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M5">
-            <v>2994924.727</v>
+            <v>2941123.6839999999</v>
           </cell>
           <cell r="N5">
             <v>538010.43000000005</v>
@@ -1921,7 +1921,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M6">
-            <v>3349319.4166666665</v>
+            <v>3305632.6416666666</v>
           </cell>
           <cell r="N6">
             <v>436867.75</v>
@@ -1971,7 +1971,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M7">
-            <v>2782387.9740000004</v>
+            <v>2739138.4200000004</v>
           </cell>
           <cell r="N7">
             <v>432495.54000000004</v>
@@ -2021,7 +2021,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M8">
-            <v>-14382.223666666667</v>
+            <v>-57528.894666666667</v>
           </cell>
           <cell r="N8">
             <v>431466.71</v>
@@ -2071,7 +2071,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M9">
-            <v>4212449.6413333332</v>
+            <v>4173684.7673333334</v>
           </cell>
           <cell r="N9">
             <v>387648.74</v>
@@ -2121,7 +2121,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M10">
-            <v>3746592.8160000001</v>
+            <v>3712114.9679999999</v>
           </cell>
           <cell r="N10">
             <v>344778.48</v>
@@ -2171,7 +2171,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M11">
-            <v>886319.0909999999</v>
+            <v>852661.40399999998</v>
           </cell>
           <cell r="N11">
             <v>336576.87</v>
@@ -2222,7 +2222,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M12">
-            <v>8822279.0856666658</v>
+            <v>8790041.768666666</v>
           </cell>
           <cell r="N12">
             <v>322373.17</v>
@@ -2272,7 +2272,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M13">
-            <v>3321155.2093333337</v>
+            <v>3290592.4313333337</v>
           </cell>
           <cell r="N13">
             <v>305627.78000000003</v>
@@ -2322,7 +2322,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M14">
-            <v>1880970.6939999999</v>
+            <v>1850632.4569999999</v>
           </cell>
           <cell r="N14">
             <v>303382.37</v>
@@ -2372,7 +2372,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M15">
-            <v>3238345.605</v>
+            <v>3210186.0780000002</v>
           </cell>
           <cell r="N15">
             <v>281595.27</v>
@@ -2422,7 +2422,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M16">
-            <v>1793425.2699999998</v>
+            <v>1767804.9089999998</v>
           </cell>
           <cell r="N16">
             <v>256203.61</v>
@@ -2473,7 +2473,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M17">
-            <v>1526776.0783333331</v>
+            <v>1502017.5473333332</v>
           </cell>
           <cell r="N17">
             <v>247585.31</v>
@@ -2523,7 +2523,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M18">
-            <v>11141024.199999999</v>
+            <v>11119093.050000001</v>
           </cell>
           <cell r="N18">
             <v>219311.5</v>
@@ -2573,7 +2573,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M19">
-            <v>1153081.3333333333</v>
+            <v>1131461.0583333333</v>
           </cell>
           <cell r="N19">
             <v>216202.75</v>
@@ -2623,16 +2623,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M20">
-            <v>2333378.7719999999</v>
+            <v>2311773.4130000002</v>
           </cell>
           <cell r="N20">
             <v>216053.59</v>
           </cell>
-          <cell r="O20" t="str">
-            <v>A ser apurado</v>
-          </cell>
-          <cell r="P20" t="e">
-            <v>#VALUE!</v>
+          <cell r="O20">
+            <v>216053.59</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
           </cell>
         </row>
         <row r="21">
@@ -2673,16 +2673,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M21">
-            <v>9122734.7599999998</v>
+            <v>9101303.120000001</v>
           </cell>
           <cell r="N21">
             <v>214316.4</v>
           </cell>
-          <cell r="O21" t="str">
-            <v>A ser apurado</v>
-          </cell>
-          <cell r="P21" t="e">
-            <v>#VALUE!</v>
+          <cell r="O21">
+            <v>214316.4</v>
+          </cell>
+          <cell r="P21">
+            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -2723,7 +2723,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M22">
-            <v>2309102.9386666669</v>
+            <v>2288237.5506666666</v>
           </cell>
           <cell r="N22">
             <v>208653.88</v>
@@ -2773,16 +2773,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M23">
-            <v>1001079.7206666666</v>
+            <v>981578.16766666668</v>
           </cell>
           <cell r="N23">
             <v>195015.53</v>
           </cell>
-          <cell r="O23" t="str">
-            <v>A ser apurado</v>
-          </cell>
-          <cell r="P23" t="e">
-            <v>#VALUE!</v>
+          <cell r="O23">
+            <v>191173.66</v>
+          </cell>
+          <cell r="P23">
+            <v>-3841.8699999999953</v>
           </cell>
         </row>
         <row r="24">
@@ -2823,7 +2823,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M24">
-            <v>196227.88166666668</v>
+            <v>177238.08666666667</v>
           </cell>
           <cell r="N24">
             <v>189897.95</v>
@@ -2873,7 +2873,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M25">
-            <v>1569398.4989999998</v>
+            <v>1553859.9</v>
           </cell>
           <cell r="N25">
             <v>155385.99</v>
@@ -2923,7 +2923,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M26">
-            <v>714443.26233333326</v>
+            <v>700249.02533333329</v>
           </cell>
           <cell r="N26">
             <v>141942.37</v>
@@ -2974,7 +2974,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M27">
-            <v>983252.33999999985</v>
+            <v>969205.87799999991</v>
           </cell>
           <cell r="N27">
             <v>140464.62</v>
@@ -3024,7 +3024,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M28">
-            <v>985546.1146666666</v>
+            <v>971533.61066666665</v>
           </cell>
           <cell r="N28">
             <v>140125.04</v>
@@ -3074,7 +3074,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M29">
-            <v>577886.62800000003</v>
+            <v>564752.84100000001</v>
           </cell>
           <cell r="N29">
             <v>131337.87</v>
@@ -3124,7 +3124,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M30">
-            <v>816920.56099999999</v>
+            <v>804089.348</v>
           </cell>
           <cell r="N30">
             <v>128312.13</v>
@@ -3174,7 +3174,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M31">
-            <v>1411674.2549999999</v>
+            <v>1399032.3959999999</v>
           </cell>
           <cell r="N31">
             <v>126418.59</v>
@@ -3218,7 +3218,7 @@
             <v>42522</v>
           </cell>
           <cell r="K32">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L32" t="str">
             <v>Vigente</v>
@@ -3274,7 +3274,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M33">
-            <v>-70792.847999999998</v>
+            <v>-82591.656000000003</v>
           </cell>
           <cell r="N33">
             <v>117988.08</v>
@@ -3324,7 +3324,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M34">
-            <v>1075790.931892833</v>
+            <v>1064584.7763522826</v>
           </cell>
           <cell r="N34">
             <v>112061.55540550343</v>
@@ -3374,7 +3374,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M35">
-            <v>464385.71733333333</v>
+            <v>455035.66933333332</v>
           </cell>
           <cell r="N35">
             <v>93500.479999999996</v>
@@ -3424,7 +3424,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M36">
-            <v>425830.22533333331</v>
+            <v>417534.83133333334</v>
           </cell>
           <cell r="N36">
             <v>82953.94</v>
@@ -3474,7 +3474,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M37">
-            <v>408173.30299999996</v>
+            <v>401762.20399999997</v>
           </cell>
           <cell r="N37">
             <v>64110.99</v>
@@ -3524,7 +3524,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M38">
-            <v>330022.89999999997</v>
+            <v>323635.36</v>
           </cell>
           <cell r="N38">
             <v>63875.4</v>
@@ -3574,7 +3574,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M39">
-            <v>319790.26666666666</v>
+            <v>313478.61666666664</v>
           </cell>
           <cell r="N39">
             <v>63116.5</v>
@@ -3618,7 +3618,7 @@
             <v>43525</v>
           </cell>
           <cell r="K40">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L40" t="str">
             <v>Vigente</v>
@@ -3674,7 +3674,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M41">
-            <v>470201.63866666669</v>
+            <v>464898.61266666668</v>
           </cell>
           <cell r="N41">
             <v>53030.26</v>
@@ -3724,7 +3724,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M42">
-            <v>262562.77333333332</v>
+            <v>257380.61333333331</v>
           </cell>
           <cell r="N42">
             <v>51821.599999999999</v>
@@ -3774,7 +3774,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M43">
-            <v>428660.12266666663</v>
+            <v>423932.25366666669</v>
           </cell>
           <cell r="N43">
             <v>47278.69</v>
@@ -3824,7 +3824,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M44">
-            <v>127606.584</v>
+            <v>123049.20599999999</v>
           </cell>
           <cell r="N44">
             <v>45573.78</v>
@@ -3874,7 +3874,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M45">
-            <v>216981.26666666669</v>
+            <v>212698.74166666667</v>
           </cell>
           <cell r="N45">
             <v>42825.25</v>
@@ -3924,7 +3924,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M46">
-            <v>212696.74066666668</v>
+            <v>208553.29766666668</v>
           </cell>
           <cell r="N46">
             <v>41434.43</v>
@@ -3975,16 +3975,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M47">
-            <v>250466.264</v>
+            <v>246746.46799999999</v>
           </cell>
           <cell r="N47">
             <v>37197.96</v>
           </cell>
-          <cell r="O47" t="str">
-            <v>A ser apurado</v>
-          </cell>
-          <cell r="P47" t="e">
-            <v>#VALUE!</v>
+          <cell r="O47">
+            <v>37196.959999999999</v>
+          </cell>
+          <cell r="P47">
+            <v>-1</v>
           </cell>
         </row>
         <row r="48">
@@ -4025,7 +4025,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M48">
-            <v>179594.51766666665</v>
+            <v>176026.41466666665</v>
           </cell>
           <cell r="N48">
             <v>35681.03</v>
@@ -4075,7 +4075,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M49">
-            <v>271250.73333333334</v>
+            <v>267915.68333333335</v>
           </cell>
           <cell r="N49">
             <v>33350.5</v>
@@ -4125,7 +4125,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M50">
-            <v>164735.42133333333</v>
+            <v>161484.06433333334</v>
           </cell>
           <cell r="N50">
             <v>32513.57</v>
@@ -4176,7 +4176,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M51">
-            <v>152280.49157666668</v>
+            <v>149255.05134666667</v>
           </cell>
           <cell r="N51">
             <v>30254.402300000002</v>
@@ -4226,7 +4226,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M52">
-            <v>92864.928000000014</v>
+            <v>89962.899000000019</v>
           </cell>
           <cell r="N52">
             <v>29020.290000000005</v>
@@ -4270,7 +4270,7 @@
             <v>40969</v>
           </cell>
           <cell r="K53">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L53" t="str">
             <v>Vigente</v>
@@ -4320,7 +4320,7 @@
             <v>40186</v>
           </cell>
           <cell r="K54">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L54" t="str">
             <v>Vigente</v>
@@ -4370,7 +4370,7 @@
             <v>35555</v>
           </cell>
           <cell r="K55">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L55" t="str">
             <v>Vigente</v>
@@ -4420,7 +4420,7 @@
             <v>42653</v>
           </cell>
           <cell r="K56">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L56" t="str">
             <v>Vigente</v>
@@ -4476,7 +4476,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M57">
-            <v>331808.48800000001</v>
+            <v>330316.09600000002</v>
           </cell>
           <cell r="N57">
             <v>14923.92</v>
@@ -4526,7 +4526,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M58">
-            <v>180610.88166666665</v>
+            <v>179126.40866666666</v>
           </cell>
           <cell r="N58">
             <v>14844.73</v>
@@ -4576,7 +4576,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M59">
-            <v>73320.991333333324</v>
+            <v>71892.660333333333</v>
           </cell>
           <cell r="N59">
             <v>14283.31</v>
@@ -4617,10 +4617,10 @@
             <v>-</v>
           </cell>
           <cell r="J60">
-            <v>45506</v>
+            <v>45509</v>
           </cell>
           <cell r="K60">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L60" t="str">
             <v>Vigente</v>
@@ -4664,13 +4664,13 @@
             <v>Rua Monsenhor Manuel Gomes, 370 - São Cristóvão, Rio de Janeiro - RJ</v>
           </cell>
           <cell r="I61">
-            <v>45506</v>
+            <v>45509</v>
           </cell>
           <cell r="J61">
             <v>43466</v>
           </cell>
           <cell r="K61">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L61" t="str">
             <v>Vigente</v>
@@ -4726,7 +4726,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M62">
-            <v>78311.333333333343</v>
+            <v>77632.333333333343</v>
           </cell>
           <cell r="N62">
             <v>6790</v>
@@ -4734,7 +4734,6 @@
           <cell r="O62" t="str">
             <v>Insetkan</v>
           </cell>
-          <cell r="P62"/>
         </row>
         <row r="63">
           <cell r="A63" t="str">
@@ -4774,7 +4773,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M63">
-            <v>39363.498333333337</v>
+            <v>38725.171333333339</v>
           </cell>
           <cell r="N63">
             <v>6383.27</v>
@@ -4824,7 +4823,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M64">
-            <v>154788.19199999998</v>
+            <v>154250.73299999998</v>
           </cell>
           <cell r="N64">
             <v>5374.59</v>
@@ -4832,7 +4831,6 @@
           <cell r="O64" t="str">
             <v>Insetkan</v>
           </cell>
-          <cell r="P64"/>
         </row>
         <row r="65">
           <cell r="A65" t="str">
@@ -4872,7 +4870,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M65">
-            <v>18581.869333333336</v>
+            <v>18165.857333333333</v>
           </cell>
           <cell r="N65">
             <v>4160.12</v>
@@ -4922,7 +4920,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M66">
-            <v>10369.626666666667</v>
+            <v>10076.146666666667</v>
           </cell>
           <cell r="N66">
             <v>2934.8</v>
@@ -4930,7 +4928,6 @@
           <cell r="O66" t="str">
             <v>Insetkan</v>
           </cell>
-          <cell r="P66"/>
         </row>
         <row r="67">
           <cell r="A67" t="str">
@@ -4970,7 +4967,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M67">
-            <v>7490.666666666667</v>
+            <v>7278.666666666667</v>
           </cell>
           <cell r="N67">
             <v>2120</v>
@@ -4978,7 +4975,6 @@
           <cell r="O67" t="str">
             <v>Insetkan</v>
           </cell>
-          <cell r="P67"/>
         </row>
         <row r="68">
           <cell r="A68" t="str">
@@ -5018,7 +5014,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M68">
-            <v>4512</v>
+            <v>4324</v>
           </cell>
           <cell r="N68">
             <v>1880</v>
@@ -5026,7 +5022,6 @@
           <cell r="O68" t="str">
             <v>Insetkan</v>
           </cell>
-          <cell r="P68"/>
         </row>
         <row r="69">
           <cell r="A69" t="str">
@@ -5066,7 +5061,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M69">
-            <v>4798.2766666666666</v>
+            <v>4702.9466666666658</v>
           </cell>
           <cell r="N69">
             <v>953.3</v>
@@ -5110,7 +5105,7 @@
             <v>43828</v>
           </cell>
           <cell r="K70">
-            <v>45536</v>
+            <v>45539</v>
           </cell>
           <cell r="L70" t="str">
             <v>Vigente</v>
@@ -5129,7 +5124,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5574,7 +5569,7 @@
         <v>192</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>61</v>
@@ -6307,7 +6302,7 @@
         <v>197</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>89</v>
@@ -6442,11 +6437,11 @@
       </c>
       <c r="D20" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E20" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>216053.59</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>197</v>
@@ -6467,9 +6462,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L20" s="11" t="str">
+      <c r="L20" s="11">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+        <v>216053.59</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>188</v>
@@ -6588,17 +6583,17 @@
       </c>
       <c r="D23" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E23" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>191173.65546394369</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>192</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>99</v>
@@ -6613,9 +6608,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L23" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L23" s="11">
+        <v>191173.65546394369</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>188</v>
@@ -6647,7 +6641,7 @@
         <v>192</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>101</v>
@@ -7772,7 +7766,7 @@
         <v>197</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>139</v>
@@ -8943,7 +8937,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F18F452-72E2-41F2-BB8E-C375E17331F1}">
           <x14:formula1>
             <xm:f>Planilha2!$A$2:$A$9</xm:f>

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faturamento\OneDrive - GRUPO KANTRO\Documentos\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{A4D66836-0EDD-4E4B-BE67-4B6397C4CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3C42D1-D35C-42D2-A310-C89EB9826905}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221F788-C7DD-432B-A126-A446701B8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="192">
   <si>
     <t>Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ</t>
   </si>
@@ -201,22 +201,10 @@
     <t>MSC Mediterranean Ltda</t>
   </si>
   <si>
-    <t>Instituto Federal de Educação RJ – IFRJ Campus Volta Redonda</t>
-  </si>
-  <si>
     <t>Serviço Social do Comércio - Departamento Nacional - Sesc DN</t>
   </si>
   <si>
     <t>Banco da Providência</t>
-  </si>
-  <si>
-    <t>Serviço Social do Comércio - Polo Sociocultural Sesc Paraty</t>
-  </si>
-  <si>
-    <t>Serviço Social do Comércio - Departamento Nacional</t>
-  </si>
-  <si>
-    <t>Serviço Nacional de Aprendizagem Industrial - SENAI-CETIQT</t>
   </si>
   <si>
     <t>Fundação Cultural do Exército Brasileiro - FUNCEB</t>
@@ -508,33 +496,15 @@
     <t>Ipanema - Rio de Janeiro</t>
   </si>
   <si>
-    <t>Controle de Pragas e Vetores</t>
-  </si>
-  <si>
-    <t>Volta Redonda - RJ</t>
-  </si>
-  <si>
     <t>21D_0023-PG</t>
   </si>
   <si>
-    <t>2021.7421.5355</t>
-  </si>
-  <si>
     <t>Realengo - Rio de Janeiro</t>
   </si>
   <si>
-    <t>Paraty - RJ</t>
-  </si>
-  <si>
-    <t>Jacarepaguá - RJ</t>
-  </si>
-  <si>
     <t>Limpeza Expressa</t>
   </si>
   <si>
-    <t>Insetkan</t>
-  </si>
-  <si>
     <t>Nome Prestador</t>
   </si>
   <si>
@@ -608,9 +578,6 @@
   </si>
   <si>
     <t>KT</t>
-  </si>
-  <si>
-    <t>INSET</t>
   </si>
   <si>
     <t>Chave</t>
@@ -4734,6 +4701,7 @@
           <cell r="O62" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P62"/>
         </row>
         <row r="63">
           <cell r="A63" t="str">
@@ -4831,6 +4799,7 @@
           <cell r="O64" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P64"/>
         </row>
         <row r="65">
           <cell r="A65" t="str">
@@ -4928,6 +4897,7 @@
           <cell r="O66" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P66"/>
         </row>
         <row r="67">
           <cell r="A67" t="str">
@@ -4975,6 +4945,7 @@
           <cell r="O67" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P67"/>
         </row>
         <row r="68">
           <cell r="A68" t="str">
@@ -5022,6 +4993,7 @@
           <cell r="O68" t="str">
             <v>Insetkan</v>
           </cell>
+          <cell r="P68"/>
         </row>
         <row r="69">
           <cell r="A69" t="str">
@@ -5124,15 +5096,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N70" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" headerRowCellStyle="Moeda">
-  <autoFilter ref="A1:N70" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N65" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" headerRowCellStyle="Moeda">
+  <autoFilter ref="A1:N65" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="14"/>
@@ -5480,9 +5452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06736F0B-1E7B-40B2-AFB2-0995320CCBFA}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5505,51 +5479,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="G1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -5566,19 +5540,19 @@
         <v>576558.80827391299</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K2" s="9" t="str">
         <f ca="1">IF(J2&gt;TODAY(),"Vigente","Encerrado")</f>
@@ -5588,7 +5562,7 @@
         <v>576558.80827391299</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N2" s="39" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5597,7 +5571,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -5614,22 +5588,22 @@
         <v>610366.98</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="str">
-        <f t="shared" ref="K3:K66" ca="1" si="0">IF(J3&gt;TODAY(),"Vigente","Encerrado")</f>
+        <f t="shared" ref="K3:K63" ca="1" si="0">IF(J3&gt;TODAY(),"Vigente","Encerrado")</f>
         <v>Vigente</v>
       </c>
       <c r="L3" s="11">
@@ -5637,7 +5611,7 @@
         <v>610366.98</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N3" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5646,7 +5620,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -5663,19 +5637,19 @@
         <v>579885.07999999996</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>8000013262</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5685,7 +5659,7 @@
         <v>579885.07999999996</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N4" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5694,7 +5668,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -5711,19 +5685,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5734,7 +5708,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N5" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5743,7 +5717,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -5760,19 +5734,19 @@
         <v>436867.75</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5783,7 +5757,7 @@
         <v>436867.75</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N6" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5792,7 +5766,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -5809,19 +5783,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5832,7 +5806,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N7" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5841,7 +5815,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -5858,19 +5832,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5881,7 +5855,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N8" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5890,7 +5864,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
@@ -5907,19 +5881,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5930,7 +5904,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N9" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5939,7 +5913,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -5956,19 +5930,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5979,7 +5953,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N10" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -5988,7 +5962,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -6005,19 +5979,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6028,7 +6002,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N11" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6037,7 +6011,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
@@ -6054,19 +6028,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6077,7 +6051,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N12" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6086,7 +6060,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
@@ -6103,19 +6077,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K13" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6126,7 +6100,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N13" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6135,7 +6109,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
@@ -6152,19 +6126,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K14" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6175,7 +6149,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N14" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6184,7 +6158,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>8</v>
@@ -6201,19 +6175,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K15" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6224,7 +6198,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N15" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6233,7 +6207,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
@@ -6250,19 +6224,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K16" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6273,7 +6247,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N16" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6282,7 +6256,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>10</v>
@@ -6299,19 +6273,19 @@
         <v>246203.6</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K17" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6321,7 +6295,7 @@
         <v>246203.6</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N17" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6330,7 +6304,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
@@ -6347,19 +6321,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K18" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6370,7 +6344,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N18" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6379,7 +6353,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
@@ -6396,19 +6370,19 @@
         <v>228186.31</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K19" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6418,7 +6392,7 @@
         <v>228186.31</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N19" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6427,7 +6401,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
@@ -6444,19 +6418,19 @@
         <v>216053.59</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6467,7 +6441,7 @@
         <v>216053.59</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N20" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6476,7 +6450,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>14</v>
@@ -6493,19 +6467,19 @@
         <v>214316.4</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K21" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6515,7 +6489,7 @@
         <v>214316.4</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N21" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6524,7 +6498,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>15</v>
@@ -6541,19 +6515,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K22" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6564,7 +6538,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N22" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6573,7 +6547,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>10</v>
@@ -6590,19 +6564,19 @@
         <v>191173.65546394369</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K23" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6612,7 +6586,7 @@
         <v>191173.65546394369</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N23" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6621,7 +6595,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>16</v>
@@ -6638,19 +6612,19 @@
         <v>189897.95</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K24" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6661,7 +6635,7 @@
         <v>189897.95</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N24" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6670,7 +6644,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>3</v>
@@ -6687,19 +6661,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K25" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6710,7 +6684,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N25" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6719,7 +6693,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
@@ -6729,37 +6703,36 @@
       </c>
       <c r="D26" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E26" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>141942.37</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K26" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L26" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L26" s="11">
+        <v>141942.37</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N26" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6768,7 +6741,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>18</v>
@@ -6785,19 +6758,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K27" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6808,7 +6781,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N27" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6817,7 +6790,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>19</v>
@@ -6834,19 +6807,19 @@
         <v>0</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K28" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6857,7 +6830,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N28" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6866,7 +6839,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>20</v>
@@ -6883,19 +6856,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K29" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6906,7 +6879,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N29" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6915,7 +6888,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>21</v>
@@ -6932,19 +6905,19 @@
         <v>0</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K30" s="24" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6955,7 +6928,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N30" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -6964,7 +6937,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>22</v>
@@ -6981,19 +6954,19 @@
         <v>0</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K31" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7004,7 +6977,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N31" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7013,7 +6986,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>23</v>
@@ -7030,19 +7003,19 @@
         <v>118243.07</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K32" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7053,7 +7026,7 @@
         <v>118243.07</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N32" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7062,7 +7035,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>24</v>
@@ -7079,19 +7052,19 @@
         <v>58090.33</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K33" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7102,7 +7075,7 @@
         <v>58090.33</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N33" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7111,7 +7084,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>25</v>
@@ -7128,19 +7101,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K34" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7151,7 +7124,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N34" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7160,7 +7133,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>26</v>
@@ -7177,19 +7150,19 @@
         <v>0</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K35" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7200,7 +7173,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N35" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7209,7 +7182,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>27</v>
@@ -7219,37 +7192,36 @@
       </c>
       <c r="D36" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E36" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>82953.94</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K36" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L36" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L36" s="31">
+        <v>82953.94</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N36" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7258,7 +7230,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>28</v>
@@ -7275,19 +7247,19 @@
         <v>64110.99</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K37" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7297,7 +7269,7 @@
         <v>64110.99</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N37" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7306,7 +7278,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>29</v>
@@ -7323,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K38" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7346,7 +7318,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N38" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7355,7 +7327,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>30</v>
@@ -7372,19 +7344,19 @@
         <v>63116.5</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K39" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7394,7 +7366,7 @@
         <v>63116.5</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N39" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7403,7 +7375,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>31</v>
@@ -7420,19 +7392,19 @@
         <v>0</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K40" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7443,7 +7415,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N40" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7452,7 +7424,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>32</v>
@@ -7469,19 +7441,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K41" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7492,7 +7464,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N41" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7501,7 +7473,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>33</v>
@@ -7511,37 +7483,36 @@
       </c>
       <c r="D42" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E42" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>51821.599999999999</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K42" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L42" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L42" s="31">
+        <v>51821.599999999999</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N42" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7550,7 +7521,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>34</v>
@@ -7567,19 +7538,19 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K43" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7590,7 +7561,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N43" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7599,7 +7570,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>35</v>
@@ -7616,19 +7587,19 @@
         <v>0</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K44" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7639,7 +7610,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N44" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7648,7 +7619,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>36</v>
@@ -7658,37 +7629,36 @@
       </c>
       <c r="D45" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E45" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>42825.25</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K45" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L45" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L45" s="31">
+        <v>42825.25</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N45" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7697,7 +7667,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>37</v>
@@ -7707,37 +7677,36 @@
       </c>
       <c r="D46" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E46" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>41434.43</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K46" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L46" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L46" s="31">
+        <v>41434.43</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N46" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7746,7 +7715,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>38</v>
@@ -7763,19 +7732,19 @@
         <v>37197.96</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K47" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7785,7 +7754,7 @@
         <v>37197.96</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N47" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7794,7 +7763,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>39</v>
@@ -7804,37 +7773,36 @@
       </c>
       <c r="D48" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E48" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>35681.03</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K48" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L48" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L48" s="31">
+        <v>35681.03</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N48" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7843,7 +7811,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>40</v>
@@ -7860,19 +7828,19 @@
         <v>0</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K49" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7883,7 +7851,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N49" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7892,7 +7860,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>41</v>
@@ -7902,37 +7870,36 @@
       </c>
       <c r="D50" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E50" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>32513.57</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K50" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L50" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L50" s="31">
+        <v>32513.57</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N50" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7941,7 +7908,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>42</v>
@@ -7951,37 +7918,36 @@
       </c>
       <c r="D51" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E51" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>30254.402300000002</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K51" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L51" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L51" s="31">
+        <v>30254.402300000002</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N51" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -7990,7 +7956,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>43</v>
@@ -8000,37 +7966,36 @@
       </c>
       <c r="D52" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E52" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>29020.290000000005</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K52" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L52" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L52" s="31">
+        <v>29020.290000000005</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N52" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8039,7 +8004,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>44</v>
@@ -8056,19 +8021,19 @@
         <v>0</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K53" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8079,7 +8044,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N53" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8088,7 +8053,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>45</v>
@@ -8105,19 +8070,19 @@
         <v>0</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K54" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8128,7 +8093,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N54" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8137,7 +8102,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>46</v>
@@ -8154,19 +8119,19 @@
         <v>0</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K55" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8177,7 +8142,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N55" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8186,7 +8151,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>47</v>
@@ -8203,19 +8168,19 @@
         <v>0</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K56" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8226,7 +8191,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N56" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8235,7 +8200,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>48</v>
@@ -8252,19 +8217,19 @@
         <v>0</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K57" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8275,7 +8240,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N57" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8284,7 +8249,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>49</v>
@@ -8301,19 +8266,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K58" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8324,7 +8289,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N58" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8333,7 +8298,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>50</v>
@@ -8350,19 +8315,19 @@
         <v>0</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K59" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8373,7 +8338,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N59" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8382,7 +8347,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>51</v>
@@ -8399,19 +8364,19 @@
         <v>0</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K60" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8422,7 +8387,7 @@
         <v>A ser apurado</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N60" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8431,7 +8396,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>52</v>
@@ -8448,19 +8413,19 @@
         <v>9588.7800000000007</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K61" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8471,7 +8436,7 @@
         <v>9588.7800000000007</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N61" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
@@ -8480,36 +8445,36 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="10">
-        <v>6790</v>
+        <v>6383.27</v>
       </c>
       <c r="D62" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>Insetkan</v>
+        <v>A ser apurado</v>
       </c>
       <c r="E62" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>151</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="K62" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8517,416 +8482,171 @@
       </c>
       <c r="L62" s="31" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>Insetkan</v>
+        <v>A ser apurado</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N62" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v>INSET_Instituto Federal de Educação RJ – IFRJ Campus Volta Redonda_Controle de Pragas e Vetores</v>
+        <v>KT_Serviço Social do Comércio - Departamento Nacional - Sesc DN_Motoboy</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="10">
-        <v>6383.27</v>
+        <v>4160.12</v>
       </c>
       <c r="D63" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E63" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>4160.12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="K63" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L63" s="31" t="str">
+      <c r="L63" s="11">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+        <v>4160.12</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N63" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v>KT_Serviço Social do Comércio - Departamento Nacional - Sesc DN_Motoboy</v>
+        <v xml:space="preserve">KE_Banco da Providência_Limpeza </v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C64" s="10">
-        <v>5374.59</v>
+        <v>953.3</v>
       </c>
       <c r="D64" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>Insetkan</v>
+        <v>A ser apurado</v>
       </c>
       <c r="E64" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K64" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="K64:K65" ca="1" si="1">IF(J64&gt;TODAY(),"Vigente","Encerrado")</f>
         <v>Vigente</v>
       </c>
-      <c r="L64" s="31" t="str">
+      <c r="L64" s="11" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>Insetkan</v>
+        <v>A ser apurado</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N64" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v>INSET_Banco do Brasil_Controle de Pragas e Vetores</v>
+        <v>KT_Fundação Cultural do Exército Brasileiro - FUNCEB_Limpeza</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="10">
-        <v>4160.12</v>
-      </c>
-      <c r="D65" s="33" t="str">
+        <v>156</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="15">
+        <v>390.99</v>
+      </c>
+      <c r="D65" s="34" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>Apurado</v>
-      </c>
-      <c r="E65" s="10">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>4160.12</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K65" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vigente</v>
-      </c>
-      <c r="L65" s="11">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>4160.12</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="N65" s="32" t="str">
-        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v xml:space="preserve">KE_Banco da Providência_Limpeza </v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="10">
-        <v>2934.8</v>
-      </c>
-      <c r="D66" s="33" t="str">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>Insetkan</v>
-      </c>
-      <c r="E66" s="10">
+        <v>A ser apurado</v>
+      </c>
+      <c r="E65" s="15">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
         <v>0</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K66" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vigente</v>
-      </c>
-      <c r="L66" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>Insetkan</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N66" s="32" t="str">
-        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v>INSET_Serviço Social do Comércio - Polo Sociocultural Sesc Paraty_Controle de Pragas e Vetores</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="10">
-        <v>2120</v>
-      </c>
-      <c r="D67" s="33" t="str">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>Insetkan</v>
-      </c>
-      <c r="E67" s="10">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K67" s="9" t="str">
-        <f t="shared" ref="K67:K70" ca="1" si="1">IF(J67&gt;TODAY(),"Vigente","Encerrado")</f>
-        <v>Vigente</v>
-      </c>
-      <c r="L67" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>Insetkan</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N67" s="32" t="str">
-        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v>INSET_Serviço Social do Comércio - Departamento Nacional_Controle de Pragas e Vetores</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="10">
-        <v>1880</v>
-      </c>
-      <c r="D68" s="33" t="str">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>Insetkan</v>
-      </c>
-      <c r="E68" s="10">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H68" s="7">
-        <v>1574</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K68" s="9" t="str">
+      <c r="F65" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K65" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vigente</v>
       </c>
-      <c r="L68" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>Insetkan</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N68" s="32" t="str">
-        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v>INSET_Serviço Nacional de Aprendizagem Industrial - SENAI-CETIQT_Controle de Pragas e Vetores</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="10">
-        <v>953.3</v>
-      </c>
-      <c r="D69" s="33" t="str">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
-      </c>
-      <c r="E69" s="10">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K69" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vigente</v>
-      </c>
-      <c r="L69" s="11" t="str">
+      <c r="L65" s="16" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
         <v>A ser apurado</v>
       </c>
-      <c r="M69" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="N69" s="32" t="str">
-        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
-        <v>KT_Fundação Cultural do Exército Brasileiro - FUNCEB_Limpeza</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="15">
-        <v>390.99</v>
-      </c>
-      <c r="D70" s="34" t="str">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
-      </c>
-      <c r="E70" s="15">
-        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K70" s="14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vigente</v>
-      </c>
-      <c r="L70" s="16" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="N70" s="40" t="str">
+      <c r="M65" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N65" s="40" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
         <v>KE_Conferência Nacional dos Bispos do Brasil - CNBB_Limpeza Expressa</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K70">
+  <conditionalFormatting sqref="A2:K65">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>$M2="Encerrado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L70 I71:I1048576">
+  <conditionalFormatting sqref="I66:I1048576 L1:L65">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A ser apurado">
       <formula>NOT(ISERROR(SEARCH("A ser apurado",I1)))</formula>
     </cfRule>
@@ -8937,18 +8657,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F18F452-72E2-41F2-BB8E-C375E17331F1}">
-          <x14:formula1>
-            <xm:f>Planilha2!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G70</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C888B976-EE8D-40D9-8ED3-8BBDBF9BDF75}">
           <x14:formula1>
             <xm:f>Planilha2!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F18F452-72E2-41F2-BB8E-C375E17331F1}">
+          <x14:formula1>
+            <xm:f>Planilha2!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8971,47 +8691,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faturamento\OneDrive - GRUPO KANTRO\Documentos\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221F788-C7DD-432B-A126-A446701B8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{A221F788-C7DD-432B-A126-A446701B8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{989A9153-A30B-4913-861C-95A5E536DD2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -915,7 +915,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -1688,7 +1700,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M2">
-            <v>6076308.833333334</v>
+            <v>6050452.2000000002</v>
           </cell>
           <cell r="N2">
             <v>775699</v>
@@ -1738,7 +1750,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M3">
-            <v>20377772.683333334</v>
+            <v>20355550.466666669</v>
           </cell>
           <cell r="N3">
             <v>666666.5</v>
@@ -1788,7 +1800,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M4">
-            <v>8947091.5712217446</v>
+            <v>8925889.9324273802</v>
           </cell>
           <cell r="N4">
             <v>636049.16383092967</v>
@@ -1838,7 +1850,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M5">
-            <v>2941123.6839999999</v>
+            <v>2923190.003</v>
           </cell>
           <cell r="N5">
             <v>538010.43000000005</v>
@@ -1888,7 +1900,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M6">
-            <v>3305632.6416666666</v>
+            <v>3291070.3833333333</v>
           </cell>
           <cell r="N6">
             <v>436867.75</v>
@@ -1938,7 +1950,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M7">
-            <v>2739138.4200000004</v>
+            <v>2724721.9020000002</v>
           </cell>
           <cell r="N7">
             <v>432495.54000000004</v>
@@ -1988,7 +2000,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M8">
-            <v>-57528.894666666667</v>
+            <v>-71911.118333333332</v>
           </cell>
           <cell r="N8">
             <v>431466.71</v>
@@ -2038,7 +2050,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M9">
-            <v>4173684.7673333334</v>
+            <v>4160763.1426666668</v>
           </cell>
           <cell r="N9">
             <v>387648.74</v>
@@ -2088,7 +2100,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M10">
-            <v>3712114.9679999999</v>
+            <v>3700622.352</v>
           </cell>
           <cell r="N10">
             <v>344778.48</v>
@@ -2138,7 +2150,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M11">
-            <v>852661.40399999998</v>
+            <v>841442.17499999993</v>
           </cell>
           <cell r="N11">
             <v>336576.87</v>
@@ -2189,7 +2201,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M12">
-            <v>8790041.768666666</v>
+            <v>8779295.9963333327</v>
           </cell>
           <cell r="N12">
             <v>322373.17</v>
@@ -2239,7 +2251,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M13">
-            <v>3290592.4313333337</v>
+            <v>3280404.8386666668</v>
           </cell>
           <cell r="N13">
             <v>305627.78000000003</v>
@@ -2289,7 +2301,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M14">
-            <v>1850632.4569999999</v>
+            <v>1840519.7113333333</v>
           </cell>
           <cell r="N14">
             <v>303382.37</v>
@@ -2339,7 +2351,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M15">
-            <v>3210186.0780000002</v>
+            <v>3200799.5690000001</v>
           </cell>
           <cell r="N15">
             <v>281595.27</v>
@@ -2389,7 +2401,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M16">
-            <v>1767804.9089999998</v>
+            <v>1759264.7886666665</v>
           </cell>
           <cell r="N16">
             <v>256203.61</v>
@@ -2440,7 +2452,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M17">
-            <v>1502017.5473333332</v>
+            <v>1493764.7036666665</v>
           </cell>
           <cell r="N17">
             <v>247585.31</v>
@@ -2490,7 +2502,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M18">
-            <v>11119093.050000001</v>
+            <v>11111782.666666666</v>
           </cell>
           <cell r="N18">
             <v>219311.5</v>
@@ -2540,7 +2552,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M19">
-            <v>1131461.0583333333</v>
+            <v>1124254.3</v>
           </cell>
           <cell r="N19">
             <v>216202.75</v>
@@ -2590,7 +2602,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M20">
-            <v>2311773.4130000002</v>
+            <v>2304571.6266666669</v>
           </cell>
           <cell r="N20">
             <v>216053.59</v>
@@ -2640,7 +2652,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M21">
-            <v>9101303.120000001</v>
+            <v>9094159.2400000002</v>
           </cell>
           <cell r="N21">
             <v>214316.4</v>
@@ -2690,7 +2702,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M22">
-            <v>2288237.5506666666</v>
+            <v>2281282.4213333335</v>
           </cell>
           <cell r="N22">
             <v>208653.88</v>
@@ -2740,7 +2752,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M23">
-            <v>981578.16766666668</v>
+            <v>975077.65</v>
           </cell>
           <cell r="N23">
             <v>195015.53</v>
@@ -2790,7 +2802,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M24">
-            <v>177238.08666666667</v>
+            <v>170908.15500000003</v>
           </cell>
           <cell r="N24">
             <v>189897.95</v>
@@ -2840,7 +2852,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M25">
-            <v>1553859.9</v>
+            <v>1548680.3669999999</v>
           </cell>
           <cell r="N25">
             <v>155385.99</v>
@@ -2890,7 +2902,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M26">
-            <v>700249.02533333329</v>
+            <v>695517.6129999999</v>
           </cell>
           <cell r="N26">
             <v>141942.37</v>
@@ -2941,7 +2953,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M27">
-            <v>969205.87799999991</v>
+            <v>964523.72399999993</v>
           </cell>
           <cell r="N27">
             <v>140464.62</v>
@@ -2991,7 +3003,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M28">
-            <v>971533.61066666665</v>
+            <v>966862.77599999995</v>
           </cell>
           <cell r="N28">
             <v>140125.04</v>
@@ -3041,7 +3053,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M29">
-            <v>564752.84100000001</v>
+            <v>560374.91200000001</v>
           </cell>
           <cell r="N29">
             <v>131337.87</v>
@@ -3091,7 +3103,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M30">
-            <v>804089.348</v>
+            <v>799812.277</v>
           </cell>
           <cell r="N30">
             <v>128312.13</v>
@@ -3141,7 +3153,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M31">
-            <v>1399032.3959999999</v>
+            <v>1394818.4429999997</v>
           </cell>
           <cell r="N31">
             <v>126418.59</v>
@@ -3185,7 +3197,7 @@
             <v>42522</v>
           </cell>
           <cell r="K32">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L32" t="str">
             <v>Vigente</v>
@@ -3241,7 +3253,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M33">
-            <v>-82591.656000000003</v>
+            <v>-86524.592000000004</v>
           </cell>
           <cell r="N33">
             <v>117988.08</v>
@@ -3291,7 +3303,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M34">
-            <v>1064584.7763522826</v>
+            <v>1060849.3911720992</v>
           </cell>
           <cell r="N34">
             <v>112061.55540550343</v>
@@ -3341,7 +3353,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M35">
-            <v>455035.66933333332</v>
+            <v>451918.98666666663</v>
           </cell>
           <cell r="N35">
             <v>93500.479999999996</v>
@@ -3391,7 +3403,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M36">
-            <v>417534.83133333334</v>
+            <v>414769.7</v>
           </cell>
           <cell r="N36">
             <v>82953.94</v>
@@ -3441,7 +3453,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M37">
-            <v>401762.20399999997</v>
+            <v>399625.17099999997</v>
           </cell>
           <cell r="N37">
             <v>64110.99</v>
@@ -3491,7 +3503,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M38">
-            <v>323635.36</v>
+            <v>321506.18</v>
           </cell>
           <cell r="N38">
             <v>63875.4</v>
@@ -3541,7 +3553,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M39">
-            <v>313478.61666666664</v>
+            <v>311374.73333333334</v>
           </cell>
           <cell r="N39">
             <v>63116.5</v>
@@ -3585,7 +3597,7 @@
             <v>43525</v>
           </cell>
           <cell r="K40">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L40" t="str">
             <v>Vigente</v>
@@ -3641,7 +3653,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M41">
-            <v>464898.61266666668</v>
+            <v>463130.93733333336</v>
           </cell>
           <cell r="N41">
             <v>53030.26</v>
@@ -3691,7 +3703,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M42">
-            <v>257380.61333333331</v>
+            <v>255653.22666666665</v>
           </cell>
           <cell r="N42">
             <v>51821.599999999999</v>
@@ -3741,7 +3753,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M43">
-            <v>423932.25366666669</v>
+            <v>422356.29733333335</v>
           </cell>
           <cell r="N43">
             <v>47278.69</v>
@@ -3791,7 +3803,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M44">
-            <v>123049.20599999999</v>
+            <v>121530.08</v>
           </cell>
           <cell r="N44">
             <v>45573.78</v>
@@ -3841,7 +3853,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M45">
-            <v>212698.74166666667</v>
+            <v>211271.23333333334</v>
           </cell>
           <cell r="N45">
             <v>42825.25</v>
@@ -3891,7 +3903,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M46">
-            <v>208553.29766666668</v>
+            <v>207172.15000000002</v>
           </cell>
           <cell r="N46">
             <v>41434.43</v>
@@ -3942,7 +3954,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M47">
-            <v>246746.46799999999</v>
+            <v>245506.53599999999</v>
           </cell>
           <cell r="N47">
             <v>37197.96</v>
@@ -3992,7 +4004,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M48">
-            <v>176026.41466666665</v>
+            <v>174837.04699999999</v>
           </cell>
           <cell r="N48">
             <v>35681.03</v>
@@ -4042,7 +4054,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M49">
-            <v>267915.68333333335</v>
+            <v>266804</v>
           </cell>
           <cell r="N49">
             <v>33350.5</v>
@@ -4092,7 +4104,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M50">
-            <v>161484.06433333334</v>
+            <v>160400.27866666665</v>
           </cell>
           <cell r="N50">
             <v>32513.57</v>
@@ -4143,7 +4155,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M51">
-            <v>149255.05134666667</v>
+            <v>148246.57127000001</v>
           </cell>
           <cell r="N51">
             <v>30254.402300000002</v>
@@ -4193,7 +4205,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M52">
-            <v>89962.899000000019</v>
+            <v>88995.556000000011</v>
           </cell>
           <cell r="N52">
             <v>29020.290000000005</v>
@@ -4237,7 +4249,7 @@
             <v>40969</v>
           </cell>
           <cell r="K53">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L53" t="str">
             <v>Vigente</v>
@@ -4287,7 +4299,7 @@
             <v>40186</v>
           </cell>
           <cell r="K54">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L54" t="str">
             <v>Vigente</v>
@@ -4337,7 +4349,7 @@
             <v>35555</v>
           </cell>
           <cell r="K55">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L55" t="str">
             <v>Vigente</v>
@@ -4387,7 +4399,7 @@
             <v>42653</v>
           </cell>
           <cell r="K56">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L56" t="str">
             <v>Vigente</v>
@@ -4443,7 +4455,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M57">
-            <v>330316.09600000002</v>
+            <v>329818.63199999998</v>
           </cell>
           <cell r="N57">
             <v>14923.92</v>
@@ -4493,7 +4505,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M58">
-            <v>179126.40866666666</v>
+            <v>178631.58433333333</v>
           </cell>
           <cell r="N58">
             <v>14844.73</v>
@@ -4543,7 +4555,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M59">
-            <v>71892.660333333333</v>
+            <v>71416.549999999988</v>
           </cell>
           <cell r="N59">
             <v>14283.31</v>
@@ -4584,10 +4596,10 @@
             <v>-</v>
           </cell>
           <cell r="J60">
-            <v>45509</v>
+            <v>45510</v>
           </cell>
           <cell r="K60">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L60" t="str">
             <v>Vigente</v>
@@ -4631,13 +4643,13 @@
             <v>Rua Monsenhor Manuel Gomes, 370 - São Cristóvão, Rio de Janeiro - RJ</v>
           </cell>
           <cell r="I61">
-            <v>45509</v>
+            <v>45510</v>
           </cell>
           <cell r="J61">
             <v>43466</v>
           </cell>
           <cell r="K61">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L61" t="str">
             <v>Vigente</v>
@@ -4693,7 +4705,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M62">
-            <v>77632.333333333343</v>
+            <v>77406</v>
           </cell>
           <cell r="N62">
             <v>6790</v>
@@ -4741,7 +4753,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M63">
-            <v>38725.171333333339</v>
+            <v>38512.395666666671</v>
           </cell>
           <cell r="N63">
             <v>6383.27</v>
@@ -4791,7 +4803,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M64">
-            <v>154250.73299999998</v>
+            <v>154071.57999999999</v>
           </cell>
           <cell r="N64">
             <v>5374.59</v>
@@ -4839,7 +4851,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M65">
-            <v>18165.857333333333</v>
+            <v>18027.186666666668</v>
           </cell>
           <cell r="N65">
             <v>4160.12</v>
@@ -4889,7 +4901,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M66">
-            <v>10076.146666666667</v>
+            <v>9978.32</v>
           </cell>
           <cell r="N66">
             <v>2934.8</v>
@@ -4937,7 +4949,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M67">
-            <v>7278.666666666667</v>
+            <v>7208.0000000000009</v>
           </cell>
           <cell r="N67">
             <v>2120</v>
@@ -4985,7 +4997,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M68">
-            <v>4324</v>
+            <v>4261.333333333333</v>
           </cell>
           <cell r="N68">
             <v>1880</v>
@@ -5033,7 +5045,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M69">
-            <v>4702.9466666666658</v>
+            <v>4671.1699999999992</v>
           </cell>
           <cell r="N69">
             <v>953.3</v>
@@ -5077,7 +5089,7 @@
             <v>43828</v>
           </cell>
           <cell r="K70">
-            <v>45539</v>
+            <v>45540</v>
           </cell>
           <cell r="L70" t="str">
             <v>Vigente</v>
@@ -5103,31 +5115,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N65" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" headerRowCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N65" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" headerRowCellStyle="Moeda">
   <autoFilter ref="A1:N65" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="12" dataCellStyle="Vírgula">
+    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="13" dataCellStyle="Vírgula">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="5">
+    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="6">
       <calculatedColumnFormula>IF(J2&gt;TODAY(),"Vigente","Encerrado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="5" dataCellStyle="Moeda">
       <calculatedColumnFormula>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{15944F49-925F-4668-959B-DB08B4396E21}" name="EMPR" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7189B23D-D71F-4D3D-9E69-9EF23E9EFA0A}" name="Chave" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{15944F49-925F-4668-959B-DB08B4396E21}" name="EMPR" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7189B23D-D71F-4D3D-9E69-9EF23E9EFA0A}" name="Chave" dataDxfId="3">
       <calculatedColumnFormula>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5454,8 +5466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06736F0B-1E7B-40B2-AFB2-0995320CCBFA}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5678,17 +5690,17 @@
       </c>
       <c r="D5" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E5" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>538010.43000000005</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>64</v>
@@ -5703,9 +5715,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L5" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L5" s="11">
+        <v>538010.43000000005</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>177</v>
@@ -7821,17 +7832,17 @@
       </c>
       <c r="D49" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E49" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>33350.5</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>184</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>137</v>
@@ -7846,9 +7857,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L49" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L49" s="31">
+        <v>33350.5</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>178</v>
@@ -7976,7 +7986,7 @@
         <v>184</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>140</v>
@@ -8255,21 +8265,21 @@
         <v>49</v>
       </c>
       <c r="C58" s="10">
-        <v>14844.73</v>
+        <v>15616.95</v>
       </c>
       <c r="D58" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E58" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>15616.95</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>184</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>147</v>
@@ -8284,9 +8294,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L58" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L58" s="10">
+        <v>15616.95</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>178</v>
@@ -8642,13 +8651,18 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A2:K65">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$M2="Encerrado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:I1048576 L1:L65">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A ser apurado">
+  <conditionalFormatting sqref="L1:L57 I66:I1048576 L59:L65">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="A ser apurado">
       <formula>NOT(ISERROR(SEARCH("A ser apurado",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M58="Encerrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faturamento\OneDrive - GRUPO KANTRO\Documentos\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{A221F788-C7DD-432B-A126-A446701B8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{989A9153-A30B-4913-861C-95A5E536DD2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B799DB-334C-473C-8493-5900B0B3320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="196">
   <si>
     <t>Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ</t>
   </si>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>Em processamento</t>
+  </si>
+  <si>
+    <t>Encerrado</t>
+  </si>
+  <si>
+    <t>Apurado</t>
+  </si>
+  <si>
+    <t>Pendente - aprovação (maio)</t>
+  </si>
+  <si>
+    <t>Pendente - aprovação (junho)</t>
   </si>
 </sst>
 </file>
@@ -786,7 +798,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,13 +921,55 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -936,6 +990,18 @@
           </stop>
           <stop position="1">
             <color theme="9" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
           </stop>
         </gradientFill>
       </fill>
@@ -1700,7 +1766,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M2">
-            <v>6050452.2000000002</v>
+            <v>5998738.9333333336</v>
           </cell>
           <cell r="N2">
             <v>775699</v>
@@ -1750,7 +1816,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M3">
-            <v>20355550.466666669</v>
+            <v>20311106.033333335</v>
           </cell>
           <cell r="N3">
             <v>666666.5</v>
@@ -1800,7 +1866,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M4">
-            <v>8925889.9324273802</v>
+            <v>8883486.6548386514</v>
           </cell>
           <cell r="N4">
             <v>636049.16383092967</v>
@@ -1850,7 +1916,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M5">
-            <v>2923190.003</v>
+            <v>2887322.6410000003</v>
           </cell>
           <cell r="N5">
             <v>538010.43000000005</v>
@@ -1900,7 +1966,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M6">
-            <v>3291070.3833333333</v>
+            <v>3261945.8666666667</v>
           </cell>
           <cell r="N6">
             <v>436867.75</v>
@@ -1950,7 +2016,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M7">
-            <v>2724721.9020000002</v>
+            <v>2695888.8660000004</v>
           </cell>
           <cell r="N7">
             <v>432495.54000000004</v>
@@ -2000,7 +2066,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M8">
-            <v>-71911.118333333332</v>
+            <v>-100675.56566666666</v>
           </cell>
           <cell r="N8">
             <v>431466.71</v>
@@ -2050,7 +2116,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M9">
-            <v>4160763.1426666668</v>
+            <v>4134919.8933333335</v>
           </cell>
           <cell r="N9">
             <v>387648.74</v>
@@ -2100,7 +2166,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M10">
-            <v>3700622.352</v>
+            <v>3677637.12</v>
           </cell>
           <cell r="N10">
             <v>344778.48</v>
@@ -2150,7 +2216,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M11">
-            <v>841442.17499999993</v>
+            <v>819003.71699999995</v>
           </cell>
           <cell r="N11">
             <v>336576.87</v>
@@ -2201,7 +2267,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M12">
-            <v>8779295.9963333327</v>
+            <v>8757804.4516666662</v>
           </cell>
           <cell r="N12">
             <v>322373.17</v>
@@ -2251,7 +2317,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M13">
-            <v>3280404.8386666668</v>
+            <v>3260029.6533333333</v>
           </cell>
           <cell r="N13">
             <v>305627.78000000003</v>
@@ -2301,7 +2367,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M14">
-            <v>1840519.7113333333</v>
+            <v>1820294.2199999997</v>
           </cell>
           <cell r="N14">
             <v>303382.37</v>
@@ -2351,7 +2417,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M15">
-            <v>3200799.5690000001</v>
+            <v>3182026.551</v>
           </cell>
           <cell r="N15">
             <v>281595.27</v>
@@ -2401,7 +2467,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M16">
-            <v>1759264.7886666665</v>
+            <v>1742184.5479999997</v>
           </cell>
           <cell r="N16">
             <v>256203.61</v>
@@ -2452,7 +2518,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M17">
-            <v>1493764.7036666665</v>
+            <v>1477259.0163333332</v>
           </cell>
           <cell r="N17">
             <v>247585.31</v>
@@ -2502,7 +2568,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M18">
-            <v>11111782.666666666</v>
+            <v>11097161.9</v>
           </cell>
           <cell r="N18">
             <v>219311.5</v>
@@ -2552,7 +2618,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M19">
-            <v>1124254.3</v>
+            <v>1109840.7833333332</v>
           </cell>
           <cell r="N19">
             <v>216202.75</v>
@@ -2602,7 +2668,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M20">
-            <v>2304571.6266666669</v>
+            <v>2290168.054</v>
           </cell>
           <cell r="N20">
             <v>216053.59</v>
@@ -2652,7 +2718,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M21">
-            <v>9094159.2400000002</v>
+            <v>9079871.4800000004</v>
           </cell>
           <cell r="N21">
             <v>214316.4</v>
@@ -2702,7 +2768,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M22">
-            <v>2281282.4213333335</v>
+            <v>2267372.1626666668</v>
           </cell>
           <cell r="N22">
             <v>208653.88</v>
@@ -2752,16 +2818,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M23">
-            <v>975077.65</v>
+            <v>962076.6146666666</v>
           </cell>
           <cell r="N23">
             <v>195015.53</v>
           </cell>
           <cell r="O23">
-            <v>191173.66</v>
+            <v>190877.97</v>
           </cell>
           <cell r="P23">
-            <v>-3841.8699999999953</v>
+            <v>-4137.5599999999977</v>
           </cell>
         </row>
         <row r="24">
@@ -2802,7 +2868,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M24">
-            <v>170908.15500000003</v>
+            <v>158248.29166666669</v>
           </cell>
           <cell r="N24">
             <v>189897.95</v>
@@ -2852,7 +2918,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M25">
-            <v>1548680.3669999999</v>
+            <v>1538321.3009999997</v>
           </cell>
           <cell r="N25">
             <v>155385.99</v>
@@ -2902,7 +2968,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M26">
-            <v>695517.6129999999</v>
+            <v>686054.78833333321</v>
           </cell>
           <cell r="N26">
             <v>141942.37</v>
@@ -2953,7 +3019,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M27">
-            <v>964523.72399999993</v>
+            <v>955159.41599999985</v>
           </cell>
           <cell r="N27">
             <v>140464.62</v>
@@ -3003,7 +3069,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M28">
-            <v>966862.77599999995</v>
+            <v>957521.10666666669</v>
           </cell>
           <cell r="N28">
             <v>140125.04</v>
@@ -3053,7 +3119,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M29">
-            <v>560374.91200000001</v>
+            <v>551619.054</v>
           </cell>
           <cell r="N29">
             <v>131337.87</v>
@@ -3103,7 +3169,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M30">
-            <v>799812.277</v>
+            <v>791258.13500000001</v>
           </cell>
           <cell r="N30">
             <v>128312.13</v>
@@ -3153,7 +3219,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M31">
-            <v>1394818.4429999997</v>
+            <v>1386390.5369999998</v>
           </cell>
           <cell r="N31">
             <v>126418.59</v>
@@ -3197,7 +3263,7 @@
             <v>42522</v>
           </cell>
           <cell r="K32">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L32" t="str">
             <v>Vigente</v>
@@ -3253,7 +3319,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M33">
-            <v>-86524.592000000004</v>
+            <v>-94390.464000000007</v>
           </cell>
           <cell r="N33">
             <v>117988.08</v>
@@ -3303,7 +3369,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M34">
-            <v>1060849.3911720992</v>
+            <v>1053378.6208117323</v>
           </cell>
           <cell r="N34">
             <v>112061.55540550343</v>
@@ -3353,16 +3419,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M35">
-            <v>451918.98666666663</v>
+            <v>445685.62133333331</v>
           </cell>
           <cell r="N35">
             <v>93500.479999999996</v>
           </cell>
-          <cell r="O35" t="str">
-            <v>A ser apurado</v>
-          </cell>
-          <cell r="P35" t="e">
-            <v>#VALUE!</v>
+          <cell r="O35">
+            <v>93242.01</v>
+          </cell>
+          <cell r="P35">
+            <v>-258.47000000000116</v>
           </cell>
         </row>
         <row r="36">
@@ -3403,7 +3469,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M36">
-            <v>414769.7</v>
+            <v>409239.43733333331</v>
           </cell>
           <cell r="N36">
             <v>82953.94</v>
@@ -3453,7 +3519,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M37">
-            <v>399625.17099999997</v>
+            <v>395351.10499999998</v>
           </cell>
           <cell r="N37">
             <v>64110.99</v>
@@ -3503,7 +3569,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M38">
-            <v>321506.18</v>
+            <v>317247.81999999995</v>
           </cell>
           <cell r="N38">
             <v>63875.4</v>
@@ -3553,7 +3619,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M39">
-            <v>311374.73333333334</v>
+            <v>307166.96666666667</v>
           </cell>
           <cell r="N39">
             <v>63116.5</v>
@@ -3597,7 +3663,7 @@
             <v>43525</v>
           </cell>
           <cell r="K40">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L40" t="str">
             <v>Vigente</v>
@@ -3653,7 +3719,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M41">
-            <v>463130.93733333336</v>
+            <v>459595.58666666667</v>
           </cell>
           <cell r="N41">
             <v>53030.26</v>
@@ -3703,16 +3769,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M42">
-            <v>255653.22666666665</v>
+            <v>252198.45333333331</v>
           </cell>
           <cell r="N42">
             <v>51821.599999999999</v>
           </cell>
-          <cell r="O42" t="str">
-            <v>A ser apurado</v>
-          </cell>
-          <cell r="P42" t="e">
-            <v>#VALUE!</v>
+          <cell r="O42">
+            <v>51821.599999999999</v>
+          </cell>
+          <cell r="P42">
+            <v>0</v>
           </cell>
         </row>
         <row r="43">
@@ -3753,7 +3819,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M43">
-            <v>422356.29733333335</v>
+            <v>419204.38466666668</v>
           </cell>
           <cell r="N43">
             <v>47278.69</v>
@@ -3803,7 +3869,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M44">
-            <v>121530.08</v>
+            <v>118491.82799999999</v>
           </cell>
           <cell r="N44">
             <v>45573.78</v>
@@ -3853,7 +3919,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M45">
-            <v>211271.23333333334</v>
+            <v>208416.21666666667</v>
           </cell>
           <cell r="N45">
             <v>42825.25</v>
@@ -3903,7 +3969,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M46">
-            <v>207172.15000000002</v>
+            <v>204409.85466666668</v>
           </cell>
           <cell r="N46">
             <v>41434.43</v>
@@ -3954,7 +4020,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M47">
-            <v>245506.53599999999</v>
+            <v>243026.67199999999</v>
           </cell>
           <cell r="N47">
             <v>37197.96</v>
@@ -4004,7 +4070,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M48">
-            <v>174837.04699999999</v>
+            <v>172458.31166666665</v>
           </cell>
           <cell r="N48">
             <v>35681.03</v>
@@ -4054,7 +4120,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M49">
-            <v>266804</v>
+            <v>264580.63333333336</v>
           </cell>
           <cell r="N49">
             <v>33350.5</v>
@@ -4104,7 +4170,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M50">
-            <v>160400.27866666665</v>
+            <v>158232.70733333332</v>
           </cell>
           <cell r="N50">
             <v>32513.57</v>
@@ -4155,7 +4221,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M51">
-            <v>148246.57127000001</v>
+            <v>146229.61111666667</v>
           </cell>
           <cell r="N51">
             <v>30254.402300000002</v>
@@ -4205,7 +4271,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M52">
-            <v>88995.556000000011</v>
+            <v>87060.87000000001</v>
           </cell>
           <cell r="N52">
             <v>29020.290000000005</v>
@@ -4249,7 +4315,7 @@
             <v>40969</v>
           </cell>
           <cell r="K53">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L53" t="str">
             <v>Vigente</v>
@@ -4299,7 +4365,7 @@
             <v>40186</v>
           </cell>
           <cell r="K54">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L54" t="str">
             <v>Vigente</v>
@@ -4349,7 +4415,7 @@
             <v>35555</v>
           </cell>
           <cell r="K55">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L55" t="str">
             <v>Vigente</v>
@@ -4399,7 +4465,7 @@
             <v>42653</v>
           </cell>
           <cell r="K56">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L56" t="str">
             <v>Vigente</v>
@@ -4455,7 +4521,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M57">
-            <v>329818.63199999998</v>
+            <v>328823.70400000003</v>
           </cell>
           <cell r="N57">
             <v>14923.92</v>
@@ -4505,7 +4571,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M58">
-            <v>178631.58433333333</v>
+            <v>177641.93566666666</v>
           </cell>
           <cell r="N58">
             <v>14844.73</v>
@@ -4555,7 +4621,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M59">
-            <v>71416.549999999988</v>
+            <v>70464.329333333328</v>
           </cell>
           <cell r="N59">
             <v>14283.31</v>
@@ -4596,10 +4662,10 @@
             <v>-</v>
           </cell>
           <cell r="J60">
-            <v>45510</v>
+            <v>45512</v>
           </cell>
           <cell r="K60">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L60" t="str">
             <v>Vigente</v>
@@ -4643,13 +4709,13 @@
             <v>Rua Monsenhor Manuel Gomes, 370 - São Cristóvão, Rio de Janeiro - RJ</v>
           </cell>
           <cell r="I61">
-            <v>45510</v>
+            <v>45512</v>
           </cell>
           <cell r="J61">
             <v>43466</v>
           </cell>
           <cell r="K61">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L61" t="str">
             <v>Vigente</v>
@@ -4705,7 +4771,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M62">
-            <v>77406</v>
+            <v>76953.333333333343</v>
           </cell>
           <cell r="N62">
             <v>6790</v>
@@ -4753,7 +4819,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M63">
-            <v>38512.395666666671</v>
+            <v>38086.844333333342</v>
           </cell>
           <cell r="N63">
             <v>6383.27</v>
@@ -4803,7 +4869,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M64">
-            <v>154071.57999999999</v>
+            <v>153713.274</v>
           </cell>
           <cell r="N64">
             <v>5374.59</v>
@@ -4851,7 +4917,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M65">
-            <v>18027.186666666668</v>
+            <v>17749.845333333335</v>
           </cell>
           <cell r="N65">
             <v>4160.12</v>
@@ -4901,7 +4967,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M66">
-            <v>9978.32</v>
+            <v>9782.6666666666661</v>
           </cell>
           <cell r="N66">
             <v>2934.8</v>
@@ -4949,7 +5015,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M67">
-            <v>7208.0000000000009</v>
+            <v>7066.666666666667</v>
           </cell>
           <cell r="N67">
             <v>2120</v>
@@ -4997,7 +5063,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M68">
-            <v>4261.333333333333</v>
+            <v>4136</v>
           </cell>
           <cell r="N68">
             <v>1880</v>
@@ -5045,7 +5111,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M69">
-            <v>4671.1699999999992</v>
+            <v>4607.6166666666659</v>
           </cell>
           <cell r="N69">
             <v>953.3</v>
@@ -5089,7 +5155,7 @@
             <v>43828</v>
           </cell>
           <cell r="K70">
-            <v>45540</v>
+            <v>45542</v>
           </cell>
           <cell r="L70" t="str">
             <v>Vigente</v>
@@ -5115,31 +5181,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N65" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" headerRowCellStyle="Moeda">
-  <autoFilter ref="A1:N65" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N70" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" headerRowCellStyle="Moeda">
+  <autoFilter ref="A1:N70" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="14" dataCellStyle="Moeda"/>
-    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="13" dataCellStyle="Vírgula">
+    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="14" dataCellStyle="Vírgula">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="6">
+    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="7">
       <calculatedColumnFormula>IF(J2&gt;TODAY(),"Vigente","Encerrado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{15944F49-925F-4668-959B-DB08B4396E21}" name="EMPR" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{7189B23D-D71F-4D3D-9E69-9EF23E9EFA0A}" name="Chave" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{15944F49-925F-4668-959B-DB08B4396E21}" name="EMPR" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{7189B23D-D71F-4D3D-9E69-9EF23E9EFA0A}" name="Chave" dataDxfId="4">
       <calculatedColumnFormula>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5464,11 +5530,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06736F0B-1E7B-40B2-AFB2-0995320CCBFA}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6228,17 +6292,17 @@
       </c>
       <c r="D16" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E16" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>246203.6</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>186</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>84</v>
@@ -6253,9 +6317,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L16" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L16" s="11">
+        <v>246203.6</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>177</v>
@@ -6675,7 +6738,7 @@
         <v>182</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>99</v>
@@ -6724,7 +6787,7 @@
         <v>189</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>101</v>
@@ -7066,7 +7129,7 @@
         <v>182</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>111</v>
@@ -7077,9 +7140,8 @@
       <c r="J33" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vigente</v>
+      <c r="K33" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="L33" s="11">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
@@ -7154,17 +7216,17 @@
       </c>
       <c r="D35" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E35" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>93242.01</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>189</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>89</v>
@@ -7179,9 +7241,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L35" s="31" t="str">
+      <c r="L35" s="31">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+        <v>93242.01</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>177</v>
@@ -7213,7 +7275,7 @@
         <v>184</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>116</v>
@@ -7504,7 +7566,7 @@
         <v>184</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>127</v>
@@ -7650,7 +7712,7 @@
         <v>184</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>133</v>
@@ -7698,7 +7760,7 @@
         <v>182</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>116</v>
@@ -7794,7 +7856,7 @@
         <v>184</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>133</v>
@@ -7890,7 +7952,7 @@
         <v>182</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>97</v>
@@ -7938,7 +8000,7 @@
         <v>184</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>97</v>
@@ -8584,7 +8646,7 @@
         <v>68</v>
       </c>
       <c r="K64" s="9" t="str">
-        <f t="shared" ref="K64:K65" ca="1" si="1">IF(J64&gt;TODAY(),"Vigente","Encerrado")</f>
+        <f t="shared" ref="K64:K68" ca="1" si="1">IF(J64&gt;TODAY(),"Vigente","Encerrado")</f>
         <v>Vigente</v>
       </c>
       <c r="L64" s="11" t="str">
@@ -8648,20 +8710,260 @@
         <v>KE_Conferência Nacional dos Bispos do Brasil - CNBB_Limpeza Expressa</v>
       </c>
     </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="10">
+        <v>322373.17</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="10">
+        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
+        <v>183140.33</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K66" s="46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vigente</v>
+      </c>
+      <c r="L66" s="47">
+        <v>183140.33</v>
+      </c>
+      <c r="M66" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="N66" s="48" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="10">
+        <v>219311.5</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="10">
+        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
+        <v>41037.667906000002</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J67" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="K67" s="46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vigente</v>
+      </c>
+      <c r="L67" s="47">
+        <v>41037.667906000002</v>
+      </c>
+      <c r="M67" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="N67" s="48" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="10">
+        <v>208653.88</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="10">
+        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
+        <v>208653.88</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K68" s="46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vigente</v>
+      </c>
+      <c r="L68" s="47">
+        <v>208653.88</v>
+      </c>
+      <c r="M68" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="N68" s="48" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Exército - Instituto Militar de Engenharia - IME_Limpeza e Jardinagem</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10">
+        <v>322373.17</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="10">
+        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
+        <v>244802.00907059875</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="J69" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K69" s="46" t="str">
+        <f t="shared" ref="K69:K70" ca="1" si="2">IF(J69&gt;TODAY(),"Vigente","Encerrado")</f>
+        <v>Vigente</v>
+      </c>
+      <c r="L69" s="47">
+        <v>244802.00907059875</v>
+      </c>
+      <c r="M69" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="N69" s="48" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="15">
+        <v>219311.5</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="15">
+        <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
+        <v>42400.671666666676</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="J70" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70" s="53" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Vigente</v>
+      </c>
+      <c r="L70" s="54">
+        <v>42400.671666666676</v>
+      </c>
+      <c r="M70" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="N70" s="55" t="str">
+        <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
+        <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K65">
-    <cfRule type="expression" dxfId="2" priority="5">
+  <conditionalFormatting sqref="A2:K70">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>$M2="Encerrado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L57 I66:I1048576 L59:L65">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="A ser apurado">
+  <conditionalFormatting sqref="A66:K70">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$M66="Encerrado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L57 L59:L70 I71:I1048576">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="A ser apurado">
       <formula>NOT(ISERROR(SEARCH("A ser apurado",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$M58="Encerrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8674,15 +8976,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C888B976-EE8D-40D9-8ED3-8BBDBF9BDF75}">
           <x14:formula1>
-            <xm:f>Planilha2!$A$2:$A$10</xm:f>
+            <xm:f>Planilha2!$A$2:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F18F452-72E2-41F2-BB8E-C375E17331F1}">
           <x14:formula1>
-            <xm:f>Planilha2!$A$2:$A$9</xm:f>
+            <xm:f>Planilha2!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G65</xm:sqref>
+          <xm:sqref>G3:G70</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8692,10 +8994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06655113-8824-4D66-AF55-7F00CA308594}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8715,42 +9017,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A9">
-    <sortCondition ref="A3:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A12">
+    <sortCondition ref="A3:A12"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faturamento\OneDrive - GRUPO KANTRO\Documentos\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B799DB-334C-473C-8493-5900B0B3320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{07B799DB-334C-473C-8493-5900B0B3320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{117241FB-508B-4195-8A57-6714BD52C61F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -798,7 +798,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,47 +921,8 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -969,7 +930,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="21">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -990,18 +951,6 @@
           </stop>
           <stop position="1">
             <color theme="9" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
           </stop>
         </gradientFill>
       </fill>
@@ -1766,7 +1715,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M2">
-            <v>5998738.9333333336</v>
+            <v>5972882.3000000007</v>
           </cell>
           <cell r="N2">
             <v>775699</v>
@@ -1816,7 +1765,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M3">
-            <v>20311106.033333335</v>
+            <v>20288883.816666666</v>
           </cell>
           <cell r="N3">
             <v>666666.5</v>
@@ -1866,7 +1815,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M4">
-            <v>8883486.6548386514</v>
+            <v>8862285.016044287</v>
           </cell>
           <cell r="N4">
             <v>636049.16383092967</v>
@@ -1916,7 +1865,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M5">
-            <v>2887322.6410000003</v>
+            <v>2869388.96</v>
           </cell>
           <cell r="N5">
             <v>538010.43000000005</v>
@@ -1966,7 +1915,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M6">
-            <v>3261945.8666666667</v>
+            <v>3247383.6083333334</v>
           </cell>
           <cell r="N6">
             <v>436867.75</v>
@@ -2016,7 +1965,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M7">
-            <v>2695888.8660000004</v>
+            <v>2681472.3480000002</v>
           </cell>
           <cell r="N7">
             <v>432495.54000000004</v>
@@ -2066,7 +2015,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M8">
-            <v>-100675.56566666666</v>
+            <v>-115057.78933333333</v>
           </cell>
           <cell r="N8">
             <v>431466.71</v>
@@ -2116,7 +2065,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M9">
-            <v>4134919.8933333335</v>
+            <v>4121998.2686666665</v>
           </cell>
           <cell r="N9">
             <v>387648.74</v>
@@ -2166,7 +2115,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M10">
-            <v>3677637.12</v>
+            <v>3666144.5040000002</v>
           </cell>
           <cell r="N10">
             <v>344778.48</v>
@@ -2216,7 +2165,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M11">
-            <v>819003.71699999995</v>
+            <v>807784.4879999999</v>
           </cell>
           <cell r="N11">
             <v>336576.87</v>
@@ -2267,7 +2216,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M12">
-            <v>8757804.4516666662</v>
+            <v>8747058.6793333329</v>
           </cell>
           <cell r="N12">
             <v>322373.17</v>
@@ -2317,7 +2266,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M13">
-            <v>3260029.6533333333</v>
+            <v>3249842.0606666668</v>
           </cell>
           <cell r="N13">
             <v>305627.78000000003</v>
@@ -2367,7 +2316,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M14">
-            <v>1820294.2199999997</v>
+            <v>1810181.4743333331</v>
           </cell>
           <cell r="N14">
             <v>303382.37</v>
@@ -2417,7 +2366,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M15">
-            <v>3182026.551</v>
+            <v>3172640.0419999999</v>
           </cell>
           <cell r="N15">
             <v>281595.27</v>
@@ -2467,7 +2416,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M16">
-            <v>1742184.5479999997</v>
+            <v>1733644.4276666665</v>
           </cell>
           <cell r="N16">
             <v>256203.61</v>
@@ -2518,7 +2467,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M17">
-            <v>1477259.0163333332</v>
+            <v>1469006.1726666666</v>
           </cell>
           <cell r="N17">
             <v>247585.31</v>
@@ -2568,7 +2517,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M18">
-            <v>11097161.9</v>
+            <v>11089851.516666666</v>
           </cell>
           <cell r="N18">
             <v>219311.5</v>
@@ -2618,7 +2567,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M19">
-            <v>1109840.7833333332</v>
+            <v>1102634.0249999999</v>
           </cell>
           <cell r="N19">
             <v>216202.75</v>
@@ -2668,7 +2617,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M20">
-            <v>2290168.054</v>
+            <v>2282966.2676666668</v>
           </cell>
           <cell r="N20">
             <v>216053.59</v>
@@ -2718,7 +2667,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M21">
-            <v>9079871.4800000004</v>
+            <v>9072727.5999999996</v>
           </cell>
           <cell r="N21">
             <v>214316.4</v>
@@ -2768,7 +2717,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M22">
-            <v>2267372.1626666668</v>
+            <v>2260417.0333333332</v>
           </cell>
           <cell r="N22">
             <v>208653.88</v>
@@ -2818,7 +2767,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M23">
-            <v>962076.6146666666</v>
+            <v>955576.09699999995</v>
           </cell>
           <cell r="N23">
             <v>195015.53</v>
@@ -2868,7 +2817,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M24">
-            <v>158248.29166666669</v>
+            <v>151918.36000000002</v>
           </cell>
           <cell r="N24">
             <v>189897.95</v>
@@ -2918,16 +2867,16 @@
             <v>Vigente</v>
           </cell>
           <cell r="M25">
-            <v>1538321.3009999997</v>
+            <v>1533141.7679999999</v>
           </cell>
           <cell r="N25">
             <v>155385.99</v>
           </cell>
-          <cell r="O25" t="str">
-            <v>A ser apurado</v>
-          </cell>
-          <cell r="P25" t="e">
-            <v>#VALUE!</v>
+          <cell r="O25">
+            <v>136861.28</v>
+          </cell>
+          <cell r="P25">
+            <v>-18524.709999999992</v>
           </cell>
         </row>
         <row r="26">
@@ -2968,7 +2917,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M26">
-            <v>686054.78833333321</v>
+            <v>681323.37599999993</v>
           </cell>
           <cell r="N26">
             <v>141942.37</v>
@@ -3019,7 +2968,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M27">
-            <v>955159.41599999985</v>
+            <v>950477.26199999987</v>
           </cell>
           <cell r="N27">
             <v>140464.62</v>
@@ -3069,7 +3018,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M28">
-            <v>957521.10666666669</v>
+            <v>952850.272</v>
           </cell>
           <cell r="N28">
             <v>140125.04</v>
@@ -3119,7 +3068,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M29">
-            <v>551619.054</v>
+            <v>547241.125</v>
           </cell>
           <cell r="N29">
             <v>131337.87</v>
@@ -3169,7 +3118,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M30">
-            <v>791258.13500000001</v>
+            <v>786981.06400000001</v>
           </cell>
           <cell r="N30">
             <v>128312.13</v>
@@ -3219,7 +3168,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M31">
-            <v>1386390.5369999998</v>
+            <v>1382176.5839999998</v>
           </cell>
           <cell r="N31">
             <v>126418.59</v>
@@ -3263,7 +3212,7 @@
             <v>42522</v>
           </cell>
           <cell r="K32">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L32" t="str">
             <v>Vigente</v>
@@ -3319,7 +3268,7 @@
             <v>Encerrado</v>
           </cell>
           <cell r="M33">
-            <v>-94390.464000000007</v>
+            <v>-98323.400000000009</v>
           </cell>
           <cell r="N33">
             <v>117988.08</v>
@@ -3369,7 +3318,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M34">
-            <v>1053378.6208117323</v>
+            <v>1049643.2356315488</v>
           </cell>
           <cell r="N34">
             <v>112061.55540550343</v>
@@ -3419,7 +3368,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M35">
-            <v>445685.62133333331</v>
+            <v>442568.93866666668</v>
           </cell>
           <cell r="N35">
             <v>93500.479999999996</v>
@@ -3469,7 +3418,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M36">
-            <v>409239.43733333331</v>
+            <v>406474.30599999998</v>
           </cell>
           <cell r="N36">
             <v>82953.94</v>
@@ -3519,7 +3468,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M37">
-            <v>395351.10499999998</v>
+            <v>393214.07199999999</v>
           </cell>
           <cell r="N37">
             <v>64110.99</v>
@@ -3569,7 +3518,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M38">
-            <v>317247.81999999995</v>
+            <v>315118.63999999996</v>
           </cell>
           <cell r="N38">
             <v>63875.4</v>
@@ -3619,7 +3568,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M39">
-            <v>307166.96666666667</v>
+            <v>305063.08333333331</v>
           </cell>
           <cell r="N39">
             <v>63116.5</v>
@@ -3663,7 +3612,7 @@
             <v>43525</v>
           </cell>
           <cell r="K40">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L40" t="str">
             <v>Vigente</v>
@@ -3719,7 +3668,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M41">
-            <v>459595.58666666667</v>
+            <v>457827.91133333335</v>
           </cell>
           <cell r="N41">
             <v>53030.26</v>
@@ -3769,7 +3718,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M42">
-            <v>252198.45333333331</v>
+            <v>250471.06666666665</v>
           </cell>
           <cell r="N42">
             <v>51821.599999999999</v>
@@ -3819,7 +3768,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M43">
-            <v>419204.38466666668</v>
+            <v>417628.42833333334</v>
           </cell>
           <cell r="N43">
             <v>47278.69</v>
@@ -3869,7 +3818,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M44">
-            <v>118491.82799999999</v>
+            <v>116972.702</v>
           </cell>
           <cell r="N44">
             <v>45573.78</v>
@@ -3919,7 +3868,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M45">
-            <v>208416.21666666667</v>
+            <v>206988.70833333334</v>
           </cell>
           <cell r="N45">
             <v>42825.25</v>
@@ -3969,7 +3918,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M46">
-            <v>204409.85466666668</v>
+            <v>203028.70700000002</v>
           </cell>
           <cell r="N46">
             <v>41434.43</v>
@@ -4020,7 +3969,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M47">
-            <v>243026.67199999999</v>
+            <v>241786.74</v>
           </cell>
           <cell r="N47">
             <v>37197.96</v>
@@ -4070,7 +4019,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M48">
-            <v>172458.31166666665</v>
+            <v>171268.94399999999</v>
           </cell>
           <cell r="N48">
             <v>35681.03</v>
@@ -4120,7 +4069,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M49">
-            <v>264580.63333333336</v>
+            <v>263468.95</v>
           </cell>
           <cell r="N49">
             <v>33350.5</v>
@@ -4170,7 +4119,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M50">
-            <v>158232.70733333332</v>
+            <v>157148.92166666666</v>
           </cell>
           <cell r="N50">
             <v>32513.57</v>
@@ -4221,7 +4170,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M51">
-            <v>146229.61111666667</v>
+            <v>145221.13104000001</v>
           </cell>
           <cell r="N51">
             <v>30254.402300000002</v>
@@ -4271,7 +4220,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M52">
-            <v>87060.87000000001</v>
+            <v>86093.527000000016</v>
           </cell>
           <cell r="N52">
             <v>29020.290000000005</v>
@@ -4315,7 +4264,7 @@
             <v>40969</v>
           </cell>
           <cell r="K53">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L53" t="str">
             <v>Vigente</v>
@@ -4365,7 +4314,7 @@
             <v>40186</v>
           </cell>
           <cell r="K54">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L54" t="str">
             <v>Vigente</v>
@@ -4415,7 +4364,7 @@
             <v>35555</v>
           </cell>
           <cell r="K55">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L55" t="str">
             <v>Vigente</v>
@@ -4465,7 +4414,7 @@
             <v>42653</v>
           </cell>
           <cell r="K56">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L56" t="str">
             <v>Vigente</v>
@@ -4521,7 +4470,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M57">
-            <v>328823.70400000003</v>
+            <v>328326.24</v>
           </cell>
           <cell r="N57">
             <v>14923.92</v>
@@ -4571,7 +4520,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M58">
-            <v>177641.93566666666</v>
+            <v>177147.11133333333</v>
           </cell>
           <cell r="N58">
             <v>14844.73</v>
@@ -4621,7 +4570,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M59">
-            <v>70464.329333333328</v>
+            <v>69988.218999999997</v>
           </cell>
           <cell r="N59">
             <v>14283.31</v>
@@ -4662,10 +4611,10 @@
             <v>-</v>
           </cell>
           <cell r="J60">
-            <v>45512</v>
+            <v>45513</v>
           </cell>
           <cell r="K60">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L60" t="str">
             <v>Vigente</v>
@@ -4709,13 +4658,13 @@
             <v>Rua Monsenhor Manuel Gomes, 370 - São Cristóvão, Rio de Janeiro - RJ</v>
           </cell>
           <cell r="I61">
-            <v>45512</v>
+            <v>45513</v>
           </cell>
           <cell r="J61">
             <v>43466</v>
           </cell>
           <cell r="K61">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L61" t="str">
             <v>Vigente</v>
@@ -4771,7 +4720,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M62">
-            <v>76953.333333333343</v>
+            <v>76727</v>
           </cell>
           <cell r="N62">
             <v>6790</v>
@@ -4819,7 +4768,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M63">
-            <v>38086.844333333342</v>
+            <v>37874.068666666673</v>
           </cell>
           <cell r="N63">
             <v>6383.27</v>
@@ -4869,7 +4818,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M64">
-            <v>153713.274</v>
+            <v>153534.12099999998</v>
           </cell>
           <cell r="N64">
             <v>5374.59</v>
@@ -4917,7 +4866,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M65">
-            <v>17749.845333333335</v>
+            <v>17611.17466666667</v>
           </cell>
           <cell r="N65">
             <v>4160.12</v>
@@ -4967,7 +4916,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M66">
-            <v>9782.6666666666661</v>
+            <v>9684.84</v>
           </cell>
           <cell r="N66">
             <v>2934.8</v>
@@ -5015,7 +4964,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M67">
-            <v>7066.666666666667</v>
+            <v>6996.0000000000009</v>
           </cell>
           <cell r="N67">
             <v>2120</v>
@@ -5063,7 +5012,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M68">
-            <v>4136</v>
+            <v>4073.333333333333</v>
           </cell>
           <cell r="N68">
             <v>1880</v>
@@ -5111,7 +5060,7 @@
             <v>Vigente</v>
           </cell>
           <cell r="M69">
-            <v>4607.6166666666659</v>
+            <v>4575.8399999999992</v>
           </cell>
           <cell r="N69">
             <v>953.3</v>
@@ -5155,7 +5104,7 @@
             <v>43828</v>
           </cell>
           <cell r="K70">
-            <v>45542</v>
+            <v>45543</v>
           </cell>
           <cell r="L70" t="str">
             <v>Vigente</v>
@@ -5181,31 +5130,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N70" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" headerRowCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}" name="Tabela1" displayName="Tabela1" ref="A1:N70" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" headerRowCellStyle="Moeda">
   <autoFilter ref="A1:N70" xr:uid="{26494283-FBA1-4516-934A-E8D02932BB12}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="14" dataCellStyle="Vírgula">
+    <tableColumn id="1" xr3:uid="{A5031065-3A63-4E12-A452-CE124BCAE36D}" name="Nome Prestador" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5B3E423B-A53E-4066-A892-BA5BA864FF7E}" name="Razão Social do Tomador" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{25A59EBA-C02B-487B-9FB0-10B49721E16E}" name="Valor Mensal" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="16" xr3:uid="{CFD9E157-1AA9-4960-89C8-B4943F2FD4E0}" name="Status Mediçao" dataDxfId="13" dataCellStyle="Vírgula">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="15" xr3:uid="{A3B9780F-532E-4018-9010-F9626CDC3F52}" name="Valor" dataDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="7">
+    <tableColumn id="17" xr3:uid="{EE7B7D00-E362-415D-8812-3F00D094E873}" name="Período" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{643D5E2D-0B1F-4B69-9BEA-F64B89351243}" name="Status Faturamento" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CA810C64-6FDF-4043-A83F-D7D4663C1E38}" name="Nº/Ano Contrato" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{53C1B2D0-997A-4176-8F2E-68F737CE7E0A}" name="Objeto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4A750EB9-0979-47B3-8C2B-BA1086E0E4E7}" name="Local Serviço" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1011B26E-14AB-4BEC-8A50-6DF5AA6F117D}" name="Status Vigência" dataDxfId="6">
       <calculatedColumnFormula>IF(J2&gt;TODAY(),"Vigente","Encerrado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="9" xr3:uid="{883CFB86-472A-44E6-A47B-F8FC1E0EE411}" name="Faturar Após Medição" dataDxfId="5" dataCellStyle="Moeda">
       <calculatedColumnFormula>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{15944F49-925F-4668-959B-DB08B4396E21}" name="EMPR" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{7189B23D-D71F-4D3D-9E69-9EF23E9EFA0A}" name="Chave" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{15944F49-925F-4668-959B-DB08B4396E21}" name="EMPR" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7189B23D-D71F-4D3D-9E69-9EF23E9EFA0A}" name="Chave" dataDxfId="3">
       <calculatedColumnFormula>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6635,7 +6584,7 @@
       </c>
       <c r="E23" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>191173.65546394369</v>
+        <v>182032.13</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>181</v>
@@ -6657,7 +6606,7 @@
         <v>Vigente</v>
       </c>
       <c r="L23" s="11">
-        <v>191173.65546394369</v>
+        <v>182032.13</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>178</v>
@@ -6728,11 +6677,11 @@
       </c>
       <c r="D25" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E25" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>136861.28</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>182</v>
@@ -6753,9 +6702,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="11">
         <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+        <v>136861.28</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>178</v>
@@ -8711,16 +8660,16 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="10">
         <v>322373.17</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E66" s="10">
@@ -8730,44 +8679,44 @@
       <c r="F66" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K66" s="46" t="str">
+      <c r="K66" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vigente</v>
       </c>
-      <c r="L66" s="47">
+      <c r="L66" s="31">
         <v>183140.33</v>
       </c>
-      <c r="M66" s="45" t="s">
+      <c r="M66" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N66" s="48" t="str">
+      <c r="N66" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
         <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="10">
         <v>219311.5</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E67" s="10">
@@ -8777,91 +8726,91 @@
       <c r="F67" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="G67" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H67" s="45" t="s">
+      <c r="H67" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="45" t="s">
+      <c r="I67" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J67" s="45" t="s">
+      <c r="J67" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K67" s="46" t="str">
+      <c r="K67" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vigente</v>
       </c>
-      <c r="L67" s="47">
+      <c r="L67" s="31">
         <v>41037.667906000002</v>
       </c>
-      <c r="M67" s="45" t="s">
+      <c r="M67" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="48" t="str">
+      <c r="N67" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
         <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="10">
         <v>208653.88</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>208653.88</v>
+        <v>198975.54</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="G68" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="H68" s="45" t="s">
+      <c r="G68" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I68" s="45" t="s">
+      <c r="I68" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J68" s="45" t="s">
+      <c r="J68" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K68" s="46" t="str">
+      <c r="K68" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vigente</v>
       </c>
-      <c r="L68" s="47">
-        <v>208653.88</v>
-      </c>
-      <c r="M68" s="45" t="s">
+      <c r="L68" s="31">
+        <v>198975.54</v>
+      </c>
+      <c r="M68" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N68" s="48" t="str">
+      <c r="N68" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
         <v>KE_Exército - Instituto Militar de Engenharia - IME_Limpeza e Jardinagem</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="10">
         <v>322373.17</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E69" s="10">
@@ -8871,44 +8820,44 @@
       <c r="F69" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G69" s="43" t="s">
+      <c r="G69" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H69" s="45" t="s">
+      <c r="H69" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J69" s="45" t="s">
+      <c r="J69" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K69" s="46" t="str">
+      <c r="K69" s="9" t="str">
         <f t="shared" ref="K69:K70" ca="1" si="2">IF(J69&gt;TODAY(),"Vigente","Encerrado")</f>
         <v>Vigente</v>
       </c>
-      <c r="L69" s="47">
+      <c r="L69" s="31">
         <v>244802.00907059875</v>
       </c>
-      <c r="M69" s="45" t="s">
+      <c r="M69" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N69" s="48" t="str">
+      <c r="N69" s="32" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
         <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="15">
         <v>219311.5</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="34" t="s">
         <v>193</v>
       </c>
       <c r="E70" s="15">
@@ -8918,29 +8867,29 @@
       <c r="F70" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="50" t="s">
+      <c r="G70" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="H70" s="52" t="s">
+      <c r="H70" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I70" s="52" t="s">
+      <c r="I70" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J70" s="52" t="s">
+      <c r="J70" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K70" s="53" t="str">
+      <c r="K70" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Vigente</v>
       </c>
-      <c r="L70" s="54">
+      <c r="L70" s="42">
         <v>42400.671666666676</v>
       </c>
-      <c r="M70" s="52" t="s">
+      <c r="M70" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N70" s="55" t="str">
+      <c r="N70" s="40" t="str">
         <f>Tabela1[[#This Row],[EMPR]]&amp;"_"&amp;Tabela1[[#This Row],[Razão Social do Tomador]]&amp;"_"&amp;Tabela1[[#This Row],[Objeto]]</f>
         <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
       </c>
@@ -8948,13 +8897,8 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A2:K70">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="Encerrado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:K70">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$M66="Encerrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L57 L59:L70 I71:I1048576">

--- a/clientes_v2.xlsx
+++ b/clientes_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantro-my.sharepoint.com/personal/faturamento_kantro_com_br/Documents/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{07B799DB-334C-473C-8493-5900B0B3320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{117241FB-508B-4195-8A57-6714BD52C61F}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{07B799DB-334C-473C-8493-5900B0B3320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95917C9E-77DC-4191-BF14-EE3A547D299C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73EF806C-1D7D-472F-AA39-49083887D198}"/>
   </bookViews>
@@ -635,11 +635,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,8 +687,147 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="Calibri1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,8 +840,140 @@
         <bgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -792,11 +1070,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="40" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -925,10 +1401,97 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="90">
+    <cellStyle name="20% - Accent1" xfId="14" xr:uid="{694156E8-8C84-4C4A-AD9A-F2C786A5D32D}"/>
+    <cellStyle name="20% - Accent2" xfId="15" xr:uid="{829B0C37-1F11-410D-8081-8D7803D8DE6C}"/>
+    <cellStyle name="20% - Accent3" xfId="16" xr:uid="{969F8985-592D-4685-8C41-8A5C05602313}"/>
+    <cellStyle name="20% - Accent4" xfId="17" xr:uid="{9CDDBBBD-4223-4AD7-BD4F-CA101265998D}"/>
+    <cellStyle name="20% - Accent5" xfId="18" xr:uid="{4DCA87E1-5461-40E2-8BB2-041BB7AFF2AF}"/>
+    <cellStyle name="20% - Accent6" xfId="19" xr:uid="{85C8111C-DBA7-492E-972D-3DBCECB158EA}"/>
+    <cellStyle name="40% - Accent1" xfId="20" xr:uid="{824913FE-73F3-4C6A-951C-091AEC7A4129}"/>
+    <cellStyle name="40% - Accent2" xfId="21" xr:uid="{63C2E855-2865-4DDA-B3B7-7552C3B021E3}"/>
+    <cellStyle name="40% - Accent3" xfId="22" xr:uid="{4687B8A1-2C2D-4319-A3A0-9EAE46AE2086}"/>
+    <cellStyle name="40% - Accent4" xfId="23" xr:uid="{4706364D-AE86-4786-BF10-8FF6B8E6779B}"/>
+    <cellStyle name="40% - Accent5" xfId="24" xr:uid="{4E126922-A7C0-4692-A1C3-B2B0C3686446}"/>
+    <cellStyle name="40% - Accent6" xfId="25" xr:uid="{15F9CB95-E7A3-48AD-94D9-93AB9A509375}"/>
+    <cellStyle name="60% - Accent1" xfId="26" xr:uid="{5CE920EF-5708-45B2-B274-D6DA48CD2532}"/>
+    <cellStyle name="60% - Accent2" xfId="27" xr:uid="{263DCB47-9219-4022-8F79-01EB0FF297DB}"/>
+    <cellStyle name="60% - Accent3" xfId="28" xr:uid="{A471CF66-A009-4979-9329-A44BD760AB7C}"/>
+    <cellStyle name="60% - Accent4" xfId="29" xr:uid="{6DAFB8C0-2EED-4D3B-9248-992C7F5D994F}"/>
+    <cellStyle name="60% - Accent5" xfId="30" xr:uid="{605394FD-2D9B-4B70-9B96-69004B23DCB1}"/>
+    <cellStyle name="60% - Accent6" xfId="31" xr:uid="{06575908-0694-4FC8-818C-6074B5CD3A96}"/>
+    <cellStyle name="Accent1" xfId="32" xr:uid="{788D2410-90B5-42BB-B4CF-C6A0EA0164CD}"/>
+    <cellStyle name="Accent2" xfId="33" xr:uid="{4407670E-EF8D-4C07-88C6-3C026B08370A}"/>
+    <cellStyle name="Accent3" xfId="34" xr:uid="{BAE368B9-7A27-4880-B14E-B1739F809DD9}"/>
+    <cellStyle name="Accent4" xfId="35" xr:uid="{5E62CF65-9120-47F0-8C9A-FE0DEE63185D}"/>
+    <cellStyle name="Accent5" xfId="36" xr:uid="{751C3C2E-EA8E-4657-B8B4-A027F9A694B5}"/>
+    <cellStyle name="Accent6" xfId="37" xr:uid="{59365D50-58A8-4250-AED0-BDA4C799A439}"/>
+    <cellStyle name="Bad" xfId="38" xr:uid="{5436AF0B-7F64-4448-B71E-9FFE9D193B68}"/>
+    <cellStyle name="Calculation" xfId="39" xr:uid="{C1A96C45-938C-4ABF-BE69-C92944009250}"/>
+    <cellStyle name="Check Cell" xfId="40" xr:uid="{930BBB1C-AC35-4D5D-A5DC-974DE48267D8}"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="9" xr:uid="{E180DF46-06B1-4ACD-B469-3D5FC8C69845}"/>
+    <cellStyle name="Explanatory Text" xfId="41" xr:uid="{3F35C5AF-3D8B-4657-A75E-0BEC804C29CF}"/>
+    <cellStyle name="Good" xfId="42" xr:uid="{789389D6-D1D6-4FCD-B5AF-659D9BC14645}"/>
+    <cellStyle name="Heading 1" xfId="43" xr:uid="{89ECCC30-85A7-41EA-B0AF-5AEE0F1DF6C4}"/>
+    <cellStyle name="Heading 2" xfId="44" xr:uid="{901C5692-4A1F-4187-AF1B-D7C0FCBBD267}"/>
+    <cellStyle name="Heading 3" xfId="45" xr:uid="{2F1CD5C3-1F89-4B87-857D-D43249819F78}"/>
+    <cellStyle name="Heading 4" xfId="46" xr:uid="{06BF4904-54C5-4C52-A5A8-C6C997271159}"/>
+    <cellStyle name="Input" xfId="47" xr:uid="{8FB43641-5AF7-4405-814E-5400CD775162}"/>
+    <cellStyle name="Linked Cell" xfId="48" xr:uid="{63E853A8-CE47-436C-B3C9-E77AB45D48C1}"/>
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Moeda 10" xfId="49" xr:uid="{F084DB59-90DB-4AAE-8421-BDB5D92DC966}"/>
+    <cellStyle name="Moeda 2" xfId="7" xr:uid="{126075B5-5CE1-4305-A4CA-44267E583478}"/>
+    <cellStyle name="Moeda 2 2" xfId="51" xr:uid="{E99E3ADA-4EF4-4830-9361-4868188DCBFA}"/>
+    <cellStyle name="Moeda 2 2 2" xfId="52" xr:uid="{C992F5A6-D254-4560-923F-A5B6C08995F0}"/>
+    <cellStyle name="Moeda 2 3" xfId="53" xr:uid="{CBC76579-A8DD-405B-8DB8-F815CDE807C7}"/>
+    <cellStyle name="Moeda 2 4" xfId="50" xr:uid="{66B1A956-7EAE-4137-A7CB-A1FC70B71AAA}"/>
+    <cellStyle name="Moeda 3" xfId="13" xr:uid="{D8D53F37-7292-4495-9BE9-5EC7C700E1CD}"/>
+    <cellStyle name="Moeda 3 2" xfId="55" xr:uid="{BF9A1696-16F7-4DD6-9B06-0B8BA92F946C}"/>
+    <cellStyle name="Moeda 3 3" xfId="56" xr:uid="{D2C58A39-9EC8-4512-A52B-385B94AA9509}"/>
+    <cellStyle name="Moeda 3 4" xfId="57" xr:uid="{11A9196F-326F-4946-A661-2D0B61129215}"/>
+    <cellStyle name="Moeda 3 4 2" xfId="58" xr:uid="{76EE22AE-7717-467D-82CF-D7E25001AC0C}"/>
+    <cellStyle name="Moeda 3 5" xfId="54" xr:uid="{07CFDD6D-12D5-492C-9816-6EE116D2B4E1}"/>
+    <cellStyle name="Moeda 4" xfId="59" xr:uid="{5BADA531-444A-41B1-B594-B5227AF73A16}"/>
+    <cellStyle name="Moeda 4 2" xfId="60" xr:uid="{1CCF9F54-31C1-4492-8C00-7D186E246B87}"/>
+    <cellStyle name="Moeda 4 2 2" xfId="61" xr:uid="{4D7F5631-C989-463B-8033-590319266B4E}"/>
+    <cellStyle name="Moeda 5" xfId="62" xr:uid="{6ECC9B86-8D4C-408B-8C6F-C6080FA0648C}"/>
+    <cellStyle name="Moeda 6" xfId="63" xr:uid="{1944E5A4-D7F4-4982-BFA9-60C4B4856263}"/>
+    <cellStyle name="Moeda 7" xfId="64" xr:uid="{35D20B5C-E9C6-407F-9BC6-B2EE84C80C81}"/>
+    <cellStyle name="Moeda 8" xfId="65" xr:uid="{C0D66E52-1E39-4730-825E-BDC5E40AB28C}"/>
+    <cellStyle name="Moeda 8 2" xfId="66" xr:uid="{DE90612E-347E-4C6A-B3A0-3F9EF46A90A3}"/>
+    <cellStyle name="Moeda 9" xfId="67" xr:uid="{50935E59-D417-44BD-9105-99CDCFB6C4BF}"/>
+    <cellStyle name="Neutral" xfId="68" xr:uid="{B6F633D3-BA8B-4946-8F50-361A0823B873}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{31A35737-E3F0-42F5-885E-2AE920D2D3E2}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{CE7C473D-F037-4744-A3E6-D2CF36003B89}"/>
+    <cellStyle name="Normal 2 2 2" xfId="70" xr:uid="{0F84C778-2A1A-41BB-BB24-66A9BC0CFE8F}"/>
+    <cellStyle name="Normal 2 3" xfId="69" xr:uid="{35C45415-2902-4ACB-AFA1-8BCFC5E267B7}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4FC70FA0-936B-4F6B-8515-F747C82E6780}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{E79CA8F8-DE22-4874-9CBB-0A703535557C}"/>
+    <cellStyle name="Normal 3 3" xfId="71" xr:uid="{E7BD994C-69EB-4D5D-AE58-985A48597DDC}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{EA48311D-5D73-478C-B23E-AF7FE180C900}"/>
+    <cellStyle name="Normal 4 2" xfId="73" xr:uid="{A152BCE5-B664-4735-97A3-94F46C1457AB}"/>
+    <cellStyle name="Normal 4 3" xfId="72" xr:uid="{15ED3AC6-1779-4E56-B29E-3312FAD79C01}"/>
+    <cellStyle name="Normal 5" xfId="10" xr:uid="{DD48815F-1B24-4684-8068-33D53679AFC1}"/>
+    <cellStyle name="Normal 6" xfId="11" xr:uid="{F0A2D000-A35D-43FF-9647-7FDA6255497B}"/>
+    <cellStyle name="Normal 6 2" xfId="74" xr:uid="{C6199E7D-8304-46D7-BB60-705F5887906F}"/>
+    <cellStyle name="Normal 7" xfId="12" xr:uid="{C250471A-FDC0-4D74-9CDE-22C5DE088135}"/>
+    <cellStyle name="Note" xfId="75" xr:uid="{A1E4B94A-6827-4389-BE1A-6737E64C7470}"/>
+    <cellStyle name="Output" xfId="76" xr:uid="{9BB621AF-B209-404C-BD2C-CEA3C6AD3548}"/>
+    <cellStyle name="Porcentagem 2" xfId="77" xr:uid="{8D5EA000-9526-4083-8A33-69CB149732B6}"/>
+    <cellStyle name="Porcentagem 2 2" xfId="78" xr:uid="{A404C193-1286-4E69-A1A1-C7C44B5BE50E}"/>
+    <cellStyle name="Porcentagem 3" xfId="79" xr:uid="{6C3ACA2A-C79B-4844-8834-AEED64F9BE67}"/>
+    <cellStyle name="Porcentagem 4" xfId="80" xr:uid="{2EAC90A5-31DA-4B35-9FFA-84841A903D9C}"/>
+    <cellStyle name="Porcentagem 5" xfId="89" xr:uid="{39C461AA-F077-42FD-84D5-97BA4A735F7F}"/>
+    <cellStyle name="Separador de milhares 2" xfId="81" xr:uid="{167FF145-7D46-4D0A-AF20-22C3E36EB0AC}"/>
+    <cellStyle name="Separador de milhares 2 2" xfId="82" xr:uid="{FC2562C7-8AAE-4F5D-AA74-0FDA94F8A01F}"/>
+    <cellStyle name="Separador de milhares 2 2 2" xfId="83" xr:uid="{DD32953C-3116-45A9-B2F1-307D7E8560CE}"/>
+    <cellStyle name="Separador de milhares 3" xfId="84" xr:uid="{29C939EA-D685-41BE-9E60-B94697F8EE41}"/>
+    <cellStyle name="Title" xfId="85" xr:uid="{57B9E13E-A383-403B-A22B-F55A1BA7B9F0}"/>
+    <cellStyle name="Título 1 1" xfId="86" xr:uid="{7C21A3AC-390E-4318-B097-37050EFF8B75}"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Vírgula 2" xfId="87" xr:uid="{38C97240-7AD7-4E60-B857-23580A969B6E}"/>
+    <cellStyle name="Warning Text" xfId="88" xr:uid="{507A722D-D094-457E-973A-8319E96AC2DD}"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -5481,9 +6044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06736F0B-1E7B-40B2-AFB2-0995320CCBFA}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="62.85546875" style="6" customWidth="1"/>
@@ -5502,7 +6067,7 @@
     <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>154</v>
       </c>
@@ -5546,7 +6111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="32" t="s">
         <v>156</v>
       </c>
@@ -5594,7 +6159,7 @@
         <v>KE_Tribunal de Justiça do Estado do Rio de Janeiro - TJ-RJ_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="32" t="s">
         <v>156</v>
       </c>
@@ -5643,7 +6208,7 @@
         <v>KE_Casa da Moeda do Brasil - CMB_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="32" t="s">
         <v>155</v>
       </c>
@@ -5691,7 +6256,7 @@
         <v>KT_Furnas Centrais Elétricas _Limpeza e Portaria</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="32" t="s">
         <v>156</v>
       </c>
@@ -5739,7 +6304,7 @@
         <v>KE_Instituto de Pesquisas Energéticas e Nucleares - IPEN_Limpeza</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="32" t="s">
         <v>155</v>
       </c>
@@ -5788,7 +6353,7 @@
         <v>KT_Marinha - Base de Abastecimento da Marinha no Rio de Janeiro - BAMRJ_Limpeza</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="32" t="s">
         <v>155</v>
       </c>
@@ -5800,17 +6365,17 @@
       </c>
       <c r="D7" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E7" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>431935.17000000016</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>183</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>69</v>
@@ -5825,9 +6390,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L7" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L7" s="11">
+        <v>431935.17000000016</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>178</v>
@@ -5837,7 +6401,7 @@
         <v>KT_Banco do Brasil_Limpeza</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="32" t="s">
         <v>155</v>
       </c>
@@ -5849,17 +6413,17 @@
       </c>
       <c r="D8" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E8" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>388941.42</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>184</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>70</v>
@@ -5874,9 +6438,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L8" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L8" s="11">
+        <v>388941.42</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>178</v>
@@ -5886,7 +6449,7 @@
         <v>KT_Aeronáutica - Academia da Força Aérea - AFA-FAYS_Apoio Agroindustrial</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="32" t="s">
         <v>156</v>
       </c>
@@ -5935,7 +6498,7 @@
         <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="32" t="s">
         <v>156</v>
       </c>
@@ -5947,17 +6510,17 @@
       </c>
       <c r="D10" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E10" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>330954.83999999997</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>183</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>75</v>
@@ -5972,9 +6535,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L10" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L10" s="11">
+        <v>330954.83999999997</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>177</v>
@@ -5984,7 +6546,7 @@
         <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="32" t="s">
         <v>155</v>
       </c>
@@ -6033,7 +6595,7 @@
         <v>KT_Banco do Brasil_Limpeza</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="32" t="s">
         <v>156</v>
       </c>
@@ -6082,7 +6644,7 @@
         <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="32" t="s">
         <v>156</v>
       </c>
@@ -6094,17 +6656,17 @@
       </c>
       <c r="D13" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E13" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>304531.76</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>183</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>78</v>
@@ -6119,9 +6681,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L13" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L13" s="11">
+        <v>304531.76</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>177</v>
@@ -6131,7 +6692,7 @@
         <v xml:space="preserve">KE_Banco do Brasil_Limpeza </v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="32" t="s">
         <v>156</v>
       </c>
@@ -6143,17 +6704,17 @@
       </c>
       <c r="D14" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E14" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>298852.40999999997</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>183</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>79</v>
@@ -6168,9 +6729,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L14" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L14" s="11">
+        <v>298852.40999999997</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>177</v>
@@ -6180,7 +6740,7 @@
         <v>KE_Banco do Brasil_Apoio Administrativo</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="32" t="s">
         <v>155</v>
       </c>
@@ -6192,17 +6752,17 @@
       </c>
       <c r="D15" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E15" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>281595.27</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>181</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>82</v>
@@ -6217,9 +6777,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L15" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L15" s="11">
+        <f>84478.58+197116.69</f>
+        <v>281595.27</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>178</v>
@@ -6229,7 +6789,7 @@
         <v>KT_Instituto Nacional de Metrologia, Qualidade e Tecnologia - Inmetro_Limpeza</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="32" t="s">
         <v>156</v>
       </c>
@@ -6277,7 +6837,7 @@
         <v>KE_Marinha - CTMSP _Apoio Administrativo</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="32" t="s">
         <v>155</v>
       </c>
@@ -6325,7 +6885,7 @@
         <v>KT_Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP_Limpeza</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="32" t="s">
         <v>155</v>
       </c>
@@ -6374,7 +6934,7 @@
         <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="32" t="s">
         <v>156</v>
       </c>
@@ -6422,7 +6982,7 @@
         <v>KE_Companhia Docas do Rio de Janeiro - PortosRio _Limpeza</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="32" t="s">
         <v>155</v>
       </c>
@@ -6471,7 +7031,7 @@
         <v>KT_Aeronáutica - Academia da Força Aérea - AFA_Limpeza</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="32" t="s">
         <v>156</v>
       </c>
@@ -6519,7 +7079,7 @@
         <v>KE_Serviço Federal de Processamento de Dados - SERPRO_Facilities</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="32" t="s">
         <v>156</v>
       </c>
@@ -6568,7 +7128,7 @@
         <v>KE_Exército - Instituto Militar de Engenharia - IME_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="32" t="s">
         <v>155</v>
       </c>
@@ -6616,7 +7176,7 @@
         <v>KT_Marinha - Centro de Intendência Tecnológico da Marinha em São Paulo - CelTMSP_Limpeza</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="32" t="s">
         <v>155</v>
       </c>
@@ -6665,7 +7225,7 @@
         <v>KT_Exército - Base de Administração e Apoio da 1ª Região Militar_Limpeza, Jardinagem e Copeiragem</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="32" t="s">
         <v>155</v>
       </c>
@@ -6714,7 +7274,7 @@
         <v>KT_Instituto de Pesquisas Energéticas e Nucleares - IPEN_Apoio Operacional</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="32" t="s">
         <v>155</v>
       </c>
@@ -6762,7 +7322,7 @@
         <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Reitoria_Limpeza</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="32" t="s">
         <v>156</v>
       </c>
@@ -6774,17 +7334,17 @@
       </c>
       <c r="D27" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E27" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>140464.62</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>185</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>103</v>
@@ -6799,9 +7359,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L27" s="11" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L27" s="11">
+        <v>140464.62</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>177</v>
@@ -6811,7 +7370,7 @@
         <v>KE_Departamento Nacional de Infraestrutura de Transportes - DNIT_Limpeza</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="32" t="s">
         <v>155</v>
       </c>
@@ -6860,7 +7419,7 @@
         <v>KT_Superintendência Estadual do Ministério da Saúde no Rio de Janeiro - SEMS/RJ_Limpeza</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="32" t="s">
         <v>156</v>
       </c>
@@ -6872,17 +7431,17 @@
       </c>
       <c r="D29" s="35" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E29" s="20">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>131337.87</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>105</v>
@@ -6897,9 +7456,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L29" s="21" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L29" s="21">
+        <v>131337.87</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>177</v>
@@ -6909,7 +7467,7 @@
         <v>KE_Companhia de Entrepostos e Armazéns Gerais de São Paulo - CEAGESP_Limpeza</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="32" t="s">
         <v>155</v>
       </c>
@@ -6958,7 +7516,7 @@
         <v>KT_Banco Central do Brasil - Bacen_Apoio Administrativo e Almoxarife</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="32" t="s">
         <v>155</v>
       </c>
@@ -7007,7 +7565,7 @@
         <v>KT_Arquivo Nacional - AN_Limpeza</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="32" t="s">
         <v>156</v>
       </c>
@@ -7056,7 +7614,7 @@
         <v>KE_Condomínio Edifício Grajau Ville_Limpeza e Portaria</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="32" t="s">
         <v>156</v>
       </c>
@@ -7104,7 +7662,7 @@
         <v>KE_Exército - Escola de Sargentos de Logística - EsSLog_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="32" t="s">
         <v>156</v>
       </c>
@@ -7116,17 +7674,17 @@
       </c>
       <c r="D34" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E34" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>108241.16598148146</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>113</v>
@@ -7141,9 +7699,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L34" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L34" s="11">
+        <v>108241.16598148146</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>177</v>
@@ -7153,7 +7710,7 @@
         <v>KE_Marinha - LFM_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="32" t="s">
         <v>156</v>
       </c>
@@ -7202,7 +7759,7 @@
         <v>KE_Instituto Brasileiro de Museus - Ibram_Jardinagem</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="32" t="s">
         <v>155</v>
       </c>
@@ -7250,7 +7807,7 @@
         <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Nilópolis_Limpeza</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="32" t="s">
         <v>156</v>
       </c>
@@ -7298,7 +7855,7 @@
         <v>KE_Instituto Benjamin Constant - IBC_Preparo e Distribuição de Refeições</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="32" t="s">
         <v>155</v>
       </c>
@@ -7310,17 +7867,17 @@
       </c>
       <c r="D38" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E38" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>63875.4</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>121</v>
@@ -7335,9 +7892,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L38" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L38" s="11">
+        <v>63875.4</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>178</v>
@@ -7347,7 +7903,7 @@
         <v>KT_Instituto Chico Mendes de Conservação da Biodiversidade - ICMBio_Apoio Administrativo</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="32" t="s">
         <v>156</v>
       </c>
@@ -7395,7 +7951,7 @@
         <v>KE_Exército - Instituto de Biologia do Exército - IBEx_Limpeza</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="32" t="s">
         <v>156</v>
       </c>
@@ -7444,7 +8000,7 @@
         <v>KE_Condomínio Edifício Villa Splendore_Limpeza e Portaria</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="32" t="s">
         <v>155</v>
       </c>
@@ -7456,11 +8012,11 @@
       </c>
       <c r="D41" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E41" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>53030.259999999995</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>185</v>
@@ -7481,9 +8037,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L41" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L41" s="31">
+        <v>53030.259999999995</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>178</v>
@@ -7493,7 +8048,7 @@
         <v>KT_Instituto do Patrimônio Histórico e Artístico Nacional - IPHAN_Limpeza</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="32" t="s">
         <v>156</v>
       </c>
@@ -7541,7 +8096,7 @@
         <v>KE_Marinha - CIASC_Limpeza</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="32" t="s">
         <v>156</v>
       </c>
@@ -7590,7 +8145,7 @@
         <v>KE_Laboratório Nacional de Computação Científica - LNCC _Limpeza</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="32" t="s">
         <v>156</v>
       </c>
@@ -7602,17 +8157,17 @@
       </c>
       <c r="D44" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E44" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>45573.78</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>131</v>
@@ -7627,9 +8182,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L44" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L44" s="31">
+        <v>45573.78</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>177</v>
@@ -7639,7 +8193,7 @@
         <v>KE_Fundação de Apoio à Pesquisa Científica e Tecnológica da UFRRJ – FAPUR_Apoio Operacional</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="32" t="s">
         <v>155</v>
       </c>
@@ -7687,7 +8241,7 @@
         <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Rio de Janeiro_Limpeza</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="32" t="s">
         <v>155</v>
       </c>
@@ -7735,7 +8289,7 @@
         <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus São Gonçalo_Limpeza</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="32" t="s">
         <v>155</v>
       </c>
@@ -7783,7 +8337,7 @@
         <v>KT_Museu do Índio_Limpeza, Jardinagem e Copeiragem</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="32" t="s">
         <v>155</v>
       </c>
@@ -7831,7 +8385,7 @@
         <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Paracambi_Limpeza</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="32" t="s">
         <v>155</v>
       </c>
@@ -7879,7 +8433,7 @@
         <v>KT_Universidade Federal Rural do Rio de Janeiro - UFRRJ_Limpeza</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="32" t="s">
         <v>155</v>
       </c>
@@ -7927,7 +8481,7 @@
         <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Volta Redonda_Limpeza</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="32" t="s">
         <v>155</v>
       </c>
@@ -7975,7 +8529,7 @@
         <v>KT_Instituto Federal do Rio de Janeiro - IFRJ Campus Realengo_Limpeza</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="32" t="s">
         <v>156</v>
       </c>
@@ -8023,7 +8577,7 @@
         <v>KE_Conselho Regional de Farmácia CRF-RJ_Limpeza</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="32" t="s">
         <v>156</v>
       </c>
@@ -8072,7 +8626,7 @@
         <v xml:space="preserve">KE_Xhow Alimentos_Limpeza </v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="32" t="s">
         <v>156</v>
       </c>
@@ -8121,7 +8675,7 @@
         <v>KE_Condomínio Edifício Anambé_Limpeza e Portaria</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="32" t="s">
         <v>156</v>
       </c>
@@ -8170,7 +8724,7 @@
         <v>KE_Mitra - Catedral São Sebastião_Limpeza</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="32" t="s">
         <v>156</v>
       </c>
@@ -8219,7 +8773,7 @@
         <v>KE_Mitra - Rua São José_Limpeza</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="32" t="s">
         <v>155</v>
       </c>
@@ -8231,17 +8785,17 @@
       </c>
       <c r="D57" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E57" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>14923.92</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>187</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>145</v>
@@ -8256,9 +8810,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L57" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L57" s="31">
+        <v>14923.92</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>178</v>
@@ -8268,7 +8821,7 @@
         <v>KT_Tribunal de Contas do Município do Rio de Janeiro - TCMRJ_Motoboy</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="32" t="s">
         <v>155</v>
       </c>
@@ -8316,7 +8869,7 @@
         <v>KT_Fundação Instituto Brasileiro de Geografia e Estatística – IBGE_Limpeza</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="32" t="s">
         <v>156</v>
       </c>
@@ -8328,17 +8881,17 @@
       </c>
       <c r="D59" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E59" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>14283.31</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>148</v>
@@ -8353,9 +8906,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L59" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L59" s="31">
+        <v>14283.31</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>177</v>
@@ -8365,7 +8917,7 @@
         <v>KE_Tribunal Região Federal da 2ª Região_Montagem de Mobiliário</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="32" t="s">
         <v>156</v>
       </c>
@@ -8414,7 +8966,7 @@
         <v>KE_Mitra - Paróquia Nossa Senhora da Paz_Limpeza</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="32" t="s">
         <v>155</v>
       </c>
@@ -8463,7 +9015,7 @@
         <v>KT_MSC Mediterranean Ltda_Limpeza</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="32" t="s">
         <v>155</v>
       </c>
@@ -8475,17 +9027,17 @@
       </c>
       <c r="D62" s="33" t="str">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO","A ser apurado",IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan","Insetkan","Apurado"))</f>
-        <v>A ser apurado</v>
+        <v>Apurado</v>
       </c>
       <c r="E62" s="10">
         <f>IF(Tabela1[[#This Row],[Faturar Após Medição]]="A SER APURADO",0,IF(Tabela1[[#This Row],[Faturar Após Medição]]="insetkan",0,Tabela1[[#This Row],[Faturar Após Medição]]))</f>
-        <v>0</v>
+        <v>6383.27</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>180</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>151</v>
@@ -8500,9 +9052,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>Vigente</v>
       </c>
-      <c r="L62" s="31" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Chave]],'[1]07.2024'!$A$1:$P$70,15,0)</f>
-        <v>A ser apurado</v>
+      <c r="L62" s="31">
+        <v>6383.27</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>178</v>
@@ -8512,7 +9063,7 @@
         <v>KT_Serviço Social do Comércio - Departamento Nacional - Sesc DN_Motoboy</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="32" t="s">
         <v>156</v>
       </c>
@@ -8561,7 +9112,7 @@
         <v xml:space="preserve">KE_Banco da Providência_Limpeza </v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="32" t="s">
         <v>155</v>
       </c>
@@ -8610,7 +9161,7 @@
         <v>KT_Fundação Cultural do Exército Brasileiro - FUNCEB_Limpeza</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="32" t="s">
         <v>156</v>
       </c>
@@ -8659,7 +9210,7 @@
         <v>KE_Conferência Nacional dos Bispos do Brasil - CNBB_Limpeza Expressa</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="32" t="s">
         <v>156</v>
       </c>
@@ -8706,7 +9257,7 @@
         <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="32" t="s">
         <v>155</v>
       </c>
@@ -8753,7 +9304,7 @@
         <v>KT_Companhia de Pesquisa de Recursos Minerais - CPRM_Auxiliar de Campo e Administrativo</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="32" t="s">
         <v>156</v>
       </c>
@@ -8800,7 +9351,7 @@
         <v>KE_Exército - Instituto Militar de Engenharia - IME_Limpeza e Jardinagem</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="32" t="s">
         <v>156</v>
       </c>
@@ -8847,7 +9398,7 @@
         <v>KE_Superintendência Regional da Polícia Federal no Rio de Janeiro_Limpeza</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="40" t="s">
         <v>155</v>
       </c>
@@ -8901,7 +9452,7 @@
       <formula>$M2="Encerrado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L57 L59:L70 I71:I1048576">
+  <conditionalFormatting sqref="L59:L70 I71:I1048576 L1:L57">
     <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="A ser apurado">
       <formula>NOT(ISERROR(SEARCH("A ser apurado",I1)))</formula>
     </cfRule>
@@ -8941,70 +9492,71 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>163</v>
       </c>
